--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8085" yWindow="3795" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +125,42 @@
   </si>
   <si>
     <t>交npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接npc备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交npc备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,12 +190,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,8 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,70 +527,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -548,33 +634,60 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -586,37 +699,64 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -624,37 +764,64 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -662,37 +829,64 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -700,37 +894,64 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
         <v>17</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -738,37 +959,64 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
         <v>18</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -776,37 +1024,64 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -814,37 +1089,64 @@
         <v>1</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
         <v>20</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -852,37 +1154,64 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
         <v>21</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -890,24 +1219,51 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,68 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff2号</t>
-  </si>
-  <si>
-    <t>buff3号</t>
-  </si>
-  <si>
-    <t>buff4号</t>
-  </si>
-  <si>
-    <t>buff5号</t>
-  </si>
-  <si>
-    <t>buff6号</t>
-  </si>
-  <si>
-    <t>buff7号</t>
-  </si>
-  <si>
-    <t>buff8号</t>
-  </si>
-  <si>
-    <t>buff9号</t>
-  </si>
-  <si>
-    <t>buff10号</t>
-  </si>
-  <si>
-    <t>这是buff1号的buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是buff2号的buff</t>
-  </si>
-  <si>
-    <t>这是buff3号的buff</t>
-  </si>
-  <si>
-    <t>这是buff4号的buff</t>
-  </si>
-  <si>
-    <t>这是buff5号的buff</t>
-  </si>
-  <si>
-    <t>这是buff6号的buff</t>
-  </si>
-  <si>
-    <t>这是buff7号的buff</t>
-  </si>
-  <si>
-    <t>这是buff8号的buff</t>
-  </si>
-  <si>
-    <t>这是buff9号的buff</t>
-  </si>
-  <si>
-    <t>这是buff10号的buff</t>
-  </si>
-  <si>
     <t>前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,13 +100,168 @@
   <si>
     <t>任务提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-9999,剧情任务
+10000-19999，日常任务
+20000-29999，家族任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处填写前置任务的任务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=剧情
+2=日常
+3=家族
+0=其他功能，用任务id实现需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255）接取任务时所在的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255）交付任务时所在的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255）接取任务时角色必须大于等于该等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255）接取任务时角色必须小于等于该等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255）每天可完成的次数，剧情任务无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-65535）接取任务时的npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接任务时npc的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-65535）交付任务时的npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交任务时npc的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）完成任务后获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{20000,0,1,0,"1-1"},{20001,0,1,0,"1-1"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务后获得的道具，配置方法暂时使用神作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-64）个中文字符，配置方法暂时使用神作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-128）个中文字符，配置方法暂时使用神作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-64）个英文字符，配置方法暂时使用神作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手接引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you！1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you！2</t>
+  </si>
+  <si>
+    <t>Nice to meet you！3</t>
+  </si>
+  <si>
+    <t>Nice to meet you！4</t>
+  </si>
+  <si>
+    <t>Nice to meet you！5</t>
+  </si>
+  <si>
+    <t>Nice to meet you！6</t>
+  </si>
+  <si>
+    <t>Nice to meet you！7</t>
+  </si>
+  <si>
+    <t>Nice to meet you！8</t>
+  </si>
+  <si>
+    <t>Nice to meet you！9</t>
+  </si>
+  <si>
+    <t>Nice to meet you！10</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you,too！2</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！3</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！4</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！5</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！6</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！7</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！8</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！9</t>
+  </si>
+  <si>
+    <t>Nice to meet you,too！10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +280,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -222,10 +322,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,14 +645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
@@ -547,9 +663,13 @@
     <col min="12" max="12" width="7.25" customWidth="1"/>
     <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" customWidth="1"/>
+    <col min="18" max="18" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="102.25" customWidth="1"/>
+    <col min="21" max="21" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -560,69 +680,70 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="U1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"["&amp;G2&amp;"级]从天而降"</f>
+        <v>[1级]从天而降</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -646,51 +767,69 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
       </c>
       <c r="N2">
         <v>5</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="str">
+        <f>B2&amp;"任务的具体描述在这里。"</f>
+        <v>[1级]从天而降任务的具体描述在这里。</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>"需要与"&amp;M3&amp;"对话"</f>
+        <v>需要与新手接引对话</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick=""1"" id="""&amp;J2&amp;""" mapid="""&amp;E2&amp;""" flagpoint=""1"" taskid="""&amp;A2&amp;"""/&gt;
+&lt;/p&gt;"</f>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1000"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U2" t="str">
+        <f>"&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick=""1"" id="""&amp;L2&amp;""" mapid="""&amp;F2&amp;""" flagpoint=""1"" taskid="""&amp;A2&amp;"""/&gt;
+&lt;/p&gt;"</f>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1000"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>1001</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"["&amp;G3&amp;"级]绝世毛泽东"</f>
+        <v>[1级]绝世毛泽东</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f>A2</f>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -711,63 +850,81 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P11" si="0">B3&amp;"任务的具体描述在这里。"</f>
+        <v>[1级]绝世毛泽东任务的具体描述在这里。</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q11" si="1">"需要与"&amp;M4&amp;"对话"</f>
+        <v>需要与貂蝉对话</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T11" si="2">"&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick=""1"" id="""&amp;J3&amp;""" mapid="""&amp;E3&amp;""" flagpoint=""1"" taskid="""&amp;A3&amp;"""/&gt;
+&lt;/p&gt;"</f>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1001"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U11" si="3">"&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick=""1"" id="""&amp;L3&amp;""" mapid="""&amp;F3&amp;""" flagpoint=""1"" taskid="""&amp;A3&amp;"""/&gt;
+&lt;/p&gt;"</f>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1001"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>1002</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"["&amp;G4&amp;"级]霸气蒋介石"</f>
+        <v>[2级]霸气蒋介石</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C11" si="4">A3</f>
+        <v>1001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -776,51 +933,63 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
       </c>
       <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>[2级]霸气蒋介石任务的具体描述在这里。</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与新手接引对话</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1002"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1002"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>1003</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"["&amp;G5&amp;"级]忠勇周恩来"</f>
+        <v>[2级]忠勇周恩来</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1002</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -832,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -841,51 +1010,63 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>[2级]忠勇周恩来任务的具体描述在这里。</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与貂蝉对话</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1003"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1003"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>1004</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"["&amp;G6&amp;"级]铁血林彪"</f>
+        <v>[3级]铁血林彪</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1003</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -897,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -906,51 +1087,63 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
       </c>
       <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>[3级]铁血林彪任务的具体描述在这里。</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与新手接引对话</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1004"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1004"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>1005</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"["&amp;G7&amp;"级]能臣刘少奇"</f>
+        <v>[3级]能臣刘少奇</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>1004</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -962,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -971,51 +1164,63 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>[3级]能臣刘少奇任务的具体描述在这里。</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与貂蝉对话</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1005"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1005"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>1006</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"["&amp;G8&amp;"级]反骨李宗仁"</f>
+        <v>[4级]反骨李宗仁</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>1005</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1027,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1036,51 +1241,63 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
       </c>
       <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>[4级]反骨李宗仁任务的具体描述在这里。</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与新手接引对话</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1006"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1006"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+        <v>1007</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"["&amp;G9&amp;"级]仁义朱德"</f>
+        <v>[4级]仁义朱德</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1006</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1092,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1101,51 +1318,63 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>[4级]仁义朱德任务的具体描述在这里。</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与貂蝉对话</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1007"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1007"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+        <v>1008</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"["&amp;G10&amp;"级]飞将军叶挺"</f>
+        <v>[5级]飞将军叶挺</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1007</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1157,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1166,51 +1395,63 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
       </c>
       <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>[5级]飞将军叶挺任务的具体描述在这里。</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与新手接引对话</v>
+      </c>
+      <c r="R10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1008"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1008"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
+        <v>1009</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"["&amp;G11&amp;"级]西南王白崇禧"</f>
+        <v>[5级]西南王白崇禧</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1008</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1222,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1231,40 +1472,50 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>[5级]西南王白崇禧任务的具体描述在这里。</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>需要与对话</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1009"/&gt;
+&lt;/p&gt;</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;p&gt;
+&lt;n&gt;找：&lt;/n&gt;
+&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1009"/&gt;
+&lt;/p&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -1276,16 +1527,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="38.625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="8085" yWindow="3795" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,66 +191,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nice to meet you！1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nice to meet you！2</t>
-  </si>
-  <si>
-    <t>Nice to meet you！3</t>
-  </si>
-  <si>
-    <t>Nice to meet you！4</t>
-  </si>
-  <si>
-    <t>Nice to meet you！5</t>
-  </si>
-  <si>
-    <t>Nice to meet you！6</t>
-  </si>
-  <si>
-    <t>Nice to meet you！7</t>
-  </si>
-  <si>
-    <t>Nice to meet you！8</t>
-  </si>
-  <si>
-    <t>Nice to meet you！9</t>
-  </si>
-  <si>
-    <t>Nice to meet you！10</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nice to meet you,too！2</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！3</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！4</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！5</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！6</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！7</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！8</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！9</t>
-  </si>
-  <si>
-    <t>Nice to meet you,too！10</t>
+    <t>接npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -322,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -342,6 +292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -352,12 +303,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,17 +597,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
     <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -662,17 +616,12 @@
     <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.25" customWidth="1"/>
     <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" customWidth="1"/>
-    <col min="18" max="18" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="102.25" customWidth="1"/>
-    <col min="21" max="21" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,64 +629,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -770,56 +704,25 @@
         <v>1000</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2">
         <v>1001</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="str">
-        <f>B2&amp;"任务的具体描述在这里。"</f>
-        <v>[1级]从天而降任务的具体描述在这里。</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>"需要与"&amp;M3&amp;"对话"</f>
-        <v>需要与新手接引对话</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="str">
-        <f>"&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick=""1"" id="""&amp;J2&amp;""" mapid="""&amp;E2&amp;""" flagpoint=""1"" taskid="""&amp;A2&amp;"""/&gt;
-&lt;/p&gt;"</f>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1000"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U2" t="str">
-        <f>"&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick=""1"" id="""&amp;L2&amp;""" mapid="""&amp;F2&amp;""" flagpoint=""1"" taskid="""&amp;A2&amp;"""/&gt;
-&lt;/p&gt;"</f>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1000"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -853,56 +756,25 @@
         <v>1001</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>1000</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>10</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P11" si="0">B3&amp;"任务的具体描述在这里。"</f>
-        <v>[1级]绝世毛泽东任务的具体描述在这里。</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q11" si="1">"需要与"&amp;M4&amp;"对话"</f>
-        <v>需要与貂蝉对话</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T11" si="2">"&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick=""1"" id="""&amp;J3&amp;""" mapid="""&amp;E3&amp;""" flagpoint=""1"" taskid="""&amp;A3&amp;"""/&gt;
-&lt;/p&gt;"</f>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1001"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U11" si="3">"&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick=""1"" id="""&amp;L3&amp;""" mapid="""&amp;F3&amp;""" flagpoint=""1"" taskid="""&amp;A3&amp;"""/&gt;
-&lt;/p&gt;"</f>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1001"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -911,7 +783,7 @@
         <v>[2级]霸气蒋介石</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="4">A3</f>
+        <f t="shared" ref="C4:C11" si="0">A3</f>
         <v>1001</v>
       </c>
       <c r="D4">
@@ -936,50 +808,25 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>1001</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>15</v>
       </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>[2级]霸气蒋介石任务的具体描述在这里。</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与新手接引对话</v>
-      </c>
-      <c r="R4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1002"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1002"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -988,7 +835,7 @@
         <v>[2级]忠勇周恩来</v>
       </c>
       <c r="C5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="D5">
@@ -1013,50 +860,25 @@
         <v>1001</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
         <v>20</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>[2级]忠勇周恩来任务的具体描述在这里。</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与貂蝉对话</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1003"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1003"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1065,7 +887,7 @@
         <v>[3级]铁血林彪</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="D6">
@@ -1090,50 +912,25 @@
         <v>1000</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>[3级]铁血林彪任务的具体描述在这里。</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与新手接引对话</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1004"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1004"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1142,7 +939,7 @@
         <v>[3级]能臣刘少奇</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="D7">
@@ -1167,50 +964,25 @@
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>1000</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
         <v>30</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>[3级]能臣刘少奇任务的具体描述在这里。</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与貂蝉对话</v>
-      </c>
-      <c r="R7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1005"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1005"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1219,7 +991,7 @@
         <v>[4级]反骨李宗仁</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="D8">
@@ -1244,50 +1016,25 @@
         <v>1000</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <v>1001</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
         <v>35</v>
       </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>[4级]反骨李宗仁任务的具体描述在这里。</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与新手接引对话</v>
-      </c>
-      <c r="R8" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1006"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1006"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1296,7 +1043,7 @@
         <v>[4级]仁义朱德</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="D9">
@@ -1321,50 +1068,25 @@
         <v>1001</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9">
         <v>1000</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
         <v>40</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>[4级]仁义朱德任务的具体描述在这里。</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与貂蝉对话</v>
-      </c>
-      <c r="R9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1007"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1007"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1373,7 +1095,7 @@
         <v>[5级]飞将军叶挺</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="D10">
@@ -1398,50 +1120,25 @@
         <v>1000</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
         <v>45</v>
       </c>
-      <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>[5级]飞将军叶挺任务的具体描述在这里。</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与新手接引对话</v>
-      </c>
-      <c r="R10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1008"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1008"/&gt;
-&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1450,7 +1147,7 @@
         <v>[5级]西南王白崇禧</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
       <c r="D11">
@@ -1475,47 +1172,22 @@
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>1000</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
         <v>50</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="0"/>
-        <v>[5级]西南王白崇禧任务的具体描述在这里。</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>需要与对话</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1001" mapid="1" flagpoint="1" taskid="1009"/&gt;
-&lt;/p&gt;</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;p&gt;
-&lt;n&gt;找：&lt;/n&gt;
-&lt;goto quick="1" id="1000" mapid="1" flagpoint="1" taskid="1009"/&gt;
-&lt;/p&gt;</v>
+      <c r="P11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1202,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1542,10 +1214,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1553,111 +1225,111 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1665,47 +1337,47 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -204,6 +204,48 @@
   </si>
   <si>
     <t>前置任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{2})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{3})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{4})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{5})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{6})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{7})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{8})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{9})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{10})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{11})&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>任务追踪接取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务追踪完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,10 +660,12 @@
     <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.125" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="62.25" customWidth="1"/>
+    <col min="16" max="17" width="43.75" customWidth="1"/>
+    <col min="18" max="18" width="55.875" customWidth="1"/>
+    <col min="19" max="19" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +714,17 @@
       <c r="P1" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -721,8 +774,14 @@
       <c r="P2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -773,8 +832,14 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -825,8 +890,14 @@
       <c r="P4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -877,8 +948,14 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -929,8 +1006,14 @@
       <c r="P6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -981,8 +1064,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1033,8 +1122,14 @@
       <c r="P8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1085,8 +1180,14 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1137,8 +1238,14 @@
       <c r="P10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1188,6 +1295,12 @@
       </c>
       <c r="P11">
         <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -208,33 +208,6 @@
   </si>
   <si>
     <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{2})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{3})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{4})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{5})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{6})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{7})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{8})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{9})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{10})&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{11})&lt;/color&gt;</t>
   </si>
   <si>
     <t>任务追踪接取</t>
@@ -641,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,13 +688,13 @@
         <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -833,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -891,10 +864,10 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -949,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -1007,10 +980,10 @@
         <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -1065,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -1123,10 +1096,10 @@
         <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -1181,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -1239,10 +1212,10 @@
         <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -1297,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="8085" yWindow="3795" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,9 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;&lt;color value="yellow"&gt;({1}/{2})&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>任务追踪接取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,13 +217,19 @@
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>[主]完成&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,10 +403,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +437,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -611,14 +612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
@@ -635,10 +636,10 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="43.75" customWidth="1"/>
     <col min="18" max="18" width="55.875" customWidth="1"/>
-    <col min="19" max="19" width="43.625" customWidth="1"/>
+    <col min="19" max="19" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,16 +689,16 @@
         <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -748,13 +749,13 @@
         <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -806,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -864,13 +865,13 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -922,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -980,13 +981,13 @@
         <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1038,13 +1039,13 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1096,13 +1097,13 @@
         <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1154,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1212,13 +1213,13 @@
         <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1270,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1284,21 +1285,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="38.625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="49.5">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="66">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1474,12 +1475,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="8085" yWindow="3795" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -228,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,9 +403,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,6 +438,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,14 +614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
@@ -639,7 +641,7 @@
     <col min="19" max="19" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -748,6 +750,9 @@
       <c r="P2" t="s">
         <v>35</v>
       </c>
+      <c r="Q2" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R2" t="s">
         <v>49</v>
       </c>
@@ -755,7 +760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -806,6 +811,9 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R3" t="s">
         <v>49</v>
       </c>
@@ -813,7 +821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -864,6 +872,9 @@
       <c r="P4" t="s">
         <v>35</v>
       </c>
+      <c r="Q4" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R4" t="s">
         <v>49</v>
       </c>
@@ -871,7 +882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -922,6 +933,9 @@
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R5" t="s">
         <v>49</v>
       </c>
@@ -929,7 +943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -980,6 +994,9 @@
       <c r="P6" t="s">
         <v>35</v>
       </c>
+      <c r="Q6" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R6" t="s">
         <v>49</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1038,6 +1055,9 @@
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R7" t="s">
         <v>49</v>
       </c>
@@ -1045,7 +1065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1096,6 +1116,9 @@
       <c r="P8" t="s">
         <v>35</v>
       </c>
+      <c r="Q8" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R8" t="s">
         <v>49</v>
       </c>
@@ -1103,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1154,6 +1177,9 @@
       <c r="P9">
         <v>1</v>
       </c>
+      <c r="Q9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R9" t="s">
         <v>49</v>
       </c>
@@ -1161,7 +1187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1212,6 +1238,9 @@
       <c r="P10" t="s">
         <v>35</v>
       </c>
+      <c r="Q10" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="R10" t="s">
         <v>49</v>
       </c>
@@ -1219,7 +1248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1269,6 +1298,9 @@
       </c>
       <c r="P11">
         <v>1</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="R11" t="s">
         <v>49</v>
@@ -1285,21 +1317,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="38.625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5">
+    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -1323,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66">
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1347,7 +1379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1475,12 +1507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,22 +207,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务追踪接取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务追踪完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>[主]完成&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>追踪进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪可完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,12 +648,12 @@
     <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.125" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="43.75" customWidth="1"/>
-    <col min="18" max="18" width="55.875" customWidth="1"/>
-    <col min="19" max="19" width="72.25" customWidth="1"/>
+    <col min="16" max="18" width="43.75" customWidth="1"/>
+    <col min="19" max="19" width="55.875" customWidth="1"/>
+    <col min="20" max="20" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,16 +703,19 @@
         <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -751,16 +766,19 @@
         <v>35</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -812,16 +830,19 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -873,16 +894,19 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -934,16 +958,19 @@
         <v>1</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -995,16 +1022,19 @@
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1056,16 +1086,19 @@
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1117,16 +1150,19 @@
         <v>35</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1178,16 +1214,19 @@
         <v>1</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1239,16 +1278,19 @@
         <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1300,13 +1342,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,12 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>[主]完成&lt;a href="{0}:{npcid:1000}"&gt;&lt;color value="green"&gt;天策军士&lt;/color&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>追踪进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +228,18 @@
   </si>
   <si>
     <t>完成描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:10000}"&gt;&lt;color value="green"&gt;小老虎&lt;/color&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[主]完成&lt;a href="{0}:{npcid:1001}"&gt;&lt;color value="green"&gt;貂蝉&lt;/color&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[主]教训&lt;a href="{0}:{npcid:10000}"&gt;&lt;color value="green"&gt;小老虎&lt;/color&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,16 +709,16 @@
         <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -766,16 +772,16 @@
         <v>35</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -830,16 +836,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -894,16 +900,16 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -958,16 +964,16 @@
         <v>1</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -1022,16 +1028,16 @@
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -1086,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -1150,16 +1156,16 @@
         <v>35</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -1214,16 +1220,16 @@
         <v>1</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -1278,16 +1284,16 @@
         <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -1342,16 +1348,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,23 +223,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接取描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:10000}"&gt;&lt;color value="green"&gt;小老虎&lt;/color&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[主]完成&lt;a href="{0}:{npcid:1001}"&gt;&lt;color value="green"&gt;貂蝉&lt;/color&gt;&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[主]教训&lt;a href="{0}:{npcid:10000}"&gt;&lt;color value="green"&gt;小老虎&lt;/color&gt;&lt;/a&gt;</t>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1000) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return "接取描述"
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +279,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -310,8 +329,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -328,7 +345,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,68 +683,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -772,19 +795,19 @@
         <v>35</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -836,19 +859,19 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -900,19 +923,19 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
         <v>52</v>
       </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -964,19 +987,19 @@
         <v>1</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1028,19 +1051,19 @@
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
         <v>52</v>
       </c>
-      <c r="T6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1092,19 +1115,19 @@
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
         <v>52</v>
       </c>
-      <c r="T7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1156,19 +1179,19 @@
         <v>35</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" t="s">
         <v>52</v>
       </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1220,19 +1243,19 @@
         <v>1</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" t="s">
         <v>52</v>
       </c>
-      <c r="T9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1284,19 +1307,19 @@
         <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" t="s">
         <v>52</v>
       </c>
-      <c r="T10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="81" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1348,16 +1371,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" t="s">
         <v>52</v>
       </c>
-      <c r="T11" t="s">
-        <v>53</v>
+      <c r="S11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1377,176 +1400,176 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="38.625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,6 +243,16 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
 else
  return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceGoToNpc(quest, 10000,true)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return "各种奖励"
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R11"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,7 +881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -926,7 +936,7 @@
         <v>53</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>50</v>
@@ -935,7 +945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>53</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>50</v>
@@ -999,7 +1009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>53</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>50</v>
@@ -1063,7 +1073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1118,7 +1128,7 @@
         <v>53</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>50</v>
@@ -1127,7 +1137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>53</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>50</v>
@@ -1191,7 +1201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>53</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>50</v>
@@ -1255,7 +1265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>53</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>50</v>
@@ -1319,7 +1329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1374,7 +1384,7 @@
         <v>53</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>50</v>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -248,7 +248,7 @@
   </si>
   <si>
     <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceGoToNpc(quest, 10000,true)
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
 elseif user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R11"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,7 +881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -945,7 +945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="162" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,6 +254,10 @@
 else
  return "各种奖励"
 end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,10 +693,11 @@
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="43.75" customWidth="1"/>
     <col min="19" max="19" width="55.875" customWidth="1"/>
-    <col min="20" max="20" width="72.25" customWidth="1"/>
+    <col min="20" max="20" width="53.375" customWidth="1"/>
+    <col min="21" max="21" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -753,8 +758,11 @@
       <c r="T1" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+      <c r="U1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -817,7 +825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -881,7 +889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -944,8 +952,12 @@
       <c r="T4" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U4" t="str">
+        <f>"AddEventKillNpc("&amp;A4&amp;", 10000, "&amp;N4&amp;")"</f>
+        <v>AddEventKillNpc(1002, 10000, 1)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1008,8 +1020,12 @@
       <c r="T5" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc("&amp;A5&amp;", 10000, "&amp;N5&amp;")"</f>
+        <v>AddEventKillNpc(1003, 10000, 2)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1072,8 +1088,12 @@
       <c r="T6" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U6" t="str">
+        <f t="shared" si="1"/>
+        <v>AddEventKillNpc(1004, 10000, 2)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1136,8 +1156,12 @@
       <c r="T7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v>AddEventKillNpc(1005, 10000, 2)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1200,8 +1224,12 @@
       <c r="T8" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U8" t="str">
+        <f t="shared" si="1"/>
+        <v>AddEventKillNpc(1006, 10000, 2)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1264,8 +1292,12 @@
       <c r="T9" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U9" t="str">
+        <f t="shared" si="1"/>
+        <v>AddEventKillNpc(1007, 10000, 2)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1328,8 +1360,12 @@
       <c r="T10" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="162" x14ac:dyDescent="0.15">
+      <c r="U10" t="str">
+        <f t="shared" si="1"/>
+        <v>AddEventKillNpc(1008, 10000, 2)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1391,6 +1427,10 @@
       </c>
       <c r="T11" s="7" t="s">
         <v>51</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="1"/>
+        <v>AddEventKillNpc(1009, 10000, 2)</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return [[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,6 +254,10 @@
   </si>
   <si>
     <t>任务事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,7 +759,7 @@
         <v>47</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="81" x14ac:dyDescent="0.15">
@@ -813,16 +813,16 @@
         <v>35</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="81" x14ac:dyDescent="0.15">
@@ -877,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -941,16 +941,16 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc("&amp;A4&amp;", 10000, "&amp;N4&amp;")"</f>
@@ -1009,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc("&amp;A5&amp;", 10000, "&amp;N5&amp;")"</f>
@@ -1077,16 +1077,16 @@
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
@@ -1145,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
@@ -1213,16 +1213,16 @@
         <v>35</v>
       </c>
       <c r="Q8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
@@ -1349,16 +1349,16 @@
         <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
@@ -1417,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="S11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="1"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S11"/>
+    <sheetView tabSelected="1" topLeftCell="R9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -953,8 +953,8 @@
         <v>50</v>
       </c>
       <c r="U4" t="str">
-        <f>"AddEventKillNpc("&amp;A4&amp;", 10000, "&amp;N4&amp;")"</f>
-        <v>AddEventKillNpc(1002, 10000, 1)</v>
+        <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;")"</f>
+        <v>AddEventKillNpc(base, 10000, 1)</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1021,8 +1021,8 @@
         <v>50</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc("&amp;A5&amp;", 10000, "&amp;N5&amp;")"</f>
-        <v>AddEventKillNpc(1003, 10000, 2)</v>
+        <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc(base, 10000, "&amp;N5&amp;")"</f>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(1004, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(1005, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(1006, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(1007, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(1008, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(1009, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2)</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="S10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -953,8 +953,9 @@
         <v>50</v>
       </c>
       <c r="U4" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;")"</f>
-        <v>AddEventKillNpc(base, 10000, 1)</v>
+        <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"
+&amp;"AddEventKillNpc(base, 10001, "&amp;N4&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 1);AddEventKillNpc(base, 10001, 1);</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1021,8 +1022,9 @@
         <v>50</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc(base, 10000, "&amp;N5&amp;")"</f>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc(base, 10000, "&amp;N5&amp;");"
+&amp;"AddEventKillNpc(base, 10001, "&amp;N5&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1090,7 +1092,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1158,7 +1160,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1226,7 +1228,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1294,7 +1296,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1362,7 +1364,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="162" x14ac:dyDescent="0.15">
@@ -1430,7 +1432,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2)</v>
+        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3795" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8088" yWindow="3852" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return "[[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]"
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,32 +684,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.25" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="43.75" customWidth="1"/>
-    <col min="19" max="19" width="55.875" customWidth="1"/>
-    <col min="20" max="20" width="53.375" customWidth="1"/>
+    <col min="16" max="18" width="43.77734375" customWidth="1"/>
+    <col min="19" max="19" width="55.88671875" customWidth="1"/>
+    <col min="20" max="20" width="53.33203125" customWidth="1"/>
     <col min="21" max="21" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -762,7 +774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -816,7 +828,7 @@
         <v>52</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>55</v>
@@ -825,7 +837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -886,10 +898,10 @@
         <v>55</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -958,7 +970,7 @@
         <v>AddEventKillNpc(base, 10000, 1);AddEventKillNpc(base, 10001, 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1027,7 +1039,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1450,14 +1462,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -268,7 +268,7 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return "[[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]"
+ return "完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;"
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,8 +268,12 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return "完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;"
+ return "完成任务"
 end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -774,7 +778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -834,7 +838,7 @@
         <v>55</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,14 +224,6 @@
   </si>
   <si>
     <t>return [[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return "各种奖励"
-end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,6 +266,44 @@
   </si>
   <si>
     <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return "完成任务"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return "接取接取"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,true)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return "完成任务"
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -775,7 +805,7 @@
         <v>47</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
@@ -829,16 +859,16 @@
         <v>35</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
@@ -878,10 +908,10 @@
         <v>41</v>
       </c>
       <c r="L3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -893,16 +923,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
@@ -936,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>1001</v>
@@ -957,21 +987,20 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="U4" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"
-&amp;"AddEventKillNpc(base, 10001, "&amp;N4&amp;");"</f>
-        <v>AddEventKillNpc(base, 10000, 1);AddEventKillNpc(base, 10001, 1);</v>
+        <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 1);</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
@@ -1026,13 +1055,13 @@
         <v>1</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>50</v>
@@ -1095,13 +1124,13 @@
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>50</v>
@@ -1163,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>50</v>
@@ -1231,13 +1260,13 @@
         <v>35</v>
       </c>
       <c r="Q8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>50</v>
@@ -1299,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>50</v>
@@ -1367,13 +1396,13 @@
         <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>50</v>
@@ -1435,13 +1464,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="S11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>50</v>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,6 +301,30 @@
  user.ReturnClickQuestTraceAttckMonster(quest, 10000,true)
 elseif user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return "完成任务"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;曹操&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
 else
  return "完成任务"
 end</t>
@@ -716,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -944,7 +968,7 @@
         <v>[2级]霸气蒋介石</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="0">A3</f>
+        <f>A3</f>
         <v>1001</v>
       </c>
       <c r="D4">
@@ -1012,7 +1036,7 @@
         <v>[2级]忠勇周恩来</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C11" si="0">A4</f>
         <v>1002</v>
       </c>
       <c r="D5">
@@ -1478,6 +1502,69 @@
       <c r="U11" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"["&amp;G12&amp;"级]从天而降"</f>
+        <v>[1级]从天而降</v>
+      </c>
+      <c r="C12">
+        <v>1009</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12">
+        <v>1002</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -740,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
         <v>[2级]忠勇周恩来</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C4:C11" si="0">A4</f>
+        <f t="shared" ref="C5:C11" si="0">A4</f>
         <v>1002</v>
       </c>
       <c r="D5">
@@ -1564,6 +1564,69 @@
         <v>54</v>
       </c>
       <c r="T12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"["&amp;G13&amp;"级]从天而降11"</f>
+        <v>[1级]从天而降11</v>
+      </c>
+      <c r="C13">
+        <v>1010</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13">
+        <v>1002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>64</v>
       </c>
     </row>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,14 +270,6 @@
   </si>
   <si>
     <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
-else
- return "完成任务"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return "接取接取"
@@ -327,6 +319,14 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
 else
  return "完成任务"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return "去找貂蝉"
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
         <v>51</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>54</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>56</v>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="S4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>50</v>
@@ -1543,7 +1543,7 @@
         <v>1002</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1555,79 +1555,16 @@
         <v>35</v>
       </c>
       <c r="Q12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1011</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"["&amp;G13&amp;"级]从天而降11"</f>
-        <v>[1级]从天而降11</v>
-      </c>
-      <c r="C13">
-        <v>1010</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1001</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13">
-        <v>1002</v>
-      </c>
-      <c r="M13" t="s">
         <v>63</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="3852" windowWidth="14808" windowHeight="7956"/>
+    <workbookView xWindow="8088" yWindow="3912" windowWidth="14808" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
@@ -323,10 +319,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
 else
- return "去找貂蝉"
+ return [[任务描述：&lt;br /&gt;&lt;color value="white"&gt;貂蝉貂蝉我爱你，就像老鼠爱大米&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -832,7 +832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -892,7 +892,7 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>56</v>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="S4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>50</v>
@@ -1543,7 +1543,7 @@
         <v>1002</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>35</v>
       </c>
       <c r="Q12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="3912" windowWidth="14808" windowHeight="7896"/>
+    <workbookView xWindow="8088" yWindow="3972" windowWidth="14808" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,10 +257,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;曹操&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
+else
+ return "完成任务"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return "完成任务"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好,救人不成。你义父为分心救你,被应龙封印在衣冠冢内。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1000) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,19 +316,15 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return "接取接取"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带我来这里,我要将义父救出来。&lt;/color&gt;]]
 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
 else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。决不能让这个村子的百姓遭殃,快去消灭他们。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,43 +334,7 @@
 elseif user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
 else
- return "完成任务"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;曹操&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
-else
- return "完成任务"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
-else
- return [[任务描述：&lt;br /&gt;&lt;color value="white"&gt;貂蝉貂蝉我爱你，就像老鼠爱大米&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -883,25 +891,25 @@
         <v>35</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="str">
-        <f>"["&amp;G3&amp;"级]绝世毛泽东"</f>
-        <v>[1级]绝世毛泽东</v>
+        <f>"["&amp;G3&amp;"级]冲动的惩罚"</f>
+        <v>[1级]冲动的惩罚</v>
       </c>
       <c r="C3">
         <f>A2</f>
@@ -947,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>54</v>
@@ -959,13 +967,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="str">
-        <f>"["&amp;G4&amp;"级]霸气蒋介石"</f>
-        <v>[2级]霸气蒋介石</v>
+        <f>"["&amp;G4&amp;"级]追兵"</f>
+        <v>[2级]追兵</v>
       </c>
       <c r="C4">
         <f>A3</f>
@@ -1011,13 +1019,13 @@
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>50</v>
@@ -1543,7 +1551,7 @@
         <v>1002</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1555,16 +1563,16 @@
         <v>35</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="3972" windowWidth="14808" windowHeight="7836"/>
+    <workbookView xWindow="8085" yWindow="3975" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>（0-4294967295）完成任务后获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{20000,0,1,0,"1-1"},{20001,0,1,0,"1-1"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,6 +333,73 @@
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-1"],
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-2"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-3"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-4"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-5"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-6"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-7"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-8"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-9"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-10"],
+]</t>
+  </si>
+  <si>
+    <t>[
+[20000,1,"1-1"],
+[20000,20,"1-11"],
+]</t>
   </si>
 </sst>
 </file>
@@ -750,32 +813,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
     <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="43.77734375" customWidth="1"/>
-    <col min="19" max="19" width="55.88671875" customWidth="1"/>
-    <col min="20" max="20" width="53.33203125" customWidth="1"/>
+    <col min="16" max="18" width="43.75" customWidth="1"/>
+    <col min="19" max="19" width="55.875" customWidth="1"/>
+    <col min="20" max="20" width="53.375" customWidth="1"/>
     <col min="21" max="21" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -783,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
@@ -804,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>15</v>
@@ -816,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>7</v>
@@ -825,22 +888,22 @@
         <v>18</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="115.2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -873,13 +936,13 @@
         <v>1000</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>1001</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -887,23 +950,23 @@
       <c r="O2">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
+      <c r="P2" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="129.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -937,13 +1000,13 @@
         <v>1001</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>1001</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -951,23 +1014,23 @@
       <c r="O3">
         <v>10</v>
       </c>
-      <c r="P3">
-        <v>1</v>
+      <c r="P3" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="201.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" ht="189" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1001,13 +1064,13 @@
         <v>1001</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>1001</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1015,27 +1078,27 @@
       <c r="O4">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
-        <v>35</v>
+      <c r="P4" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="S4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1069,13 +1132,13 @@
         <v>1001</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1083,20 +1146,20 @@
       <c r="O5">
         <v>20</v>
       </c>
-      <c r="P5">
-        <v>1</v>
+      <c r="P5" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc(base, 10000, "&amp;N5&amp;");"
@@ -1104,7 +1167,7 @@
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1138,13 +1201,13 @@
         <v>1000</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6">
         <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1152,27 +1215,27 @@
       <c r="O6">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
-        <v>35</v>
+      <c r="P6" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1206,13 +1269,13 @@
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7">
         <v>1000</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1220,27 +1283,27 @@
       <c r="O7">
         <v>30</v>
       </c>
-      <c r="P7">
-        <v>1</v>
+      <c r="P7" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1274,13 +1337,13 @@
         <v>1000</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>1001</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1288,27 +1351,27 @@
       <c r="O8">
         <v>35</v>
       </c>
-      <c r="P8" t="s">
-        <v>35</v>
+      <c r="P8" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="Q8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1342,13 +1405,13 @@
         <v>1001</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>1000</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1356,27 +1419,27 @@
       <c r="O9">
         <v>40</v>
       </c>
-      <c r="P9">
-        <v>1</v>
+      <c r="P9" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1410,13 +1473,13 @@
         <v>1000</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10">
         <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1424,27 +1487,27 @@
       <c r="O10">
         <v>45</v>
       </c>
-      <c r="P10" t="s">
-        <v>35</v>
+      <c r="P10" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="162" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1478,13 +1541,13 @@
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>1000</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1492,27 +1555,27 @@
       <c r="O11">
         <v>50</v>
       </c>
-      <c r="P11">
-        <v>1</v>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="1"/>
         <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1545,13 +1608,13 @@
         <v>1001</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>1002</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1559,20 +1622,20 @@
       <c r="O12">
         <v>5</v>
       </c>
-      <c r="P12" t="s">
-        <v>35</v>
+      <c r="P12" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="Q12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="S12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1590,14 +1653,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1613,15 +1676,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1661,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +1748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1709,60 +1772,60 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,71 +335,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-1"],
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-2"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-3"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-4"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-5"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-6"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-7"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-8"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-9"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-10"],
-]</t>
-  </si>
-  <si>
-    <t>[
-[20000,1,"1-1"],
-[20000,20,"1-11"],
-]</t>
+    <t>20000:1:1-1,20000:20:1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -814,7 +751,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>64</v>
@@ -1079,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>65</v>
@@ -1147,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>50</v>
@@ -1216,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>50</v>
@@ -1284,7 +1221,7 @@
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>50</v>
@@ -1352,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>50</v>
@@ -1420,7 +1357,7 @@
         <v>40</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>50</v>
@@ -1488,7 +1425,7 @@
         <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>50</v>
@@ -1556,7 +1493,7 @@
         <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>50</v>
@@ -1623,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>58</v>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3975" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="8088" yWindow="4032" windowWidth="14808" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>貂蝉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接npc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,7 +215,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
+    <t>任务事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好,救人不成。你义父为分心救你,被应龙封印在衣冠冢内。&lt;/color&gt;]]
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,111 +243,233 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带我来这里,我要将义父救出来。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。决不能让这个村子的百姓遭殃,快去消灭他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000:1:1-1,20000:20:1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,true)
+elseif user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1009,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
  user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+elseif user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
 else
  return "各种奖励"
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;曹操&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1009,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
 else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1011,true)
+else
  return "接取描述"
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
-else
- return "完成任务"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;貂蝉&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好,救人不成。你义父为分心救你,被应龙封印在衣冠冢内。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1000) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带我来这里,我要将义父救出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。决不能让这个村子的百姓遭殃,快去消灭他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,true)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000:1:1-1,20000:20:1-1</t>
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1011,true)
+else
+ return "各种奖励"
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,34 +882,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.25" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="43.75" customWidth="1"/>
-    <col min="19" max="19" width="55.875" customWidth="1"/>
-    <col min="20" max="20" width="53.375" customWidth="1"/>
+    <col min="16" max="18" width="43.77734375" customWidth="1"/>
+    <col min="19" max="19" width="55.88671875" customWidth="1"/>
+    <col min="20" max="20" width="53.33203125" customWidth="1"/>
     <col min="21" max="21" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -783,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
@@ -804,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>15</v>
@@ -816,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>7</v>
@@ -825,22 +959,22 @@
         <v>18</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="94.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:21" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -879,7 +1013,7 @@
         <v>1001</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -888,28 +1022,26 @@
         <v>5</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="121.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="str">
         <f>"["&amp;G3&amp;"级]冲动的惩罚"</f>
-        <v>[1级]冲动的惩罚</v>
+        <v>[2级]冲动的惩罚</v>
       </c>
       <c r="C3">
         <f>A2</f>
@@ -925,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -937,13 +1069,13 @@
         <v>1001</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L3">
         <v>1001</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -951,29 +1083,25 @@
       <c r="O3">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="189" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="str">
         <f>"["&amp;G4&amp;"级]追兵"</f>
-        <v>[2级]追兵</v>
+        <v>[3级]追兵</v>
       </c>
       <c r="C4">
         <f>A3</f>
@@ -989,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1001,13 +1129,13 @@
         <v>1001</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1015,33 +1143,31 @@
       <c r="O4">
         <v>15</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="str">
         <f>"["&amp;G5&amp;"级]忠勇周恩来"</f>
-        <v>[2级]忠勇周恩来</v>
+        <v>[4级]忠勇周恩来</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C11" si="0">A4</f>
@@ -1057,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -1066,51 +1192,42 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L5">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P5" s="7"/>
       <c r="Q5" s="9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U11" si="1">"AddEventKillNpc(base, 10000, "&amp;N5&amp;");"
-&amp;"AddEventKillNpc(base, 10001, "&amp;N5&amp;");"</f>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="str">
         <f>"["&amp;G6&amp;"级]铁血林彪"</f>
-        <v>[3级]铁血林彪</v>
+        <v>[4级]铁血林彪</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1126,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -1135,50 +1252,42 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L6">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>25</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="str">
         <f>"["&amp;G7&amp;"级]能臣刘少奇"</f>
-        <v>[3级]能臣刘少奇</v>
+        <v>[5级]能臣刘少奇</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1194,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1203,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1220,33 +1329,31 @@
       <c r="O7">
         <v>30</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="str">
         <f>"["&amp;G8&amp;"级]反骨李宗仁"</f>
-        <v>[4级]反骨李宗仁</v>
+        <v>[6级]反骨李宗仁</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1262,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1271,50 +1378,42 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="L8">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>35</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="str">
         <f>"["&amp;G9&amp;"级]仁义朱德"</f>
-        <v>[4级]仁义朱德</v>
+        <v>[6级]仁义朱德</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1330,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1339,16 +1438,16 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L9">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1356,33 +1455,31 @@
       <c r="O9">
         <v>40</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="str">
         <f>"["&amp;G10&amp;"级]飞将军叶挺"</f>
-        <v>[5级]飞将军叶挺</v>
+        <v>[7级]飞将军叶挺</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1398,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1407,50 +1504,42 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="L10">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>45</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="162" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="str">
         <f>"["&amp;G11&amp;"级]西南王白崇禧"</f>
-        <v>[5级]西南王白崇禧</v>
+        <v>[8级]西南王白崇禧</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1466,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1475,16 +1564,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L11">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1492,33 +1581,31 @@
       <c r="O11">
         <v>50</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="1"/>
-        <v>AddEventKillNpc(base, 10000, 2);AddEventKillNpc(base, 10001, 2);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" t="str">
         <f>"["&amp;G12&amp;"级]从天而降"</f>
-        <v>[1级]从天而降</v>
+        <v>[8级]从天而降</v>
       </c>
       <c r="C12">
         <v>1009</v>
@@ -1533,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1542,16 +1629,16 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L12">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1559,20 +1646,81 @@
       <c r="O12">
         <v>5</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>57</v>
+    </row>
+    <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"["&amp;G13&amp;"级]从天而降"</f>
+        <v>[9级]从天而降</v>
+      </c>
+      <c r="C13">
+        <v>1010</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1004</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13">
+        <v>1004</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
   </sheetData>
@@ -1590,14 +1738,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1613,15 +1761,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1661,7 +1809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +1833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1717,7 +1865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1733,7 +1881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -287,16 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,true)
-elseif user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,6 +459,16 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1011,true)
 else
  return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,13 +1148,13 @@
         <v>55</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1211,14 +1211,14 @@
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,16 +1331,16 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1397,14 +1397,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,16 +1457,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1523,14 +1523,14 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1583,16 +1583,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -1648,14 +1648,14 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,16 +1707,16 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -470,6 +470,10 @@
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
 end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>56</v>
@@ -1030,7 +1034,9 @@
       <c r="R2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T2" s="7" t="s">
         <v>61</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
@@ -1090,7 +1096,9 @@
       <c r="R3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T3" s="7" t="s">
         <v>62</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
@@ -1207,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="9" t="s">
@@ -1216,7 +1224,9 @@
       <c r="R5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T5" s="7" t="s">
         <v>63</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
@@ -1276,7 +1286,9 @@
       <c r="R6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T6" s="7" t="s">
         <v>63</v>
       </c>
@@ -1327,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
@@ -1340,7 +1352,7 @@
         <v>49</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1393,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
@@ -1402,7 +1414,9 @@
       <c r="R8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T8" s="7" t="s">
         <v>64</v>
       </c>
@@ -1453,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="O9">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
@@ -1519,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
@@ -1528,7 +1542,9 @@
       <c r="R10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T10" s="7" t="s">
         <v>65</v>
       </c>
@@ -1579,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
@@ -1644,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
@@ -1653,7 +1669,9 @@
       <c r="R12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="T12" s="7" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,14 +244,6 @@
   </si>
   <si>
     <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带我来这里,我要将义父救出来。&lt;/color&gt;]]
@@ -259,14 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。决不能让这个村子的百姓遭殃,快去消灭他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20000:1:1-1,20000:20:1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,158 +292,6 @@
   </si>
   <si>
     <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1009,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1009,true)
-else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1010,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1011,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1011,true)
-else
- return "各种奖励"
-end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +306,204 @@
   </si>
   <si>
     <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。决不能让这个村子的百姓遭殃,快去消灭他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "各种奖励"
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -557,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,6 +616,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="M14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1057,7 @@
         <v>1001</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1026,19 +1066,17 @@
         <v>1</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,13 +1113,13 @@
         <v>1001</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1001</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1091,16 +1129,14 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,13 +1173,13 @@
         <v>1001</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L4">
         <v>1002</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1153,16 +1189,16 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1203,13 +1239,13 @@
         <v>1002</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L5">
         <v>1002</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1219,16 +1255,14 @@
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,13 +1299,13 @@
         <v>1002</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6">
         <v>1002</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1281,16 +1315,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,13 +1359,13 @@
         <v>1002</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7">
         <v>1003</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1346,13 +1378,13 @@
         <v>69</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1393,13 +1425,13 @@
         <v>1003</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8">
         <v>1003</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1409,16 +1441,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,13 +1485,13 @@
         <v>1003</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9">
         <v>1003</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1471,16 +1501,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1521,13 +1551,13 @@
         <v>1003</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L10">
         <v>1004</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1540,13 +1570,11 @@
         <v>72</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1583,13 +1611,13 @@
         <v>1004</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L11">
         <v>1004</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1599,16 +1627,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -1648,13 +1676,13 @@
         <v>1004</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L12">
         <v>1004</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1664,16 +1692,14 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,13 +1735,13 @@
         <v>1004</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L13">
         <v>1004</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1725,20 +1751,1274 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>"["&amp;G14&amp;"级]忠勇周恩来"</f>
+        <v>[10级]忠勇周恩来</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:C20" si="1">A13</f>
+        <v>1011</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10">
+        <v>200</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1005</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1005</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>72</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"["&amp;G15&amp;"级]铁血林彪"</f>
+        <v>[11级]铁血林彪</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1005</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15">
+        <v>1007</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>72</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N15&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"["&amp;G16&amp;"级]能臣刘少奇"</f>
+        <v>[12级]能臣刘少奇</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1007</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16">
+        <v>1007</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>172</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"["&amp;G17&amp;"级]反骨李宗仁"</f>
+        <v>[13级]反骨李宗仁</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1007</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17">
+        <v>1007</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N17&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"["&amp;G18&amp;"级]仁义朱德"</f>
+        <v>[14级]仁义朱德</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1007</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18">
+        <v>1004</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>103</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"["&amp;G19&amp;"级]飞将军叶挺"</f>
+        <v>[15级]飞将军叶挺</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1004</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>1004</v>
+      </c>
+      <c r="M19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>247</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N19&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"["&amp;G20&amp;"级]西南王白崇禧"</f>
+        <v>[16级]西南王白崇禧</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1004</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20">
+        <v>1004</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"["&amp;G21&amp;"级]从天而降"</f>
+        <v>[17级]从天而降</v>
+      </c>
+      <c r="C21">
+        <v>1009</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1004</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21">
+        <v>1007</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N21&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1020</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"["&amp;G22&amp;"级]从天而降"</f>
+        <v>[18级]从天而降</v>
+      </c>
+      <c r="C22">
+        <v>1010</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1007</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22">
+        <v>1007</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>355</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"["&amp;G23&amp;"级]忠勇周恩来"</f>
+        <v>[19级]忠勇周恩来</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C29" si="2">A22</f>
+        <v>1020</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1007</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23">
+        <v>1006</v>
+      </c>
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>72</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1022</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"["&amp;G24&amp;"级]铁血林彪"</f>
+        <v>[20级]铁血林彪</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>1021</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1006</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24">
+        <v>1006</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>72</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N24&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1023</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"["&amp;G25&amp;"级]能臣刘少奇"</f>
+        <v>[21级]能臣刘少奇</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>1022</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1006</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25">
+        <v>1007</v>
+      </c>
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1024</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"["&amp;G26&amp;"级]反骨李宗仁"</f>
+        <v>[22级]反骨李宗仁</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>1023</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1007</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26">
+        <v>1007</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>103</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N26&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1025</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"["&amp;G27&amp;"级]仁义朱德"</f>
+        <v>[23级]仁义朱德</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1007</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27">
+        <v>1007</v>
+      </c>
+      <c r="M27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>103</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N27&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"["&amp;G28&amp;"级]飞将军叶挺"</f>
+        <v>[24级]飞将军叶挺</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1007</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28">
+        <v>1008</v>
+      </c>
+      <c r="M28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>247</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1027</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"["&amp;G29&amp;"级]西南王白崇禧"</f>
+        <v>[25级]西南王白崇禧</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1008</v>
+      </c>
+      <c r="K29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29">
+        <v>1008</v>
+      </c>
+      <c r="M29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N29&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1028</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"["&amp;G30&amp;"级]从天而降"</f>
+        <v>[26级]从天而降</v>
+      </c>
+      <c r="C30">
+        <v>1009</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1008</v>
+      </c>
+      <c r="K30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30">
+        <v>1008</v>
+      </c>
+      <c r="M30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>148</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"["&amp;G31&amp;"级]从天而降"</f>
+        <v>[27级]从天而降</v>
+      </c>
+      <c r="C31">
+        <v>1010</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1008</v>
+      </c>
+      <c r="K31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31">
+        <v>1008</v>
+      </c>
+      <c r="M31" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>355</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U31" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N31&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"["&amp;G32&amp;"级]从天而降"</f>
+        <v>[28级]从天而降</v>
+      </c>
+      <c r="C32">
+        <v>1009</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1008</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32">
+        <v>1008</v>
+      </c>
+      <c r="M32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U32" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;N32&amp;");"</f>
+        <v>AddEventKillNpc(base, 10000, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1031</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"["&amp;G33&amp;"级]从天而降"</f>
+        <v>[29级]从天而降</v>
+      </c>
+      <c r="C33">
+        <v>1010</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1008</v>
+      </c>
+      <c r="K33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33">
+        <v>1008</v>
+      </c>
+      <c r="M33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>355</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="4032" windowWidth="14808" windowHeight="7776"/>
+    <workbookView xWindow="8088" yWindow="4092" windowWidth="14808" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,22 +223,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <t>if user.CheckNearNpc(1000) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000:1:1-1,20000:20:1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "各种奖励"
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好,救人不成。你义父为分心救你,被应龙封印在衣冠冢内。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1000) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1000,true)
-else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,28 +426,8 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带我来这里,我要将义父救出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000:1:1-1,20000:20:1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大乔</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,23 +435,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;]]
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,43 +456,109 @@
 elseif user.CheckNearNpc(1002) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来你还是应付的十分得心应手啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是侍剑，司命大人还在抵挡追兵。你虽勇猛，但拼杀时不顾自身，大人命我赠你&lt;/color&gt;&lt;color value="green"&gt;裤子&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。决不能让这个村子的百姓遭殃,快去消灭他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]迎战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,7 +568,23 @@
 elseif user.CheckNearNpc(1003) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
 else
- return "各种奖励"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]阻挡&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,31 +592,15 @@
     <t>if user.CheckNearNpc(1003) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
 else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,121 +610,49 @@
 elseif user.CheckNearNpc(1004) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
 else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水镜先生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1005) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1005) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]阻击&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
  user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return "各种奖励"
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1207,7 @@
         <v>1001</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1066,17 +1216,17 @@
         <v>1</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,8 +1234,8 @@
         <v>1001</v>
       </c>
       <c r="B3" t="str">
-        <f>"["&amp;G3&amp;"级]冲动的惩罚"</f>
-        <v>[2级]冲动的惩罚</v>
+        <f>"["&amp;G3&amp;"级]冲动"</f>
+        <v>[2级]冲动</v>
       </c>
       <c r="C3">
         <f>A2</f>
@@ -1113,13 +1263,13 @@
         <v>1001</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <v>1001</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1129,14 +1279,14 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,13 +1323,13 @@
         <v>1001</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>1002</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1189,16 +1339,16 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1210,8 +1360,8 @@
         <v>1003</v>
       </c>
       <c r="B5" t="str">
-        <f>"["&amp;G5&amp;"级]忠勇周恩来"</f>
-        <v>[4级]忠勇周恩来</v>
+        <f>"["&amp;G5&amp;"级]防具"</f>
+        <v>[4级]防具</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C11" si="0">A4</f>
@@ -1239,13 +1389,13 @@
         <v>1002</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5">
         <v>1002</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1253,16 +1403,18 @@
       <c r="O5">
         <v>72</v>
       </c>
-      <c r="P5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q5" s="9" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,8 +1422,8 @@
         <v>1004</v>
       </c>
       <c r="B6" t="str">
-        <f>"["&amp;G6&amp;"级]铁血林彪"</f>
-        <v>[4级]铁血林彪</v>
+        <f>"["&amp;G6&amp;"级]困难"</f>
+        <v>[4级]困难</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1299,13 +1451,13 @@
         <v>1002</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L6">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1315,14 +1467,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,8 +1482,8 @@
         <v>1005</v>
       </c>
       <c r="B7" t="str">
-        <f>"["&amp;G7&amp;"级]能臣刘少奇"</f>
-        <v>[5级]能臣刘少奇</v>
+        <f>"["&amp;G7&amp;"级]强敌"</f>
+        <v>[5级]强敌</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1356,16 +1508,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="L7">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1375,16 +1527,16 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1396,8 +1548,8 @@
         <v>1006</v>
       </c>
       <c r="B8" t="str">
-        <f>"["&amp;G8&amp;"级]反骨李宗仁"</f>
-        <v>[6级]反骨李宗仁</v>
+        <f>"["&amp;G8&amp;"级]会合"</f>
+        <v>[6级]会合</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1422,16 +1574,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="L8">
         <v>1003</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1441,14 +1593,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,8 +1608,8 @@
         <v>1007</v>
       </c>
       <c r="B9" t="str">
-        <f>"["&amp;G9&amp;"级]仁义朱德"</f>
-        <v>[6级]仁义朱德</v>
+        <f>"["&amp;G9&amp;"级]又遇追兵"</f>
+        <v>[6级]又遇追兵</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1485,13 +1637,13 @@
         <v>1003</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <v>1003</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1501,16 +1653,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1522,8 +1674,8 @@
         <v>1008</v>
       </c>
       <c r="B10" t="str">
-        <f>"["&amp;G10&amp;"级]飞将军叶挺"</f>
-        <v>[7级]飞将军叶挺</v>
+        <f>"["&amp;G10&amp;"级]义军"</f>
+        <v>[7级]义军</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1551,13 +1703,13 @@
         <v>1003</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1567,14 +1719,14 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,8 +1734,8 @@
         <v>1009</v>
       </c>
       <c r="B11" t="str">
-        <f>"["&amp;G11&amp;"级]西南王白崇禧"</f>
-        <v>[8级]西南王白崇禧</v>
+        <f>"["&amp;G11&amp;"级]阻击"</f>
+        <v>[8级]阻击</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1608,16 +1760,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L11">
         <v>1004</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1627,16 +1779,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -1648,8 +1800,8 @@
         <v>1010</v>
       </c>
       <c r="B12" t="str">
-        <f>"["&amp;G12&amp;"级]从天而降"</f>
-        <v>[8级]从天而降</v>
+        <f>"["&amp;G12&amp;"级]义军孙策"</f>
+        <v>[8级]义军孙策</v>
       </c>
       <c r="C12">
         <v>1009</v>
@@ -1676,13 +1828,13 @@
         <v>1004</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1004</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1692,14 +1844,14 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,8 +1859,8 @@
         <v>1011</v>
       </c>
       <c r="B13" t="str">
-        <f>"["&amp;G13&amp;"级]从天而降"</f>
-        <v>[9级]从天而降</v>
+        <f>"["&amp;G13&amp;"级]猛兽"</f>
+        <v>[9级]猛兽</v>
       </c>
       <c r="C13">
         <v>1010</v>
@@ -1735,13 +1887,13 @@
         <v>1004</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L13">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1751,16 +1903,16 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="U13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>
@@ -1801,13 +1953,13 @@
         <v>1005</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L14" s="10">
         <v>1005</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N14" s="10">
         <v>0</v>
@@ -1817,14 +1969,14 @@
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,13 +2013,13 @@
         <v>1005</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L15">
         <v>1007</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1877,16 +2029,16 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U15" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N15&amp;");"</f>
@@ -1927,13 +2079,13 @@
         <v>1007</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L16">
         <v>1007</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1943,14 +2095,14 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1987,13 +2139,13 @@
         <v>1007</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L17">
         <v>1007</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -2003,16 +2155,16 @@
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U17" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N17&amp;");"</f>
@@ -2053,13 +2205,13 @@
         <v>1007</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L18">
         <v>1004</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2069,14 +2221,14 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,13 +2265,13 @@
         <v>1004</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>1004</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -2129,16 +2281,16 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U19" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N19&amp;");"</f>
@@ -2179,13 +2331,13 @@
         <v>1004</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1004</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2195,14 +2347,14 @@
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,13 +2390,13 @@
         <v>1004</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1007</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -2254,16 +2406,16 @@
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U21" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N21&amp;");"</f>
@@ -2303,13 +2455,13 @@
         <v>1007</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L22">
         <v>1007</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2319,14 +2471,14 @@
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,13 +2515,13 @@
         <v>1007</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L23">
         <v>1006</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2379,14 +2531,14 @@
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,13 +2575,13 @@
         <v>1006</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L24">
         <v>1006</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2439,16 +2591,16 @@
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="S24" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U24" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N24&amp;");"</f>
@@ -2489,13 +2641,13 @@
         <v>1006</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L25">
         <v>1007</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2505,14 +2657,14 @@
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,13 +2701,13 @@
         <v>1007</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L26">
         <v>1007</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2565,16 +2717,16 @@
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="S26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U26" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N26&amp;");"</f>
@@ -2615,13 +2767,13 @@
         <v>1007</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L27">
         <v>1007</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2631,16 +2783,16 @@
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U27" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N27&amp;");"</f>
@@ -2681,13 +2833,13 @@
         <v>1007</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L28">
         <v>1008</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2697,14 +2849,14 @@
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,13 +2893,13 @@
         <v>1008</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L29">
         <v>1008</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2757,16 +2909,16 @@
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U29" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N29&amp;");"</f>
@@ -2806,13 +2958,13 @@
         <v>1008</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L30">
         <v>1008</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2822,14 +2974,14 @@
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,13 +3017,13 @@
         <v>1008</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L31">
         <v>1008</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2881,16 +3033,16 @@
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U31" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N31&amp;");"</f>
@@ -2930,13 +3082,13 @@
         <v>1008</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L32">
         <v>1008</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2946,16 +3098,16 @@
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U32" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N32&amp;");"</f>
@@ -2995,13 +3147,13 @@
         <v>1008</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L33">
         <v>1008</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3011,14 +3163,14 @@
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="4092" windowWidth="14808" windowHeight="7716"/>
+    <workbookView xWindow="8088" yWindow="4152" windowWidth="14808" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,14 +418,6 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +645,15 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;]]
+&lt;br /&gt;[[任务奖励:&lt;br /&gt;&lt;img atlas="GuiTexture" sprite="word_exp" /&gt;&lt;color value="white"&gt;500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1223,7 @@
         <v>50</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
@@ -1279,14 +1280,14 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,16 +1340,16 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1407,14 +1408,14 @@
         <v>51</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1458,7 @@
         <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1467,14 +1468,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,13 +1512,13 @@
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7">
         <v>1001</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1527,16 +1528,16 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="T7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1577,7 +1578,7 @@
         <v>1001</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8">
         <v>1003</v>
@@ -1593,14 +1594,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,16 +1654,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="S9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1709,7 +1710,7 @@
         <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1719,14 +1720,14 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1764,7 @@
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11">
         <v>1004</v>
@@ -1779,16 +1780,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -1844,10 +1845,10 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
@@ -1893,7 +1894,7 @@
         <v>1001</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1903,16 +1904,16 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -652,8 +652,7 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;]]
-&lt;br /&gt;[[任务奖励:&lt;br /&gt;&lt;img atlas="GuiTexture" sprite="word_exp" /&gt;&lt;color value="white"&gt;500经验&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="GuiTexture" sprite="word_exp" /&gt;&lt;color value="white"&gt;500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -652,7 +652,8 @@
     <t>if user.CheckNearNpc(1001) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="GuiTexture" sprite="word_exp" /&gt;&lt;color value="white"&gt;500经验&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="GuiTexture" sprite="word_exp" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,7 +1080,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -653,7 +653,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="GuiTexture" sprite="word_exp" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="ShenZuoGui" sprite="word_exp" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -653,7 +653,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="ShenZuoGui" sprite="word_exp" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="word_exp" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -653,7 +653,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="word_exp" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas='Atlases/ShenZuoGui' sprite='word_exp' /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -653,7 +653,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas='Atlases/ShenZuoGui' sprite='word_exp' /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="1000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="4152" windowWidth="14808" windowHeight="7656"/>
+    <workbookView xWindow="8088" yWindow="4212" windowWidth="14808" windowHeight="7596"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,14 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
  user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
 elseif user.CheckNearNpc(1002) == false then
@@ -653,7 +645,16 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="1000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/GuiTexture" sprite="redarrow" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="redarrow" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1280,10 +1281,10 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
@@ -1340,16 +1341,16 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="T4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1408,14 +1409,14 @@
         <v>51</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1468,7 +1469,7 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>83</v>
@@ -1512,13 +1513,13 @@
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7">
         <v>1001</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1528,16 +1529,16 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="T7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1578,7 +1579,7 @@
         <v>1001</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8">
         <v>1003</v>
@@ -1594,14 +1595,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,16 +1655,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="S9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1710,7 +1711,7 @@
         <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1720,10 +1721,10 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
@@ -1764,7 +1765,7 @@
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L11">
         <v>1004</v>
@@ -1780,16 +1781,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -1845,10 +1846,10 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
@@ -1894,7 +1895,7 @@
         <v>1001</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1904,10 +1905,10 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -645,7 +645,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/GuiTexture" sprite="redarrow" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,7 +654,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="redarrow" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -645,7 +645,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,7 +654,7 @@
  user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="4212" windowWidth="14808" windowHeight="7596"/>
+    <workbookView xWindow="8088" yWindow="4272" windowWidth="14808" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,18 +271,256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
  return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
 else
  return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "接取描述"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return "各种奖励"
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是侍剑，司命大人还在抵挡追兵。你虽勇猛，但拼杀时不顾自身，大人命我赠你&lt;/color&gt;&lt;color value="green"&gt;裤子&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]迎战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]阻挡&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,44 +530,100 @@
 elseif user.CheckNearNpc(1004) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
 else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水镜先生</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]阻击&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;或许……无论如何，先与大乔一起去寻找孙策将军吧，我要先去别处。&lt;/color&gt;]]
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1005) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
 else
- return "接取描述"
-end</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小妹妹，你知道孙策将军在何处吗！&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;青青&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1005) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是青青，孙策将军就在城中，可最近附近出现许多凶残的妖兽，挡住了入城的道路。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]清除&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,7 +632,7 @@
 elseif user.CheckNearNpc(1007) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
- return "各种奖励"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孙策将军，我乃吕布义子，有何方法能搭救我义父。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,7 +640,7 @@
     <t>if user.CheckNearNpc(1007) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我等你多时了，听闻吕布的事情我就马不停蹄赶到这里，可终究还是晚了一步。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,7 +648,141 @@
     <t>if user.CheckNearNpc(1007) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人不必自责，耽误之急我们要将义父救出来。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠十分勇猛，你去对付前方的妖兽先耍几招，我再教你些招式可好!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;此招甚是威猛，多谢将军。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔好像被妖兽困在了附近的夷山上，烧香能否去为我搭救一下!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔姐姐，孙策将军让我来接你了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我的项链上有4颗琉璃宝石，可是却被妖兽夺走了，少侠助我夺回!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;自从习得了孙策大人传授的招数，斩妖除魔什么的变轻松了!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带上此项链后，感到力大无穷。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不愧为吕布之子，果然厉害，我已把宝石镶嵌到项链上，就将此项链赠与你把!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君是让我来追查白玉瓶的下落，应该就在那些妖兽处。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人，我已将白玉瓶带回来，此瓶与救我义父有何关联!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠的坐骑乃当年蚩尤坐骑产子，通过磨练将拥有无穷的神力。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;当真？看来我的小马驹还是一位可靠的朋友呢。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;白玉瓶拥有封印之力，小白知道如何使用，但它缺少玩伴，最近总是闷闷不乐，我何不将你变成小白陪她玩耍呢。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,15 +790,19 @@
     <t>if user.CheckNearNpc(1006) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小白，你是否空虚寂寞冷，我来陪伴你了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1006) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
 else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你是否也曾有感觉到无助！好了，多谢你的陪伴，应龙的魔化校尉已经追杀来了，使用白玉瓶可封印其能力。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,278 +812,12 @@
 elseif user.CheckNearNpc(1006) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
 else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return "接取描述"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是侍剑，司命大人还在抵挡追兵。你虽勇猛，但拼杀时不顾自身，大人命我赠你&lt;/color&gt;&lt;color value="green"&gt;裤子&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]迎战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]阻挡&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]阻击&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
-end</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何使用一次，白玉瓶就坏了呢。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1386,7 @@
         <v>50</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
@@ -1281,14 +1443,14 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,16 +1503,16 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1409,14 +1571,14 @@
         <v>51</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,7 +1621,7 @@
         <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1469,14 +1631,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1513,13 +1675,13 @@
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L7">
         <v>1001</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1529,16 +1691,16 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1579,7 +1741,7 @@
         <v>1001</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L8">
         <v>1003</v>
@@ -1595,14 +1757,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,16 +1817,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1711,7 +1873,7 @@
         <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1721,14 +1883,14 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1927,7 @@
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L11">
         <v>1004</v>
@@ -1781,16 +1943,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -1846,14 +2008,14 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,7 +2057,7 @@
         <v>1001</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1905,16 +2067,16 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>
@@ -1926,8 +2088,8 @@
         <v>1012</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>"["&amp;G14&amp;"级]忠勇周恩来"</f>
-        <v>[10级]忠勇周恩来</v>
+        <f>"["&amp;G14&amp;"级]寻找孙策"</f>
+        <v>[10级]寻找孙策</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" ref="C14:C20" si="1">A13</f>
@@ -1951,17 +2113,17 @@
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="10">
-        <v>1005</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>65</v>
+      <c r="J14">
+        <v>1001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>82</v>
       </c>
       <c r="L14" s="10">
         <v>1005</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N14" s="10">
         <v>0</v>
@@ -1971,14 +2133,14 @@
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,8 +2148,8 @@
         <v>1013</v>
       </c>
       <c r="B15" t="str">
-        <f>"["&amp;G15&amp;"级]铁血林彪"</f>
-        <v>[11级]铁血林彪</v>
+        <f>"["&amp;G15&amp;"级]妖兽"</f>
+        <v>[11级]妖兽</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -2015,13 +2177,13 @@
         <v>1005</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L15">
         <v>1007</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -2031,16 +2193,16 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="9" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="U15" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N15&amp;");"</f>
@@ -2052,8 +2214,8 @@
         <v>1014</v>
       </c>
       <c r="B16" t="str">
-        <f>"["&amp;G16&amp;"级]能臣刘少奇"</f>
-        <v>[12级]能臣刘少奇</v>
+        <f>"["&amp;G16&amp;"级]无须自责"</f>
+        <v>[12级]无须自责</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -2081,13 +2243,13 @@
         <v>1007</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L16">
         <v>1007</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2097,14 +2259,14 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="9" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,8 +2274,8 @@
         <v>1015</v>
       </c>
       <c r="B17" t="str">
-        <f>"["&amp;G17&amp;"级]反骨李宗仁"</f>
-        <v>[13级]反骨李宗仁</v>
+        <f>"["&amp;G17&amp;"级]习得新招"</f>
+        <v>[13级]习得新招</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -2141,13 +2303,13 @@
         <v>1007</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L17">
         <v>1007</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -2157,16 +2319,16 @@
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="9" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="U17" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N17&amp;");"</f>
@@ -2178,8 +2340,8 @@
         <v>1016</v>
       </c>
       <c r="B18" t="str">
-        <f>"["&amp;G18&amp;"级]仁义朱德"</f>
-        <v>[14级]仁义朱德</v>
+        <f>"["&amp;G18&amp;"级]解困大乔"</f>
+        <v>[14级]解困大乔</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -2207,7 +2369,7 @@
         <v>1007</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L18">
         <v>1004</v>
@@ -2223,14 +2385,14 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="9" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,8 +2400,8 @@
         <v>1017</v>
       </c>
       <c r="B19" t="str">
-        <f>"["&amp;G19&amp;"级]飞将军叶挺"</f>
-        <v>[15级]飞将军叶挺</v>
+        <f>"["&amp;G19&amp;"级]琉璃宝石"</f>
+        <v>[15级]琉璃宝石</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -2283,16 +2445,16 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="9" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="U19" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N19&amp;");"</f>
@@ -2304,8 +2466,8 @@
         <v>1018</v>
       </c>
       <c r="B20" t="str">
-        <f>"["&amp;G20&amp;"级]西南王白崇禧"</f>
-        <v>[16级]西南王白崇禧</v>
+        <f>"["&amp;G20&amp;"级]力大无穷"</f>
+        <v>[16级]力大无穷</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -2349,14 +2511,14 @@
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="9" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,8 +2526,8 @@
         <v>1019</v>
       </c>
       <c r="B21" t="str">
-        <f>"["&amp;G21&amp;"级]从天而降"</f>
-        <v>[17级]从天而降</v>
+        <f>"["&amp;G21&amp;"级]玉瓶下落"</f>
+        <v>[17级]玉瓶下落</v>
       </c>
       <c r="C21">
         <v>1009</v>
@@ -2398,7 +2560,7 @@
         <v>1007</v>
       </c>
       <c r="M21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -2408,16 +2570,16 @@
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="9" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="U21" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N21&amp;");"</f>
@@ -2429,8 +2591,8 @@
         <v>1020</v>
       </c>
       <c r="B22" t="str">
-        <f>"["&amp;G22&amp;"级]从天而降"</f>
-        <v>[18级]从天而降</v>
+        <f>"["&amp;G22&amp;"级]神力坐骑"</f>
+        <v>[18级]神力坐骑</v>
       </c>
       <c r="C22">
         <v>1010</v>
@@ -2457,13 +2619,13 @@
         <v>1007</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L22">
         <v>1007</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2473,14 +2635,14 @@
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="9" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2488,8 +2650,8 @@
         <v>1021</v>
       </c>
       <c r="B23" t="str">
-        <f>"["&amp;G23&amp;"级]忠勇周恩来"</f>
-        <v>[19级]忠勇周恩来</v>
+        <f>"["&amp;G23&amp;"级]变身小白"</f>
+        <v>[19级]变身小白</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C29" si="2">A22</f>
@@ -2517,13 +2679,13 @@
         <v>1007</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L23">
         <v>1006</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2533,78 +2695,78 @@
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="9" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="10" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>1022</v>
       </c>
-      <c r="B24" t="str">
-        <f>"["&amp;G24&amp;"级]铁血林彪"</f>
-        <v>[20级]铁血林彪</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="10" t="str">
+        <f>"["&amp;G24&amp;"级]封印校尉"</f>
+        <v>[20级]封印校尉</v>
+      </c>
+      <c r="C24" s="10">
         <f t="shared" si="2"/>
         <v>1021</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="10">
         <v>200</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
         <v>1006</v>
       </c>
-      <c r="K24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="10">
         <v>1006</v>
       </c>
-      <c r="M24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N24">
+      <c r="M24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="10">
         <v>2</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="10">
         <v>72</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S24" s="7" t="s">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" t="str">
+      <c r="T24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="U24" s="10" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N24&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
@@ -2643,13 +2805,13 @@
         <v>1006</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L25">
         <v>1007</v>
       </c>
       <c r="M25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2659,14 +2821,14 @@
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,13 +2865,13 @@
         <v>1007</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L26">
         <v>1007</v>
       </c>
       <c r="M26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2719,16 +2881,16 @@
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U26" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N26&amp;");"</f>
@@ -2769,13 +2931,13 @@
         <v>1007</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L27">
         <v>1007</v>
       </c>
       <c r="M27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2785,16 +2947,16 @@
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U27" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N27&amp;");"</f>
@@ -2835,13 +2997,13 @@
         <v>1007</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L28">
         <v>1008</v>
       </c>
       <c r="M28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2851,14 +3013,14 @@
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2895,13 +3057,13 @@
         <v>1008</v>
       </c>
       <c r="K29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L29">
         <v>1008</v>
       </c>
       <c r="M29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2911,16 +3073,16 @@
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U29" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N29&amp;");"</f>
@@ -2960,13 +3122,13 @@
         <v>1008</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L30">
         <v>1008</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2976,14 +3138,14 @@
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3019,13 +3181,13 @@
         <v>1008</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L31">
         <v>1008</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -3035,16 +3197,16 @@
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U31" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N31&amp;");"</f>
@@ -3084,13 +3246,13 @@
         <v>1008</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L32">
         <v>1008</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -3100,16 +3262,16 @@
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U32" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N32&amp;");"</f>
@@ -3149,13 +3311,13 @@
         <v>1008</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L33">
         <v>1008</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3165,14 +3327,14 @@
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="4272" windowWidth="14808" windowHeight="7536"/>
+    <workbookView xWindow="8088" yWindow="4332" windowWidth="14808" windowHeight="7476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,22 +255,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]完成&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +276,282 @@
   </si>
   <si>
     <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]迎战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]阻挡&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]阻击&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
+&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;或许……无论如何，先与大乔一起去寻找孙策将军吧，我要先去别处。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小妹妹，你知道孙策将军在何处吗！&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;青青&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是青青，孙策将军就在城中，可最近附近出现许多凶残的妖兽，挡住了入城的道路。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]清除&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,7 +560,7 @@
 elseif user.CheckNearNpc(1007) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
- return "各种奖励"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孙策将军，我乃吕布义子，有何方法能搭救我义父。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,7 +568,7 @@
     <t>if user.CheckNearNpc(1007) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我等你多时了，听闻吕布的事情我就马不停蹄赶到这里，可终究还是晚了一步。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,7 +576,141 @@
     <t>if user.CheckNearNpc(1007) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人不必自责，耽误之急我们要将义父救出来。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠十分勇猛，你去对付前方的妖兽先耍几招，我再教你些招式可好!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;此招甚是威猛，多谢将军。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔好像被妖兽困在了附近的夷山上，烧香能否去为我搭救一下!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔姐姐，孙策将军让我来接你了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我的项链上有4颗琉璃宝石，可是却被妖兽夺走了，少侠助我夺回!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;自从习得了孙策大人传授的招数，斩妖除魔什么的变轻松了!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带上此项链后，感到力大无穷。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不愧为吕布之子，果然厉害，我已把宝石镶嵌到项链上，就将此项链赠与你把!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君是让我来追查白玉瓶的下落，应该就在那些妖兽处。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人，我已将白玉瓶带回来，此瓶与救我义父有何关联!&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠的坐骑乃当年蚩尤坐骑产子，通过磨练将拥有无穷的神力。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;当真？看来我的小马驹还是一位可靠的朋友呢。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;白玉瓶拥有封印之力，小白知道如何使用，但它缺少玩伴，最近总是闷闷不乐，我何不将你变成小白陪她玩耍呢。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,23 +718,125 @@
     <t>if user.CheckNearNpc(1006) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
 else
- return "接取描述"
-end</t>
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小白，你是否空虚寂寞冷，我来陪伴你了。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何使用一次，白玉瓶就坏了呢。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你是否也曾有感觉到无助！好了，多谢你的陪伴，应龙的魔化校尉已经追杀来了，使用白玉瓶可封印其能力。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你的强大超乎我想象，孙策大人似乎打探到了吕布衣冠冢的下落，快去找他吧。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人，果真找到了衣冠冢吗？那我们立刻启程吧。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我已经打探到衣冠冢所在，可被应龙伏兵所伤，可否为我去巫山采集写草药。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;巫山上妖兽丛生，甚是险恶啊。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我伤势太重，这些草药似乎不足以令我恢复，请再去收集一些吧。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;专业采药，保质保量。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;水镜先生已经赶来了，快去与他会合吧。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;统领，你也是来助我解救义父的吗？&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return "接取描述"
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙的大批追兵已经追赶过来，你快随我应战。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,50 +846,72 @@
 elseif user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return "各种奖励"
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;追兵太多了，敌众我寡，这么硬拼不是办法啊&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过一路过来的历练，你的战力提升很快，并且你获得的这些装备都是稀释神兵，我来教你如何强化它们。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;崭新的装备，真是酷炫无极限啊。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙的手下正无穷无尽的向我们这儿赶来，先去抵挡一下吧。&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
  user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;水镜先生，我总是感觉到体内有股神力似快似慢的游走。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孙策已敢去衣冠冢，你快随我一同前往。看来只有解封吕布才能彻底解决这些追兵。&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为……为什么义父要这样，义父啊！！！&lt;/color&gt;]]
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]决战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,423 +923,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]迎战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]阻挡&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]阻击&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;或许……无论如何，先与大乔一起去寻找孙策将军吧，我要先去别处。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1005) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小妹妹，你知道孙策将军在何处吗！&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;青青&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1005) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是青青，孙策将军就在城中，可最近附近出现许多凶残的妖兽，挡住了入城的道路。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]清除&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孙策将军，我乃吕布义子，有何方法能搭救我义父。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我等你多时了，听闻吕布的事情我就马不停蹄赶到这里，可终究还是晚了一步。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人不必自责，耽误之急我们要将义父救出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠十分勇猛，你去对付前方的妖兽先耍几招，我再教你些招式可好!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;此招甚是威猛，多谢将军。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔好像被妖兽困在了附近的夷山上，烧香能否去为我搭救一下!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔姐姐，孙策将军让我来接你了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我的项链上有4颗琉璃宝石，可是却被妖兽夺走了，少侠助我夺回!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;自从习得了孙策大人传授的招数，斩妖除魔什么的变轻松了!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带上此项链后，感到力大无穷。&lt;/color&gt;]]
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孩纸~不要悲伤，要继承你义父的志愿，推翻残暴的朝庭，当今天下有三股已经成型的义军势力，&lt;/color&gt;&lt;color value="green"&gt;中山靖王之后刘备，江南孙策之弟孙权，北方雄狮曹操。&lt;/color&gt;&lt;color value="white"&gt;你要选择哪一方加入？&lt;/color&gt;]]
 end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不愧为吕布之子，果然厉害，我已把宝石镶嵌到项链上，就将此项链赠与你把!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君是让我来追查白玉瓶的下落，应该就在那些妖兽处。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人，我已将白玉瓶带回来，此瓶与救我义父有何关联!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠的坐骑乃当年蚩尤坐骑产子，通过磨练将拥有无穷的神力。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;当真？看来我的小马驹还是一位可靠的朋友呢。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;白玉瓶拥有封印之力，小白知道如何使用，但它缺少玩伴，最近总是闷闷不乐，我何不将你变成小白陪她玩耍呢。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小白，你是否空虚寂寞冷，我来陪伴你了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你是否也曾有感觉到无助！好了，多谢你的陪伴，应龙的魔化校尉已经追杀来了，使用白玉瓶可封印其能力。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何使用一次，白玉瓶就坏了呢。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1500,7 @@
         <v>50</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
@@ -1443,14 +1557,14 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,16 +1617,16 @@
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
@@ -1571,14 +1685,14 @@
         <v>51</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,7 +1735,7 @@
         <v>1001</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1631,14 +1745,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,13 +1789,13 @@
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L7">
         <v>1001</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1691,16 +1805,16 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
@@ -1741,7 +1855,7 @@
         <v>1001</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L8">
         <v>1003</v>
@@ -1757,14 +1871,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,16 +1931,16 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
@@ -1873,7 +1987,7 @@
         <v>1001</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1883,14 +1997,14 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,7 +2041,7 @@
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>1004</v>
@@ -1943,16 +2057,16 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="U11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
@@ -2008,14 +2122,14 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2171,7 @@
         <v>1001</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -2067,16 +2181,16 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>
@@ -2092,7 +2206,7 @@
         <v>[10级]寻找孙策</v>
       </c>
       <c r="C14" s="10">
-        <f t="shared" ref="C14:C20" si="1">A13</f>
+        <f t="shared" ref="C14:C33" si="1">A13</f>
         <v>1011</v>
       </c>
       <c r="D14" s="10">
@@ -2117,13 +2231,13 @@
         <v>1001</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L14" s="10">
         <v>1005</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N14" s="10">
         <v>0</v>
@@ -2133,14 +2247,14 @@
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,13 +2291,13 @@
         <v>1005</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15">
         <v>1007</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -2193,16 +2307,16 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="U15" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N15&amp;");"</f>
@@ -2243,13 +2357,13 @@
         <v>1007</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L16">
         <v>1007</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2259,14 +2373,14 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,13 +2417,13 @@
         <v>1007</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L17">
         <v>1007</v>
       </c>
       <c r="M17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -2319,16 +2433,16 @@
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="U17" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N17&amp;");"</f>
@@ -2369,7 +2483,7 @@
         <v>1007</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L18">
         <v>1004</v>
@@ -2385,14 +2499,14 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,16 +2559,16 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="U19" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N19&amp;");"</f>
@@ -2511,14 +2625,14 @@
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2644,8 @@
         <v>[17级]玉瓶下落</v>
       </c>
       <c r="C21">
-        <v>1009</v>
+        <f t="shared" si="1"/>
+        <v>1018</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2560,7 +2675,7 @@
         <v>1007</v>
       </c>
       <c r="M21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -2570,16 +2685,16 @@
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="U21" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N21&amp;");"</f>
@@ -2595,7 +2710,8 @@
         <v>[18级]神力坐骑</v>
       </c>
       <c r="C22">
-        <v>1010</v>
+        <f t="shared" si="1"/>
+        <v>1019</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2619,13 +2735,13 @@
         <v>1007</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L22">
         <v>1007</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2635,14 +2751,14 @@
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2770,7 @@
         <v>[19级]变身小白</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C29" si="2">A22</f>
+        <f t="shared" si="1"/>
         <v>1020</v>
       </c>
       <c r="D23">
@@ -2679,13 +2795,13 @@
         <v>1007</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L23">
         <v>1006</v>
       </c>
       <c r="M23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2695,14 +2811,14 @@
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="10" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,8 +2829,8 @@
         <f>"["&amp;G24&amp;"级]封印校尉"</f>
         <v>[20级]封印校尉</v>
       </c>
-      <c r="C24" s="10">
-        <f t="shared" si="2"/>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>1021</v>
       </c>
       <c r="D24" s="10">
@@ -2739,13 +2855,13 @@
         <v>1006</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L24" s="10">
         <v>1006</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N24" s="10">
         <v>2</v>
@@ -2755,16 +2871,16 @@
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="U24" s="10" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N24&amp;");"</f>
@@ -2776,11 +2892,11 @@
         <v>1023</v>
       </c>
       <c r="B25" t="str">
-        <f>"["&amp;G25&amp;"级]能臣刘少奇"</f>
-        <v>[21级]能臣刘少奇</v>
+        <f>"["&amp;G25&amp;"级]衣冠冢下落"</f>
+        <v>[21级]衣冠冢下落</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1022</v>
       </c>
       <c r="D25">
@@ -2805,13 +2921,13 @@
         <v>1006</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L25">
         <v>1007</v>
       </c>
       <c r="M25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2821,14 +2937,14 @@
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="9" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,11 +2952,11 @@
         <v>1024</v>
       </c>
       <c r="B26" t="str">
-        <f>"["&amp;G26&amp;"级]反骨李宗仁"</f>
-        <v>[22级]反骨李宗仁</v>
+        <f>"["&amp;G26&amp;"级]收集草药"</f>
+        <v>[22级]收集草药</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1023</v>
       </c>
       <c r="D26">
@@ -2865,13 +2981,13 @@
         <v>1007</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L26">
         <v>1007</v>
       </c>
       <c r="M26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2881,16 +2997,16 @@
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="9" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="S26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="U26" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N26&amp;");"</f>
@@ -2902,11 +3018,11 @@
         <v>1025</v>
       </c>
       <c r="B27" t="str">
-        <f>"["&amp;G27&amp;"级]仁义朱德"</f>
-        <v>[23级]仁义朱德</v>
+        <f>"["&amp;G27&amp;"级]专业采药"</f>
+        <v>[23级]专业采药</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="D27">
@@ -2931,13 +3047,13 @@
         <v>1007</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L27">
         <v>1007</v>
       </c>
       <c r="M27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2947,16 +3063,16 @@
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="9" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="U27" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N27&amp;");"</f>
@@ -2968,11 +3084,11 @@
         <v>1026</v>
       </c>
       <c r="B28" t="str">
-        <f>"["&amp;G28&amp;"级]飞将军叶挺"</f>
-        <v>[24级]飞将军叶挺</v>
+        <f>"["&amp;G28&amp;"级]水镜统帅"</f>
+        <v>[24级]水镜统帅</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1025</v>
       </c>
       <c r="D28">
@@ -2997,13 +3113,13 @@
         <v>1007</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L28">
         <v>1008</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3013,14 +3129,14 @@
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="9" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,11 +3144,11 @@
         <v>1027</v>
       </c>
       <c r="B29" t="str">
-        <f>"["&amp;G29&amp;"级]西南王白崇禧"</f>
-        <v>[25级]西南王白崇禧</v>
+        <f>"["&amp;G29&amp;"级]敌众我寡"</f>
+        <v>[25级]敌众我寡</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="D29">
@@ -3057,13 +3173,13 @@
         <v>1008</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L29">
         <v>1008</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -3073,16 +3189,16 @@
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="9" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="U29" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N29&amp;");"</f>
@@ -3094,11 +3210,12 @@
         <v>1028</v>
       </c>
       <c r="B30" t="str">
-        <f>"["&amp;G30&amp;"级]从天而降"</f>
-        <v>[26级]从天而降</v>
+        <f>"["&amp;G30&amp;"级]强化"</f>
+        <v>[26级]强化</v>
       </c>
       <c r="C30">
-        <v>1009</v>
+        <f t="shared" si="1"/>
+        <v>1027</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3122,13 +3239,13 @@
         <v>1008</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L30">
         <v>1008</v>
       </c>
       <c r="M30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3138,14 +3255,14 @@
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="9" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,11 +3270,12 @@
         <v>1029</v>
       </c>
       <c r="B31" t="str">
-        <f>"["&amp;G31&amp;"级]从天而降"</f>
-        <v>[27级]从天而降</v>
+        <f>"["&amp;G31&amp;"级]无尽的追兵"</f>
+        <v>[27级]无尽的追兵</v>
       </c>
       <c r="C31">
-        <v>1010</v>
+        <f t="shared" si="1"/>
+        <v>1028</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3181,13 +3299,13 @@
         <v>1008</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L31">
         <v>1008</v>
       </c>
       <c r="M31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -3197,16 +3315,16 @@
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="9" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="U31" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N31&amp;");"</f>
@@ -3218,11 +3336,12 @@
         <v>1030</v>
       </c>
       <c r="B32" t="str">
-        <f>"["&amp;G32&amp;"级]从天而降"</f>
-        <v>[28级]从天而降</v>
+        <f>"["&amp;G32&amp;"级]衣冠冢决战"</f>
+        <v>[28级]衣冠冢决战</v>
       </c>
       <c r="C32">
-        <v>1009</v>
+        <f t="shared" si="1"/>
+        <v>1029</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3246,13 +3365,13 @@
         <v>1008</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L32">
         <v>1008</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -3262,16 +3381,16 @@
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="9" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="U32" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;N32&amp;");"</f>
@@ -3283,11 +3402,12 @@
         <v>1031</v>
       </c>
       <c r="B33" t="str">
-        <f>"["&amp;G33&amp;"级]从天而降"</f>
-        <v>[29级]从天而降</v>
+        <f>"["&amp;G33&amp;"级]继承"</f>
+        <v>[29级]继承</v>
       </c>
       <c r="C33">
-        <v>1010</v>
+        <f t="shared" si="1"/>
+        <v>1030</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3311,13 +3431,13 @@
         <v>1008</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L33">
         <v>1008</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3327,14 +3447,14 @@
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="9" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="4332" windowWidth="14808" windowHeight="7476"/>
+    <workbookView xWindow="8085" yWindow="4335" windowWidth="14805" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -932,6 +932,14 @@
   </si>
   <si>
     <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,34 +1362,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="43.77734375" customWidth="1"/>
-    <col min="19" max="19" width="55.88671875" customWidth="1"/>
-    <col min="20" max="20" width="53.33203125" customWidth="1"/>
-    <col min="21" max="21" width="54" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="43.75" customWidth="1"/>
+    <col min="21" max="21" width="55.875" customWidth="1"/>
+    <col min="22" max="22" width="53.375" customWidth="1"/>
+    <col min="23" max="23" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1395,63 +1404,69 @@
         <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="str">
-        <f>"["&amp;G2&amp;"级]从天而降"</f>
+        <f>"["&amp;I2&amp;"级]从天而降"</f>
         <v>[1级]从天而降</v>
       </c>
       <c r="C2">
@@ -1460,59 +1475,59 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>1000</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1001</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="str">
-        <f>"["&amp;G3&amp;"级]冲动"</f>
+        <f>"["&amp;I3&amp;"级]冲动"</f>
         <v>[2级]冲动</v>
       </c>
       <c r="C3">
@@ -1522,26 +1537,20 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>200</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1001</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1001</v>
@@ -1550,29 +1559,35 @@
         <v>52</v>
       </c>
       <c r="N3">
+        <v>1001</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="str">
-        <f>"["&amp;G4&amp;"级]追兵"</f>
+        <f>"["&amp;I4&amp;"级]追兵"</f>
         <v>[3级]追兵</v>
       </c>
       <c r="C4">
@@ -1582,63 +1597,63 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>200</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>1001</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>52</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1002</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>120</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U4" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N4&amp;");"</f>
+      <c r="W4" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P4&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="str">
-        <f>"["&amp;G5&amp;"级]防具"</f>
+        <f>"["&amp;I5&amp;"级]防具"</f>
         <v>[4级]防具</v>
       </c>
       <c r="C5">
@@ -1648,26 +1663,20 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>200</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1002</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1002</v>
@@ -1676,31 +1685,37 @@
         <v>53</v>
       </c>
       <c r="N5">
+        <v>1002</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>72</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="str">
-        <f>"["&amp;G6&amp;"级]困难"</f>
+        <f>"["&amp;I6&amp;"级]困难"</f>
         <v>[4级]困难</v>
       </c>
       <c r="C6">
@@ -1710,57 +1725,57 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>200</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>1002</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1001</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>72</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>72</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="7"/>
+      <c r="S6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7"/>
+      <c r="V6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="str">
-        <f>"["&amp;G7&amp;"级]强敌"</f>
+        <f>"["&amp;I7&amp;"级]强敌"</f>
         <v>[5级]强敌</v>
       </c>
       <c r="C7">
@@ -1770,26 +1785,20 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>200</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1001</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1001</v>
@@ -1798,35 +1807,41 @@
         <v>72</v>
       </c>
       <c r="N7">
+        <v>1001</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>172</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="7"/>
+      <c r="S7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U7" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N7&amp;");"</f>
+      <c r="W7" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P7&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="str">
-        <f>"["&amp;G8&amp;"级]会合"</f>
+        <f>"["&amp;I8&amp;"级]会合"</f>
         <v>[6级]会合</v>
       </c>
       <c r="C8">
@@ -1836,57 +1851,57 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>200</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>1001</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>72</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1003</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>54</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>103</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="9" t="s">
+      <c r="R8" s="7"/>
+      <c r="S8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="7"/>
+      <c r="V8" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="str">
-        <f>"["&amp;G9&amp;"级]又遇追兵"</f>
+        <f>"["&amp;I9&amp;"级]又遇追兵"</f>
         <v>[6级]又遇追兵</v>
       </c>
       <c r="C9">
@@ -1896,26 +1911,20 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>200</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1003</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1003</v>
@@ -1924,35 +1933,41 @@
         <v>54</v>
       </c>
       <c r="N9">
+        <v>1003</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>103</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="7"/>
+      <c r="S9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U9" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N9&amp;");"</f>
+      <c r="W9" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P9&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="str">
-        <f>"["&amp;G10&amp;"级]义军"</f>
+        <f>"["&amp;I10&amp;"级]义军"</f>
         <v>[7级]义军</v>
       </c>
       <c r="C10">
@@ -1962,57 +1977,57 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>200</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>1003</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1001</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>72</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>247</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7" t="s">
+      <c r="U10" s="7"/>
+      <c r="V10" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="str">
-        <f>"["&amp;G11&amp;"级]阻击"</f>
+        <f>"["&amp;I11&amp;"级]阻击"</f>
         <v>[8级]阻击</v>
       </c>
       <c r="C11">
@@ -2022,63 +2037,63 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>200</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>1001</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>72</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1004</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>55</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>148</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="7"/>
+      <c r="S11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="T11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="U11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U11" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N11&amp;");"</f>
+      <c r="W11" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P11&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" t="str">
-        <f>"["&amp;G12&amp;"级]义军孙策"</f>
+        <f>"["&amp;I12&amp;"级]义军孙策"</f>
         <v>[8级]义军孙策</v>
       </c>
       <c r="C12">
@@ -2087,26 +2102,20 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>8</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>200</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1004</v>
-      </c>
-      <c r="K12" t="s">
-        <v>55</v>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1004</v>
@@ -2115,29 +2124,35 @@
         <v>55</v>
       </c>
       <c r="N12">
+        <v>1004</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>148</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9" t="s">
+      <c r="R12" s="7"/>
+      <c r="S12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="T12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7" t="s">
+      <c r="U12" s="7"/>
+      <c r="V12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1011</v>
       </c>
       <c r="B13" t="str">
-        <f>"["&amp;G13&amp;"级]猛兽"</f>
+        <f>"["&amp;I13&amp;"级]猛兽"</f>
         <v>[9级]猛兽</v>
       </c>
       <c r="C13">
@@ -2146,63 +2161,63 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>200</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>1004</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>55</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>1001</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>72</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>355</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="7"/>
+      <c r="S13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="U13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="U13" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N13&amp;");"</f>
+      <c r="W13" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P13&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="10" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>1012</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>"["&amp;G14&amp;"级]寻找孙策"</f>
+        <f>"["&amp;I14&amp;"级]寻找孙策"</f>
         <v>[10级]寻找孙策</v>
       </c>
       <c r="C14" s="10">
@@ -2212,57 +2227,57 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
       <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
         <v>10</v>
       </c>
-      <c r="H14" s="10">
+      <c r="J14" s="10">
         <v>200</v>
       </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>1001</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="10">
+      <c r="N14" s="10">
         <v>1005</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="10">
+      <c r="P14" s="10">
         <v>0</v>
       </c>
-      <c r="O14" s="10">
+      <c r="Q14" s="10">
         <v>72</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11"/>
+      <c r="S14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11"/>
+      <c r="V14" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1013</v>
       </c>
       <c r="B15" t="str">
-        <f>"["&amp;G15&amp;"级]妖兽"</f>
+        <f>"["&amp;I15&amp;"级]妖兽"</f>
         <v>[11级]妖兽</v>
       </c>
       <c r="C15">
@@ -2272,63 +2287,63 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>11</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>200</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>1005</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>59</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>1007</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>60</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>72</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="7"/>
+      <c r="S15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="U15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="V15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="U15" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N15&amp;");"</f>
+      <c r="W15" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P15&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1014</v>
       </c>
       <c r="B16" t="str">
-        <f>"["&amp;G16&amp;"级]无须自责"</f>
+        <f>"["&amp;I16&amp;"级]无须自责"</f>
         <v>[12级]无须自责</v>
       </c>
       <c r="C16">
@@ -2338,26 +2353,20 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>12</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>200</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1007</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
+      <c r="K16">
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1007</v>
@@ -2366,29 +2375,35 @@
         <v>60</v>
       </c>
       <c r="N16">
+        <v>1007</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>172</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="9" t="s">
+      <c r="R16" s="7"/>
+      <c r="S16" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="T16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7" t="s">
+      <c r="U16" s="7"/>
+      <c r="V16" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="str">
-        <f>"["&amp;G17&amp;"级]习得新招"</f>
+        <f>"["&amp;I17&amp;"级]习得新招"</f>
         <v>[13级]习得新招</v>
       </c>
       <c r="C17">
@@ -2398,26 +2413,20 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>200</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1007</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1007</v>
@@ -2426,35 +2435,41 @@
         <v>60</v>
       </c>
       <c r="N17">
+        <v>1007</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>103</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="9" t="s">
+      <c r="R17" s="7"/>
+      <c r="S17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="T17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="U17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="V17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="U17" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N17&amp;");"</f>
+      <c r="W17" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P17&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="str">
-        <f>"["&amp;G18&amp;"级]解困大乔"</f>
+        <f>"["&amp;I18&amp;"级]解困大乔"</f>
         <v>[14级]解困大乔</v>
       </c>
       <c r="C18">
@@ -2464,57 +2479,57 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>200</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>1007</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>60</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>1004</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>103</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="9" t="s">
+      <c r="R18" s="7"/>
+      <c r="S18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="T18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7" t="s">
+      <c r="U18" s="7"/>
+      <c r="V18" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="str">
-        <f>"["&amp;G19&amp;"级]琉璃宝石"</f>
+        <f>"["&amp;I19&amp;"级]琉璃宝石"</f>
         <v>[15级]琉璃宝石</v>
       </c>
       <c r="C19">
@@ -2524,26 +2539,20 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>200</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1004</v>
-      </c>
-      <c r="K19" t="s">
-        <v>55</v>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1004</v>
@@ -2552,35 +2561,41 @@
         <v>55</v>
       </c>
       <c r="N19">
+        <v>1004</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19">
         <v>2</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>247</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="9" t="s">
+      <c r="R19" s="7"/>
+      <c r="S19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="T19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="U19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="V19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U19" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N19&amp;");"</f>
+      <c r="W19" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P19&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="str">
-        <f>"["&amp;G20&amp;"级]力大无穷"</f>
+        <f>"["&amp;I20&amp;"级]力大无穷"</f>
         <v>[16级]力大无穷</v>
       </c>
       <c r="C20">
@@ -2590,26 +2605,20 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>200</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1004</v>
-      </c>
-      <c r="K20" t="s">
-        <v>55</v>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="L20">
         <v>1004</v>
@@ -2618,29 +2627,35 @@
         <v>55</v>
       </c>
       <c r="N20">
+        <v>1004</v>
+      </c>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>148</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="9" t="s">
+      <c r="R20" s="7"/>
+      <c r="S20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="T20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7" t="s">
+      <c r="U20" s="7"/>
+      <c r="V20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="str">
-        <f>"["&amp;G21&amp;"级]玉瓶下落"</f>
+        <f>"["&amp;I21&amp;"级]玉瓶下落"</f>
         <v>[17级]玉瓶下落</v>
       </c>
       <c r="C21">
@@ -2650,63 +2665,63 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>17</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>200</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>1004</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>55</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>1007</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>60</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>148</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="9" t="s">
+      <c r="R21" s="7"/>
+      <c r="S21" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="T21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="U21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="V21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U21" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N21&amp;");"</f>
+      <c r="W21" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P21&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1020</v>
       </c>
       <c r="B22" t="str">
-        <f>"["&amp;G22&amp;"级]神力坐骑"</f>
+        <f>"["&amp;I22&amp;"级]神力坐骑"</f>
         <v>[18级]神力坐骑</v>
       </c>
       <c r="C22">
@@ -2716,26 +2731,20 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>18</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>200</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1007</v>
-      </c>
-      <c r="K22" t="s">
-        <v>60</v>
+      <c r="K22">
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1007</v>
@@ -2744,29 +2753,35 @@
         <v>60</v>
       </c>
       <c r="N22">
+        <v>1007</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>355</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="7"/>
+      <c r="S22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="T22" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7" t="s">
+      <c r="U22" s="7"/>
+      <c r="V22" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1021</v>
       </c>
       <c r="B23" t="str">
-        <f>"["&amp;G23&amp;"级]变身小白"</f>
+        <f>"["&amp;I23&amp;"级]变身小白"</f>
         <v>[19级]变身小白</v>
       </c>
       <c r="C23">
@@ -2776,57 +2791,57 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>19</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>200</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>1007</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>60</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>1006</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>61</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>72</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="9" t="s">
+      <c r="R23" s="7"/>
+      <c r="S23" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="T23" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7" t="s">
+      <c r="U23" s="7"/>
+      <c r="V23" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="10" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>1022</v>
       </c>
       <c r="B24" s="10" t="str">
-        <f>"["&amp;G24&amp;"级]封印校尉"</f>
+        <f>"["&amp;I24&amp;"级]封印校尉"</f>
         <v>[20级]封印校尉</v>
       </c>
       <c r="C24">
@@ -2836,26 +2851,20 @@
       <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
       <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
         <v>20</v>
       </c>
-      <c r="H24" s="10">
+      <c r="J24" s="10">
         <v>200</v>
       </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>1006</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>61</v>
+      <c r="K24" s="10">
+        <v>1</v>
       </c>
       <c r="L24" s="10">
         <v>1006</v>
@@ -2864,35 +2873,41 @@
         <v>61</v>
       </c>
       <c r="N24" s="10">
+        <v>1006</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="10">
         <v>2</v>
       </c>
-      <c r="O24" s="10">
+      <c r="Q24" s="10">
         <v>72</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11" t="s">
+      <c r="R24" s="11"/>
+      <c r="S24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="U24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="V24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="U24" s="10" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N24&amp;");"</f>
+      <c r="W24" s="10" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P24&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1023</v>
       </c>
       <c r="B25" t="str">
-        <f>"["&amp;G25&amp;"级]衣冠冢下落"</f>
+        <f>"["&amp;I25&amp;"级]衣冠冢下落"</f>
         <v>[21级]衣冠冢下落</v>
       </c>
       <c r="C25">
@@ -2902,57 +2917,57 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>21</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>200</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>1006</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>61</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>1007</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>60</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>172</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="9" t="s">
+      <c r="R25" s="7"/>
+      <c r="S25" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="T25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7" t="s">
+      <c r="U25" s="7"/>
+      <c r="V25" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1024</v>
       </c>
       <c r="B26" t="str">
-        <f>"["&amp;G26&amp;"级]收集草药"</f>
+        <f>"["&amp;I26&amp;"级]收集草药"</f>
         <v>[22级]收集草药</v>
       </c>
       <c r="C26">
@@ -2962,26 +2977,20 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>22</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>200</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1007</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
+      <c r="K26">
+        <v>1</v>
       </c>
       <c r="L26">
         <v>1007</v>
@@ -2990,35 +2999,41 @@
         <v>60</v>
       </c>
       <c r="N26">
+        <v>1007</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26">
         <v>2</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>103</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="9" t="s">
+      <c r="R26" s="7"/>
+      <c r="S26" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="T26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="U26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="V26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="U26" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N26&amp;");"</f>
+      <c r="W26" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P26&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1025</v>
       </c>
       <c r="B27" t="str">
-        <f>"["&amp;G27&amp;"级]专业采药"</f>
+        <f>"["&amp;I27&amp;"级]专业采药"</f>
         <v>[23级]专业采药</v>
       </c>
       <c r="C27">
@@ -3028,26 +3043,20 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>23</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>200</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1007</v>
-      </c>
-      <c r="K27" t="s">
-        <v>60</v>
+      <c r="K27">
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1007</v>
@@ -3056,35 +3065,41 @@
         <v>60</v>
       </c>
       <c r="N27">
+        <v>1007</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27">
         <v>2</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>103</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="9" t="s">
+      <c r="R27" s="7"/>
+      <c r="S27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="T27" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="U27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="V27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="U27" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N27&amp;");"</f>
+      <c r="W27" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P27&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1026</v>
       </c>
       <c r="B28" t="str">
-        <f>"["&amp;G28&amp;"级]水镜统帅"</f>
+        <f>"["&amp;I28&amp;"级]水镜统帅"</f>
         <v>[24级]水镜统帅</v>
       </c>
       <c r="C28">
@@ -3094,57 +3109,57 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>24</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>200</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>1007</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>60</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>1008</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>62</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>0</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>247</v>
       </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="9" t="s">
+      <c r="R28" s="7"/>
+      <c r="S28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="T28" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7" t="s">
+      <c r="U28" s="7"/>
+      <c r="V28" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1027</v>
       </c>
       <c r="B29" t="str">
-        <f>"["&amp;G29&amp;"级]敌众我寡"</f>
+        <f>"["&amp;I29&amp;"级]敌众我寡"</f>
         <v>[25级]敌众我寡</v>
       </c>
       <c r="C29">
@@ -3154,26 +3169,20 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>25</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>200</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1008</v>
-      </c>
-      <c r="K29" t="s">
-        <v>62</v>
+      <c r="K29">
+        <v>1</v>
       </c>
       <c r="L29">
         <v>1008</v>
@@ -3182,35 +3191,41 @@
         <v>62</v>
       </c>
       <c r="N29">
+        <v>1008</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29">
         <v>2</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>148</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="9" t="s">
+      <c r="R29" s="7"/>
+      <c r="S29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="T29" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="U29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T29" s="7" t="s">
+      <c r="V29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="U29" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N29&amp;");"</f>
+      <c r="W29" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P29&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1028</v>
       </c>
       <c r="B30" t="str">
-        <f>"["&amp;G30&amp;"级]强化"</f>
+        <f>"["&amp;I30&amp;"级]强化"</f>
         <v>[26级]强化</v>
       </c>
       <c r="C30">
@@ -3220,26 +3235,20 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>26</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>200</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1008</v>
-      </c>
-      <c r="K30" t="s">
-        <v>62</v>
+      <c r="K30">
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1008</v>
@@ -3248,29 +3257,35 @@
         <v>62</v>
       </c>
       <c r="N30">
+        <v>1008</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30">
         <v>0</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>148</v>
       </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="9" t="s">
+      <c r="R30" s="7"/>
+      <c r="S30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="T30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7" t="s">
+      <c r="U30" s="7"/>
+      <c r="V30" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1029</v>
       </c>
       <c r="B31" t="str">
-        <f>"["&amp;G31&amp;"级]无尽的追兵"</f>
+        <f>"["&amp;I31&amp;"级]无尽的追兵"</f>
         <v>[27级]无尽的追兵</v>
       </c>
       <c r="C31">
@@ -3280,26 +3295,20 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>27</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>200</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1008</v>
-      </c>
-      <c r="K31" t="s">
-        <v>62</v>
+      <c r="K31">
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1008</v>
@@ -3308,35 +3317,41 @@
         <v>62</v>
       </c>
       <c r="N31">
+        <v>1008</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31">
         <v>2</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>355</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="9" t="s">
+      <c r="R31" s="7"/>
+      <c r="S31" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="T31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="U31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="V31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="U31" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N31&amp;");"</f>
+      <c r="W31" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P31&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1030</v>
       </c>
       <c r="B32" t="str">
-        <f>"["&amp;G32&amp;"级]衣冠冢决战"</f>
+        <f>"["&amp;I32&amp;"级]衣冠冢决战"</f>
         <v>[28级]衣冠冢决战</v>
       </c>
       <c r="C32">
@@ -3346,26 +3361,20 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>28</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>200</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1008</v>
-      </c>
-      <c r="K32" t="s">
-        <v>62</v>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1008</v>
@@ -3374,35 +3383,41 @@
         <v>62</v>
       </c>
       <c r="N32">
+        <v>1008</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32">
         <v>2</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>148</v>
       </c>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="9" t="s">
+      <c r="R32" s="7"/>
+      <c r="S32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="T32" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="U32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="V32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="U32" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;N32&amp;");"</f>
+      <c r="W32" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;P32&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1031</v>
       </c>
       <c r="B33" t="str">
-        <f>"["&amp;G33&amp;"级]继承"</f>
+        <f>"["&amp;I33&amp;"级]继承"</f>
         <v>[29级]继承</v>
       </c>
       <c r="C33">
@@ -3412,26 +3427,20 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>29</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>200</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1008</v>
-      </c>
-      <c r="K33" t="s">
-        <v>62</v>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="L33">
         <v>1008</v>
@@ -3440,20 +3449,26 @@
         <v>62</v>
       </c>
       <c r="N33">
+        <v>1008</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>355</v>
       </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="9" t="s">
+      <c r="R33" s="7"/>
+      <c r="S33" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="T33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7" t="s">
+      <c r="U33" s="7"/>
+      <c r="V33" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3472,14 +3487,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3495,7 +3510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -3503,7 +3518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3511,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3519,7 +3534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -3527,7 +3542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -3535,7 +3550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3559,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3567,7 +3582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3575,7 +3590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3583,7 +3598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -3591,7 +3606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3599,7 +3614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3607,7 +3622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -3615,7 +3630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3623,7 +3638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -3639,7 +3654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3662,7 +3677,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="8085" yWindow="4335" windowWidth="14805" windowHeight="7470"/>
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -116,13 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1=剧情
-2=日常
-3=家族
-0=其他功能，用任务id实现需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（0-255）接取任务时所在的场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,6 +933,14 @@
   </si>
   <si>
     <t>关卡等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=剧情
+2=日常
+3=家族
+99=副本内容
+0=其他功能，用任务id实现需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1016,6 +1017,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1029,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1058,6 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1076,7 +1084,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,7 +1161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1362,15 +1370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1398,16 +1407,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>11</v>
@@ -1425,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>15</v>
@@ -1437,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>7</v>
@@ -1446,19 +1455,19 @@
         <v>18</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="108" x14ac:dyDescent="0.15">
@@ -1494,13 +1503,13 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2">
         <v>1001</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1509,17 +1518,17 @@
         <v>1</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1556,13 +1565,13 @@
         <v>1001</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1001</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1572,14 +1581,14 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1616,13 +1625,13 @@
         <v>1001</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1002</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1632,16 +1641,16 @@
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="V4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P4&amp;");"</f>
@@ -1682,13 +1691,13 @@
         <v>1002</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1002</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1697,17 +1706,17 @@
         <v>72</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1744,13 +1753,13 @@
         <v>1002</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1001</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1804,13 +1813,13 @@
         <v>1001</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1001</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1820,16 +1829,16 @@
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="V7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P7&amp;");"</f>
@@ -1870,13 +1879,13 @@
         <v>1001</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8">
         <v>1003</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1930,13 +1939,13 @@
         <v>1003</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1003</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -1946,16 +1955,16 @@
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="W9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P9&amp;");"</f>
@@ -1996,13 +2005,13 @@
         <v>1003</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1001</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2056,13 +2065,13 @@
         <v>1001</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11">
         <v>1004</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -2072,16 +2081,16 @@
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="U11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="W11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P11&amp;");"</f>
@@ -2121,13 +2130,13 @@
         <v>1004</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>1004</v>
       </c>
       <c r="O12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2137,14 +2146,14 @@
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2180,13 +2189,13 @@
         <v>1004</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>1001</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -2196,16 +2205,16 @@
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P13&amp;");"</f>
@@ -2246,13 +2255,13 @@
         <v>1001</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="10">
         <v>1005</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P14" s="10">
         <v>0</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2306,13 +2315,13 @@
         <v>1005</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15">
         <v>1007</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -2322,16 +2331,16 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="V15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W15" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P15&amp;");"</f>
@@ -2372,13 +2381,13 @@
         <v>1007</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16">
         <v>1007</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2432,13 +2441,13 @@
         <v>1007</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1007</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -2448,16 +2457,16 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="V17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W17" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P17&amp;");"</f>
@@ -2498,13 +2507,13 @@
         <v>1007</v>
       </c>
       <c r="M18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1004</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="T18" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2558,13 +2567,13 @@
         <v>1004</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19">
         <v>1004</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -2574,16 +2583,16 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="T19" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="U19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W19" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P19&amp;");"</f>
@@ -2624,13 +2633,13 @@
         <v>1004</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1004</v>
       </c>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2684,13 +2693,13 @@
         <v>1004</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>1007</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21">
         <v>2</v>
@@ -2700,16 +2709,16 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T21" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="T21" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="U21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W21" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P21&amp;");"</f>
@@ -2750,13 +2759,13 @@
         <v>1007</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N22">
         <v>1007</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T22" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2810,13 +2819,13 @@
         <v>1007</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1006</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2870,13 +2879,13 @@
         <v>1006</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N24" s="10">
         <v>1006</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P24" s="10">
         <v>2</v>
@@ -2886,16 +2895,16 @@
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="W24" s="10" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P24&amp;");"</f>
@@ -2936,13 +2945,13 @@
         <v>1006</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1007</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="T25" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2996,13 +3005,13 @@
         <v>1007</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1007</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -3012,16 +3021,16 @@
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="W26" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P26&amp;");"</f>
@@ -3062,13 +3071,13 @@
         <v>1007</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N27">
         <v>1007</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -3078,16 +3087,16 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="U27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="W27" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P27&amp;");"</f>
@@ -3128,13 +3137,13 @@
         <v>1007</v>
       </c>
       <c r="M28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N28">
         <v>1008</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3144,14 +3153,14 @@
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T28" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3188,13 +3197,13 @@
         <v>1008</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N29">
         <v>1008</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -3204,16 +3213,16 @@
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="T29" s="9" t="s">
+      <c r="U29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="U29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="W29" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P29&amp;");"</f>
@@ -3254,13 +3263,13 @@
         <v>1008</v>
       </c>
       <c r="M30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N30">
         <v>1008</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3270,14 +3279,14 @@
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="T30" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3314,13 +3323,13 @@
         <v>1008</v>
       </c>
       <c r="M31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N31">
         <v>1008</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -3330,16 +3339,16 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T31" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="T31" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="U31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W31" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P31&amp;");"</f>
@@ -3380,13 +3389,13 @@
         <v>1008</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1008</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -3396,23 +3405,23 @@
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="T32" s="9" t="s">
+      <c r="U32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="U32" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="V32" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W32" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;P32&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -3446,13 +3455,13 @@
         <v>1008</v>
       </c>
       <c r="M33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1008</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3462,15 +3471,642 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="7" t="s">
-        <v>155</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
+        <v>10001</v>
+      </c>
+      <c r="B34" s="12" t="str">
+        <f>I34&amp;"级副本"</f>
+        <v>1级副本</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12">
+        <v>99</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12">
+        <v>1</v>
+      </c>
+      <c r="J34" s="12">
+        <v>200</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
+        <v>10002</v>
+      </c>
+      <c r="B35" s="12" t="str">
+        <f t="shared" ref="B35:B47" si="2">I35&amp;"级副本"</f>
+        <v>2级副本</v>
+      </c>
+      <c r="C35" s="12">
+        <f>A34</f>
+        <v>10001</v>
+      </c>
+      <c r="D35" s="12">
+        <v>99</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>2</v>
+      </c>
+      <c r="J35" s="12">
+        <v>200</v>
+      </c>
+      <c r="K35" s="12">
+        <v>5</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
+        <v>10003</v>
+      </c>
+      <c r="B36" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>3级副本</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:C47" si="3">A35</f>
+        <v>10002</v>
+      </c>
+      <c r="D36" s="12">
+        <v>99</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3</v>
+      </c>
+      <c r="J36" s="12">
+        <v>200</v>
+      </c>
+      <c r="K36" s="12">
+        <v>5</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>10004</v>
+      </c>
+      <c r="B37" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>4级副本</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="3"/>
+        <v>10003</v>
+      </c>
+      <c r="D37" s="12">
+        <v>99</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>4</v>
+      </c>
+      <c r="J37" s="12">
+        <v>200</v>
+      </c>
+      <c r="K37" s="12">
+        <v>5</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
+        <v>10005</v>
+      </c>
+      <c r="B38" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5级副本</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="3"/>
+        <v>10004</v>
+      </c>
+      <c r="D38" s="12">
+        <v>99</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>5</v>
+      </c>
+      <c r="J38" s="12">
+        <v>200</v>
+      </c>
+      <c r="K38" s="12">
+        <v>5</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
+        <v>10006</v>
+      </c>
+      <c r="B39" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>6级副本</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="3"/>
+        <v>10005</v>
+      </c>
+      <c r="D39" s="12">
+        <v>99</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>6</v>
+      </c>
+      <c r="J39" s="12">
+        <v>200</v>
+      </c>
+      <c r="K39" s="12">
+        <v>5</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
+        <v>10007</v>
+      </c>
+      <c r="B40" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>7级副本</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="3"/>
+        <v>10006</v>
+      </c>
+      <c r="D40" s="12">
+        <v>99</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>7</v>
+      </c>
+      <c r="J40" s="12">
+        <v>200</v>
+      </c>
+      <c r="K40" s="12">
+        <v>5</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
+        <v>10008</v>
+      </c>
+      <c r="B41" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>8级副本</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="3"/>
+        <v>10007</v>
+      </c>
+      <c r="D41" s="12">
+        <v>99</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>8</v>
+      </c>
+      <c r="J41" s="12">
+        <v>200</v>
+      </c>
+      <c r="K41" s="12">
+        <v>5</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
+        <v>10009</v>
+      </c>
+      <c r="B42" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>9级副本</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="3"/>
+        <v>10008</v>
+      </c>
+      <c r="D42" s="12">
+        <v>99</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>9</v>
+      </c>
+      <c r="J42" s="12">
+        <v>200</v>
+      </c>
+      <c r="K42" s="12">
+        <v>5</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
+        <v>10010</v>
+      </c>
+      <c r="B43" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>10级副本</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="3"/>
+        <v>10009</v>
+      </c>
+      <c r="D43" s="12">
+        <v>99</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>10</v>
+      </c>
+      <c r="J43" s="12">
+        <v>200</v>
+      </c>
+      <c r="K43" s="12">
+        <v>5</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44" s="12">
+        <v>10011</v>
+      </c>
+      <c r="B44" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>11级副本</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="3"/>
+        <v>10010</v>
+      </c>
+      <c r="D44" s="12">
+        <v>99</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>11</v>
+      </c>
+      <c r="J44" s="12">
+        <v>200</v>
+      </c>
+      <c r="K44" s="12">
+        <v>5</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
+        <v>10012</v>
+      </c>
+      <c r="B45" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>12级副本</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="3"/>
+        <v>10011</v>
+      </c>
+      <c r="D45" s="12">
+        <v>99</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>12</v>
+      </c>
+      <c r="J45" s="12">
+        <v>200</v>
+      </c>
+      <c r="K45" s="12">
+        <v>5</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
+        <v>10013</v>
+      </c>
+      <c r="B46" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>13级副本</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="3"/>
+        <v>10012</v>
+      </c>
+      <c r="D46" s="12">
+        <v>99</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>13</v>
+      </c>
+      <c r="J46" s="12">
+        <v>200</v>
+      </c>
+      <c r="K46" s="12">
+        <v>5</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
+        <v>10014</v>
+      </c>
+      <c r="B47" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>14级副本</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="3"/>
+        <v>10013</v>
+      </c>
+      <c r="D47" s="12">
+        <v>99</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>14</v>
+      </c>
+      <c r="J47" s="12">
+        <v>200</v>
+      </c>
+      <c r="K47" s="12">
+        <v>5</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3484,7 +4120,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3512,18 +4148,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3531,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3539,7 +4175,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3547,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3555,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3563,7 +4199,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3571,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3579,7 +4215,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3587,7 +4223,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3595,7 +4231,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3603,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,7 +4247,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3619,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3627,7 +4263,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3635,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3643,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3659,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="4335" windowWidth="14805" windowHeight="7470"/>
+    <workbookView xWindow="8085" yWindow="4365" windowWidth="14805" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1126,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,7 +1161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,8 +1373,8 @@
   <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1546,6 +1546,12 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
@@ -1606,6 +1612,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -1672,6 +1684,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -1734,6 +1752,12 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -1794,6 +1818,12 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -1860,6 +1890,12 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
@@ -1920,6 +1956,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
@@ -1986,6 +2028,12 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
@@ -2046,6 +2094,12 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
@@ -2111,6 +2165,12 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -2170,6 +2230,12 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -2236,6 +2302,12 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
       <c r="G14" s="10">
         <v>1</v>
       </c>
@@ -2296,6 +2368,12 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="G15">
         <v>1</v>
       </c>
@@ -2362,6 +2440,12 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
@@ -2422,6 +2506,12 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
@@ -2488,6 +2578,12 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
@@ -2548,6 +2644,12 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
@@ -2613,6 +2715,12 @@
       </c>
       <c r="D20">
         <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
       </c>
       <c r="G20">
         <v>1</v>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -929,10 +929,6 @@
   </si>
   <si>
     <t>关卡id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1370,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,23 +1379,23 @@
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="7.25" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="43.75" customWidth="1"/>
-    <col min="21" max="21" width="55.875" customWidth="1"/>
-    <col min="22" max="22" width="53.375" customWidth="1"/>
-    <col min="23" max="23" width="54" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="7.25" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="43.75" customWidth="1"/>
+    <col min="20" max="20" width="55.875" customWidth="1"/>
+    <col min="21" max="21" width="53.375" customWidth="1"/>
+    <col min="22" max="22" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1416,66 +1412,63 @@
         <v>155</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="108" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="str">
-        <f>"["&amp;I2&amp;"级]从天而降"</f>
+        <f>"["&amp;H2&amp;"级]从天而降"</f>
         <v>[1级]从天而降</v>
       </c>
       <c r="C2">
@@ -1484,6 +1477,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -1491,52 +1487,49 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
         <v>1000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <v>1001</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="R2" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="S2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="str">
-        <f>"["&amp;I3&amp;"级]冲动"</f>
+        <f>"["&amp;H3&amp;"级]冲动"</f>
         <v>[2级]冲动</v>
       </c>
       <c r="C3">
@@ -1556,53 +1549,50 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
         <v>1001</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="N3">
+      <c r="M3">
         <v>1001</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>51</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="S3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="str">
-        <f>"["&amp;I4&amp;"级]追兵"</f>
+        <f>"["&amp;H4&amp;"级]追兵"</f>
         <v>[3级]追兵</v>
       </c>
       <c r="C4">
@@ -1616,65 +1606,62 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
         <v>1001</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>51</v>
       </c>
-      <c r="N4">
+      <c r="M4">
         <v>1002</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>52</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
       <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
         <v>120</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="S4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="T4" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="U4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="W4" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P4&amp;");"</f>
+      <c r="V4" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O4&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="str">
-        <f>"["&amp;I5&amp;"级]防具"</f>
+        <f>"["&amp;H5&amp;"级]防具"</f>
         <v>[4级]防具</v>
       </c>
       <c r="C5">
@@ -1688,61 +1675,58 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
         <v>1002</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="N5">
+      <c r="M5">
         <v>1002</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>52</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
         <v>72</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="R5" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="S5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="T5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="str">
-        <f>"["&amp;I6&amp;"级]困难"</f>
+        <f>"["&amp;H6&amp;"级]困难"</f>
         <v>[4级]困难</v>
       </c>
       <c r="C6">
@@ -1756,59 +1740,56 @@
         <v>1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
         <v>1002</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="N6">
+      <c r="M6">
         <v>1001</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
         <v>72</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="S6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="str">
-        <f>"["&amp;I7&amp;"级]强敌"</f>
+        <f>"["&amp;H7&amp;"级]强敌"</f>
         <v>[5级]强敌</v>
       </c>
       <c r="C7">
@@ -1822,65 +1803,62 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="J7">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
         <v>1001</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>71</v>
       </c>
-      <c r="N7">
+      <c r="M7">
         <v>1001</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>71</v>
       </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
       <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
         <v>172</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="S7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="T7" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="U7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="V7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W7" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P7&amp;");"</f>
+      <c r="V7" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O7&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="str">
-        <f>"["&amp;I8&amp;"级]会合"</f>
+        <f>"["&amp;H8&amp;"级]会合"</f>
         <v>[6级]会合</v>
       </c>
       <c r="C8">
@@ -1894,59 +1872,56 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="J8">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
         <v>1001</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>71</v>
       </c>
-      <c r="N8">
+      <c r="M8">
         <v>1003</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>53</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
         <v>103</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="S8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7" t="s">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="str">
-        <f>"["&amp;I9&amp;"级]又遇追兵"</f>
+        <f>"["&amp;H9&amp;"级]又遇追兵"</f>
         <v>[6级]又遇追兵</v>
       </c>
       <c r="C9">
@@ -1966,59 +1941,56 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
         <v>1003</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>53</v>
       </c>
-      <c r="N9">
+      <c r="M9">
         <v>1003</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>53</v>
       </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
       <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
         <v>103</v>
       </c>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="T9" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="U9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W9" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P9&amp;");"</f>
+      <c r="V9" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O9&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="str">
-        <f>"["&amp;I10&amp;"级]义军"</f>
+        <f>"["&amp;H10&amp;"级]义军"</f>
         <v>[7级]义军</v>
       </c>
       <c r="C10">
@@ -2032,59 +2004,56 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="J10">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
         <v>1003</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
         <v>53</v>
       </c>
-      <c r="N10">
+      <c r="M10">
         <v>1001</v>
       </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>71</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
         <v>247</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="S10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
+      <c r="T10" s="7"/>
+      <c r="U10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="str">
-        <f>"["&amp;I11&amp;"级]阻击"</f>
+        <f>"["&amp;H11&amp;"级]阻击"</f>
         <v>[8级]阻击</v>
       </c>
       <c r="C11">
@@ -2098,65 +2067,62 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J11">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
         <v>1001</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
         <v>71</v>
       </c>
-      <c r="N11">
+      <c r="M11">
         <v>1004</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>54</v>
       </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
       <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
         <v>148</v>
       </c>
-      <c r="R11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="S11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T11" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="T11" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="U11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W11" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P11&amp;");"</f>
+      <c r="V11" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O11&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" t="str">
-        <f>"["&amp;I12&amp;"级]义军孙策"</f>
+        <f>"["&amp;H12&amp;"级]义军孙策"</f>
         <v>[8级]义军孙策</v>
       </c>
       <c r="C12">
@@ -2169,59 +2135,56 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J12">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
         <v>1004</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
         <v>54</v>
       </c>
-      <c r="N12">
+      <c r="M12">
         <v>1004</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>54</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
         <v>148</v>
       </c>
-      <c r="R12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="S12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="T12" s="7"/>
+      <c r="U12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1011</v>
       </c>
       <c r="B13" t="str">
-        <f>"["&amp;I13&amp;"级]猛兽"</f>
+        <f>"["&amp;H13&amp;"级]猛兽"</f>
         <v>[9级]猛兽</v>
       </c>
       <c r="C13">
@@ -2234,65 +2197,62 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="J13">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
         <v>1004</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
         <v>54</v>
       </c>
-      <c r="N13">
+      <c r="M13">
         <v>1001</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>71</v>
       </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
       <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
         <v>355</v>
       </c>
-      <c r="R13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="S13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="T13" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W13" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P13&amp;");"</f>
+      <c r="V13" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O13&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>1012</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>"["&amp;I14&amp;"级]寻找孙策"</f>
+        <f>"["&amp;H14&amp;"级]寻找孙策"</f>
         <v>[10级]寻找孙策</v>
       </c>
       <c r="C14" s="10">
@@ -2305,60 +2265,57 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>6</v>
+      <c r="F14" s="10">
+        <v>1</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
       </c>
       <c r="H14" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I14" s="10">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J14" s="10">
-        <v>200</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>1001</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="10">
+      <c r="M14" s="10">
         <v>1005</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
       <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
         <v>72</v>
       </c>
-      <c r="R14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="S14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11" t="s">
+      <c r="T14" s="11"/>
+      <c r="U14" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1013</v>
       </c>
       <c r="B15" t="str">
-        <f>"["&amp;I15&amp;"级]妖兽"</f>
+        <f>"["&amp;H15&amp;"级]妖兽"</f>
         <v>[11级]妖兽</v>
       </c>
       <c r="C15">
@@ -2378,59 +2335,56 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="J15">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
         <v>1005</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>58</v>
       </c>
-      <c r="N15">
+      <c r="M15">
         <v>1007</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>59</v>
       </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
       <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
         <v>72</v>
       </c>
-      <c r="R15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="S15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="T15" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="U15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W15" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P15&amp;");"</f>
+      <c r="V15" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O15&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1014</v>
       </c>
       <c r="B16" t="str">
-        <f>"["&amp;I16&amp;"级]无须自责"</f>
+        <f>"["&amp;H16&amp;"级]无须自责"</f>
         <v>[12级]无须自责</v>
       </c>
       <c r="C16">
@@ -2444,59 +2398,56 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J16">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
         <v>1007</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
         <v>59</v>
       </c>
-      <c r="N16">
+      <c r="M16">
         <v>1007</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>59</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
         <v>172</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="S16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="T16" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
+      <c r="T16" s="7"/>
+      <c r="U16" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="str">
-        <f>"["&amp;I17&amp;"级]习得新招"</f>
+        <f>"["&amp;H17&amp;"级]习得新招"</f>
         <v>[13级]习得新招</v>
       </c>
       <c r="C17">
@@ -2510,65 +2461,62 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I17">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="J17">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
         <v>1007</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>59</v>
       </c>
-      <c r="N17">
+      <c r="M17">
         <v>1007</v>
       </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>59</v>
       </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
       <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
         <v>103</v>
       </c>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="S17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="T17" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="T17" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="U17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W17" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P17&amp;");"</f>
+      <c r="V17" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O17&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="str">
-        <f>"["&amp;I18&amp;"级]解困大乔"</f>
+        <f>"["&amp;H18&amp;"级]解困大乔"</f>
         <v>[14级]解困大乔</v>
       </c>
       <c r="C18">
@@ -2582,59 +2530,56 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="J18">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
         <v>1007</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
         <v>59</v>
       </c>
-      <c r="N18">
+      <c r="M18">
         <v>1004</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>54</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
       <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
         <v>103</v>
       </c>
-      <c r="R18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="S18" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="T18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7" t="s">
+      <c r="T18" s="7"/>
+      <c r="U18" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="str">
-        <f>"["&amp;I19&amp;"级]琉璃宝石"</f>
+        <f>"["&amp;H19&amp;"级]琉璃宝石"</f>
         <v>[15级]琉璃宝石</v>
       </c>
       <c r="C19">
@@ -2648,65 +2593,62 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="J19">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
         <v>1004</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" t="s">
         <v>54</v>
       </c>
-      <c r="N19">
+      <c r="M19">
         <v>1004</v>
       </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>54</v>
       </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
       <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="Q19">
         <v>247</v>
       </c>
-      <c r="R19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="S19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="T19" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="T19" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="W19" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P19&amp;");"</f>
+      <c r="V19" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O19&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="str">
-        <f>"["&amp;I20&amp;"级]力大无穷"</f>
+        <f>"["&amp;H20&amp;"级]力大无穷"</f>
         <v>[16级]力大无穷</v>
       </c>
       <c r="C20">
@@ -2720,59 +2662,56 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="J20">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
         <v>1004</v>
       </c>
-      <c r="M20" t="s">
+      <c r="L20" t="s">
         <v>54</v>
       </c>
-      <c r="N20">
+      <c r="M20">
         <v>1004</v>
       </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>54</v>
       </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
         <v>148</v>
       </c>
-      <c r="R20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="S20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7" t="s">
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="str">
-        <f>"["&amp;I21&amp;"级]玉瓶下落"</f>
+        <f>"["&amp;H21&amp;"级]玉瓶下落"</f>
         <v>[17级]玉瓶下落</v>
       </c>
       <c r="C21">
@@ -2782,63 +2721,63 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I21">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="J21">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
         <v>1004</v>
       </c>
-      <c r="M21" t="s">
+      <c r="L21" t="s">
         <v>54</v>
       </c>
-      <c r="N21">
+      <c r="M21">
         <v>1007</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>59</v>
       </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
       <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
         <v>148</v>
       </c>
-      <c r="R21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="S21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="T21" s="9" t="s">
         <v>120</v>
       </c>
+      <c r="T21" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="W21" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P21&amp;");"</f>
+      <c r="V21" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O21&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1020</v>
       </c>
       <c r="B22" t="str">
-        <f>"["&amp;I22&amp;"级]神力坐骑"</f>
+        <f>"["&amp;H22&amp;"级]神力坐骑"</f>
         <v>[18级]神力坐骑</v>
       </c>
       <c r="C22">
@@ -2848,57 +2787,57 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="J22">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
         <v>1007</v>
       </c>
-      <c r="M22" t="s">
+      <c r="L22" t="s">
         <v>59</v>
       </c>
-      <c r="N22">
+      <c r="M22">
         <v>1007</v>
       </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>59</v>
       </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
         <v>355</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="S22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7" t="s">
+      <c r="T22" s="7"/>
+      <c r="U22" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1021</v>
       </c>
       <c r="B23" t="str">
-        <f>"["&amp;I23&amp;"级]变身小白"</f>
+        <f>"["&amp;H23&amp;"级]变身小白"</f>
         <v>[19级]变身小白</v>
       </c>
       <c r="C23">
@@ -2908,57 +2847,57 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I23">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="J23">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
         <v>1007</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
         <v>59</v>
       </c>
-      <c r="N23">
+      <c r="M23">
         <v>1006</v>
       </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>60</v>
       </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
         <v>72</v>
       </c>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="S23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="T23" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>1022</v>
       </c>
       <c r="B24" s="10" t="str">
-        <f>"["&amp;I24&amp;"级]封印校尉"</f>
+        <f>"["&amp;H24&amp;"级]封印校尉"</f>
         <v>[20级]封印校尉</v>
       </c>
       <c r="C24">
@@ -2968,63 +2907,63 @@
       <c r="D24" s="10">
         <v>1</v>
       </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
       <c r="G24" s="10">
         <v>1</v>
       </c>
       <c r="H24" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I24" s="10">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J24" s="10">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
         <v>1006</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="10">
+      <c r="M24" s="10">
         <v>1006</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="O24" s="10">
+        <v>2</v>
+      </c>
       <c r="P24" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="10">
         <v>72</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="S24" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="W24" s="10" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P24&amp;");"</f>
+      <c r="V24" s="10" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O24&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1023</v>
       </c>
       <c r="B25" t="str">
-        <f>"["&amp;I25&amp;"级]衣冠冢下落"</f>
+        <f>"["&amp;H25&amp;"级]衣冠冢下落"</f>
         <v>[21级]衣冠冢下落</v>
       </c>
       <c r="C25">
@@ -3034,57 +2973,57 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="J25">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
         <v>1006</v>
       </c>
-      <c r="M25" t="s">
+      <c r="L25" t="s">
         <v>60</v>
       </c>
-      <c r="N25">
+      <c r="M25">
         <v>1007</v>
       </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>59</v>
       </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
         <v>172</v>
       </c>
-      <c r="R25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="S25" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="T25" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7" t="s">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1024</v>
       </c>
       <c r="B26" t="str">
-        <f>"["&amp;I26&amp;"级]收集草药"</f>
+        <f>"["&amp;H26&amp;"级]收集草药"</f>
         <v>[22级]收集草药</v>
       </c>
       <c r="C26">
@@ -3094,63 +3033,63 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I26">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="J26">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
         <v>1007</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L26" t="s">
         <v>59</v>
       </c>
-      <c r="N26">
+      <c r="M26">
         <v>1007</v>
       </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>59</v>
       </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
       <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26">
         <v>103</v>
       </c>
-      <c r="R26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="S26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="T26" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="T26" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W26" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P26&amp;");"</f>
+      <c r="V26" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O26&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1025</v>
       </c>
       <c r="B27" t="str">
-        <f>"["&amp;I27&amp;"级]专业采药"</f>
+        <f>"["&amp;H27&amp;"级]专业采药"</f>
         <v>[23级]专业采药</v>
       </c>
       <c r="C27">
@@ -3160,63 +3099,63 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I27">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="J27">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
         <v>1007</v>
       </c>
-      <c r="M27" t="s">
+      <c r="L27" t="s">
         <v>59</v>
       </c>
-      <c r="N27">
+      <c r="M27">
         <v>1007</v>
       </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>59</v>
       </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
       <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
         <v>103</v>
       </c>
-      <c r="R27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="S27" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="T27" s="9" t="s">
         <v>136</v>
       </c>
+      <c r="T27" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V27" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W27" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P27&amp;");"</f>
+      <c r="V27" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O27&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1026</v>
       </c>
       <c r="B28" t="str">
-        <f>"["&amp;I28&amp;"级]水镜统帅"</f>
+        <f>"["&amp;H28&amp;"级]水镜统帅"</f>
         <v>[24级]水镜统帅</v>
       </c>
       <c r="C28">
@@ -3226,57 +3165,57 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I28">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="J28">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
         <v>1007</v>
       </c>
-      <c r="M28" t="s">
+      <c r="L28" t="s">
         <v>59</v>
       </c>
-      <c r="N28">
+      <c r="M28">
         <v>1008</v>
       </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>61</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
       <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
         <v>247</v>
       </c>
-      <c r="R28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="S28" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="T28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7" t="s">
+      <c r="T28" s="7"/>
+      <c r="U28" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1027</v>
       </c>
       <c r="B29" t="str">
-        <f>"["&amp;I29&amp;"级]敌众我寡"</f>
+        <f>"["&amp;H29&amp;"级]敌众我寡"</f>
         <v>[25级]敌众我寡</v>
       </c>
       <c r="C29">
@@ -3286,63 +3225,63 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="J29">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
         <v>1008</v>
       </c>
-      <c r="M29" t="s">
+      <c r="L29" t="s">
         <v>61</v>
       </c>
-      <c r="N29">
+      <c r="M29">
         <v>1008</v>
       </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>61</v>
       </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
       <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
         <v>148</v>
       </c>
-      <c r="R29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="S29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="T29" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="T29" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="W29" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P29&amp;");"</f>
+      <c r="V29" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O29&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1028</v>
       </c>
       <c r="B30" t="str">
-        <f>"["&amp;I30&amp;"级]强化"</f>
+        <f>"["&amp;H30&amp;"级]强化"</f>
         <v>[26级]强化</v>
       </c>
       <c r="C30">
@@ -3352,57 +3291,57 @@
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I30">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="J30">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
         <v>1008</v>
       </c>
-      <c r="M30" t="s">
+      <c r="L30" t="s">
         <v>61</v>
       </c>
-      <c r="N30">
+      <c r="M30">
         <v>1008</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>61</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
         <v>148</v>
       </c>
-      <c r="R30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="S30" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7" t="s">
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1029</v>
       </c>
       <c r="B31" t="str">
-        <f>"["&amp;I31&amp;"级]无尽的追兵"</f>
+        <f>"["&amp;H31&amp;"级]无尽的追兵"</f>
         <v>[27级]无尽的追兵</v>
       </c>
       <c r="C31">
@@ -3412,63 +3351,63 @@
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I31">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="J31">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
         <v>1008</v>
       </c>
-      <c r="M31" t="s">
+      <c r="L31" t="s">
         <v>61</v>
       </c>
-      <c r="N31">
+      <c r="M31">
         <v>1008</v>
       </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
         <v>61</v>
       </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
       <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
         <v>355</v>
       </c>
-      <c r="R31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="S31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="T31" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="T31" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="U31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V31" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="W31" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P31&amp;");"</f>
+      <c r="V31" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O31&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1030</v>
       </c>
       <c r="B32" t="str">
-        <f>"["&amp;I32&amp;"级]衣冠冢决战"</f>
+        <f>"["&amp;H32&amp;"级]衣冠冢决战"</f>
         <v>[28级]衣冠冢决战</v>
       </c>
       <c r="C32">
@@ -3478,63 +3417,63 @@
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I32">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="J32">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
         <v>1008</v>
       </c>
-      <c r="M32" t="s">
+      <c r="L32" t="s">
         <v>61</v>
       </c>
-      <c r="N32">
+      <c r="M32">
         <v>1008</v>
       </c>
-      <c r="O32" t="s">
+      <c r="N32" t="s">
         <v>61</v>
       </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
       <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="Q32">
         <v>148</v>
       </c>
-      <c r="R32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="S32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="T32" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="T32" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="U32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="W32" t="str">
-        <f>"AddEventKillNpc(base, 10000, "&amp;P32&amp;");"</f>
+      <c r="V32" t="str">
+        <f>"AddEventKillNpc(base, 10000, "&amp;O32&amp;");"</f>
         <v>AddEventKillNpc(base, 10000, 2);</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1031</v>
       </c>
       <c r="B33" t="str">
-        <f>"["&amp;I33&amp;"级]继承"</f>
+        <f>"["&amp;H33&amp;"级]继承"</f>
         <v>[29级]继承</v>
       </c>
       <c r="C33">
@@ -3544,57 +3483,57 @@
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I33">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="J33">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
         <v>1008</v>
       </c>
-      <c r="M33" t="s">
+      <c r="L33" t="s">
         <v>61</v>
       </c>
-      <c r="N33">
+      <c r="M33">
         <v>1008</v>
       </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s">
         <v>61</v>
       </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
       <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
         <v>355</v>
       </c>
-      <c r="R33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="S33" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="T33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
+      <c r="T33" s="7"/>
+      <c r="U33" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>10001</v>
       </c>
       <c r="B34" s="12" t="str">
-        <f>I34&amp;"级副本"</f>
+        <f>H34&amp;"级副本"</f>
         <v>1级副本</v>
       </c>
       <c r="C34" s="12"/>
@@ -3602,7 +3541,9 @@
         <v>99</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
       <c r="G34" s="12">
         <v>1</v>
       </c>
@@ -3610,14 +3551,12 @@
         <v>1</v>
       </c>
       <c r="I34" s="12">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="J34" s="12">
-        <v>200</v>
-      </c>
-      <c r="K34" s="12">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -3629,14 +3568,13 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>10002</v>
       </c>
       <c r="B35" s="12" t="str">
-        <f t="shared" ref="B35:B47" si="2">I35&amp;"级副本"</f>
+        <f t="shared" ref="B35:B47" si="2">H35&amp;"级副本"</f>
         <v>2级副本</v>
       </c>
       <c r="C35" s="12">
@@ -3647,22 +3585,22 @@
         <v>99</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
       <c r="G35" s="12">
         <v>0</v>
       </c>
       <c r="H35" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="12">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="J35" s="12">
-        <v>200</v>
-      </c>
-      <c r="K35" s="12">
         <v>5</v>
       </c>
+      <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3674,9 +3612,8 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>10003</v>
       </c>
@@ -3692,22 +3629,22 @@
         <v>99</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
       <c r="G36" s="12">
         <v>0</v>
       </c>
       <c r="H36" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="12">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J36" s="12">
-        <v>200</v>
-      </c>
-      <c r="K36" s="12">
         <v>5</v>
       </c>
+      <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -3719,9 +3656,8 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>10004</v>
       </c>
@@ -3737,22 +3673,22 @@
         <v>99</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
       <c r="G37" s="12">
         <v>0</v>
       </c>
       <c r="H37" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" s="12">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J37" s="12">
-        <v>200</v>
-      </c>
-      <c r="K37" s="12">
         <v>5</v>
       </c>
+      <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3764,9 +3700,8 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>10005</v>
       </c>
@@ -3782,22 +3717,22 @@
         <v>99</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
       <c r="G38" s="12">
         <v>0</v>
       </c>
       <c r="H38" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I38" s="12">
+        <v>200</v>
+      </c>
+      <c r="J38" s="12">
         <v>5</v>
       </c>
-      <c r="J38" s="12">
-        <v>200</v>
-      </c>
-      <c r="K38" s="12">
-        <v>5</v>
-      </c>
+      <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3809,9 +3744,8 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>10006</v>
       </c>
@@ -3827,22 +3761,22 @@
         <v>99</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
       <c r="G39" s="12">
         <v>0</v>
       </c>
       <c r="H39" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I39" s="12">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="J39" s="12">
-        <v>200</v>
-      </c>
-      <c r="K39" s="12">
         <v>5</v>
       </c>
+      <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3854,9 +3788,8 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
         <v>10007</v>
       </c>
@@ -3872,22 +3805,22 @@
         <v>99</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
       <c r="G40" s="12">
         <v>0</v>
       </c>
       <c r="H40" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I40" s="12">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="J40" s="12">
-        <v>200</v>
-      </c>
-      <c r="K40" s="12">
         <v>5</v>
       </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3899,9 +3832,8 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
         <v>10008</v>
       </c>
@@ -3917,22 +3849,22 @@
         <v>99</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
       <c r="G41" s="12">
         <v>0</v>
       </c>
       <c r="H41" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I41" s="12">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J41" s="12">
-        <v>200</v>
-      </c>
-      <c r="K41" s="12">
         <v>5</v>
       </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3944,9 +3876,8 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
         <v>10009</v>
       </c>
@@ -3962,22 +3893,22 @@
         <v>99</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
       <c r="G42" s="12">
         <v>0</v>
       </c>
       <c r="H42" s="12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I42" s="12">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="J42" s="12">
-        <v>200</v>
-      </c>
-      <c r="K42" s="12">
         <v>5</v>
       </c>
+      <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -3989,9 +3920,8 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
         <v>10010</v>
       </c>
@@ -4007,22 +3937,22 @@
         <v>99</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
       <c r="G43" s="12">
         <v>0</v>
       </c>
       <c r="H43" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I43" s="12">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J43" s="12">
-        <v>200</v>
-      </c>
-      <c r="K43" s="12">
         <v>5</v>
       </c>
+      <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -4034,9 +3964,8 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
         <v>10011</v>
       </c>
@@ -4052,22 +3981,22 @@
         <v>99</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
       <c r="G44" s="12">
         <v>0</v>
       </c>
       <c r="H44" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I44" s="12">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="J44" s="12">
-        <v>200</v>
-      </c>
-      <c r="K44" s="12">
         <v>5</v>
       </c>
+      <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -4079,9 +4008,8 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
         <v>10012</v>
       </c>
@@ -4097,22 +4025,22 @@
         <v>99</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
       <c r="G45" s="12">
         <v>0</v>
       </c>
       <c r="H45" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I45" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J45" s="12">
-        <v>200</v>
-      </c>
-      <c r="K45" s="12">
         <v>5</v>
       </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -4124,9 +4052,8 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
         <v>10013</v>
       </c>
@@ -4142,22 +4069,22 @@
         <v>99</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
       <c r="G46" s="12">
         <v>0</v>
       </c>
       <c r="H46" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I46" s="12">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="J46" s="12">
-        <v>200</v>
-      </c>
-      <c r="K46" s="12">
         <v>5</v>
       </c>
+      <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -4169,9 +4096,8 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="12">
         <v>10014</v>
       </c>
@@ -4187,22 +4113,22 @@
         <v>99</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
       <c r="G47" s="12">
         <v>0</v>
       </c>
       <c r="H47" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I47" s="12">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="J47" s="12">
-        <v>200</v>
-      </c>
-      <c r="K47" s="12">
         <v>5</v>
       </c>
+      <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -4214,7 +4140,6 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4267,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="4365" windowWidth="14805" windowHeight="7440"/>
+    <workbookView xWindow="8085" yWindow="4395" windowWidth="14805" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10003</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>10004</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10005</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>10007</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>10008</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>10009</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>10010</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>10011</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>10012</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>10013</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>10014</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2457,9 +2457,6 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
@@ -2526,9 +2523,6 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -2589,9 +2583,6 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
       <c r="F19">
         <v>1</v>
       </c>
@@ -2657,9 +2648,6 @@
       </c>
       <c r="D20">
         <v>1</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="8085" yWindow="4395" windowWidth="14805" windowHeight="7410"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -937,6 +937,10 @@
 3=家族
 99=副本内容
 0=其他功能，用任务id实现需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1084,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1122,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,7 +1161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,11 +1370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17:E20"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K226" sqref="K226:L272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1418,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>13</v>
@@ -3521,8 +3525,8 @@
         <v>10001</v>
       </c>
       <c r="B34" s="12" t="str">
-        <f>H34&amp;"级副本"</f>
-        <v>1级副本</v>
+        <f>H34&amp;"级副本"&amp;L34&amp;"号"</f>
+        <v>1级副本1号</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12">
@@ -3542,14 +3546,20 @@
         <v>200</v>
       </c>
       <c r="J34" s="12">
-        <v>1</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="12">
+        <v>1</v>
+      </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
+      <c r="P34" s="12">
+        <v>48</v>
+      </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
@@ -3562,8 +3572,8 @@
         <v>10002</v>
       </c>
       <c r="B35" s="12" t="str">
-        <f t="shared" ref="B35:B47" si="2">H35&amp;"级副本"</f>
-        <v>2级副本</v>
+        <f t="shared" ref="B35:B98" si="2">H35&amp;"级副本"&amp;L35&amp;"号"</f>
+        <v>2级副本2号</v>
       </c>
       <c r="C35" s="12">
         <f>A34</f>
@@ -3588,12 +3598,18 @@
       <c r="J35" s="12">
         <v>5</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="K35" s="12">
+        <v>1</v>
+      </c>
+      <c r="L35" s="12">
+        <v>2</v>
+      </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
+      <c r="P35" s="12">
+        <v>50</v>
+      </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
@@ -3607,7 +3623,7 @@
       </c>
       <c r="B36" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>3级副本</v>
+        <v>3级副本3号</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" ref="C36:C47" si="3">A35</f>
@@ -3632,12 +3648,18 @@
       <c r="J36" s="12">
         <v>5</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12">
+        <v>3</v>
+      </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
+      <c r="P36" s="12">
+        <v>60</v>
+      </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
@@ -3651,7 +3673,7 @@
       </c>
       <c r="B37" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>4级副本</v>
+        <v>4级副本4号</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="3"/>
@@ -3676,12 +3698,18 @@
       <c r="J37" s="12">
         <v>5</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="K37" s="12">
+        <v>1</v>
+      </c>
+      <c r="L37" s="12">
+        <v>4</v>
+      </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
+      <c r="P37" s="12">
+        <v>71</v>
+      </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
@@ -3695,7 +3723,7 @@
       </c>
       <c r="B38" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>5级副本</v>
+        <v>5级副本5号</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="3"/>
@@ -3720,12 +3748,18 @@
       <c r="J38" s="12">
         <v>5</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="12">
+        <v>1</v>
+      </c>
+      <c r="L38" s="12">
+        <v>5</v>
+      </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="P38" s="12">
+        <v>85</v>
+      </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
@@ -3739,7 +3773,7 @@
       </c>
       <c r="B39" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>6级副本</v>
+        <v>6级副本6号</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="3"/>
@@ -3764,12 +3798,18 @@
       <c r="J39" s="12">
         <v>5</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="K39" s="12">
+        <v>1</v>
+      </c>
+      <c r="L39" s="12">
+        <v>6</v>
+      </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="P39" s="12">
+        <v>34</v>
+      </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
@@ -3783,7 +3823,7 @@
       </c>
       <c r="B40" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>7级副本</v>
+        <v>7级副本1号</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="3"/>
@@ -3808,12 +3848,18 @@
       <c r="J40" s="12">
         <v>5</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="12">
+        <v>2</v>
+      </c>
+      <c r="L40" s="12">
+        <v>1</v>
+      </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="P40" s="12">
+        <v>119</v>
+      </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
@@ -3827,7 +3873,7 @@
       </c>
       <c r="B41" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>8级副本</v>
+        <v>7级副本2号</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" si="3"/>
@@ -3844,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I41" s="12">
         <v>200</v>
@@ -3852,12 +3898,18 @@
       <c r="J41" s="12">
         <v>5</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="K41" s="12">
+        <v>2</v>
+      </c>
+      <c r="L41" s="12">
+        <v>2</v>
+      </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="P41" s="12">
+        <v>119</v>
+      </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
@@ -3871,7 +3923,7 @@
       </c>
       <c r="B42" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>9级副本</v>
+        <v>7级副本3号</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="3"/>
@@ -3888,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42" s="12">
         <v>200</v>
@@ -3896,12 +3948,18 @@
       <c r="J42" s="12">
         <v>5</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
+      <c r="K42" s="12">
+        <v>2</v>
+      </c>
+      <c r="L42" s="12">
+        <v>3</v>
+      </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
+      <c r="P42" s="12">
+        <v>119</v>
+      </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
@@ -3915,7 +3973,7 @@
       </c>
       <c r="B43" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>10级副本</v>
+        <v>7级副本4号</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="3"/>
@@ -3932,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I43" s="12">
         <v>200</v>
@@ -3940,12 +3998,18 @@
       <c r="J43" s="12">
         <v>5</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="K43" s="12">
+        <v>2</v>
+      </c>
+      <c r="L43" s="12">
+        <v>4</v>
+      </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="P43" s="12">
+        <v>60</v>
+      </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
@@ -3959,7 +4023,7 @@
       </c>
       <c r="B44" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>11级副本</v>
+        <v>7级副本5号</v>
       </c>
       <c r="C44" s="12">
         <f t="shared" si="3"/>
@@ -3976,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I44" s="12">
         <v>200</v>
@@ -3984,12 +4048,18 @@
       <c r="J44" s="12">
         <v>5</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="12">
+        <v>2</v>
+      </c>
+      <c r="L44" s="12">
+        <v>5</v>
+      </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
+      <c r="P44" s="12">
+        <v>60</v>
+      </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
@@ -4003,7 +4073,7 @@
       </c>
       <c r="B45" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>12级副本</v>
+        <v>7级副本6号</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="3"/>
@@ -4020,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I45" s="12">
         <v>200</v>
@@ -4028,12 +4098,18 @@
       <c r="J45" s="12">
         <v>5</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="K45" s="12">
+        <v>2</v>
+      </c>
+      <c r="L45" s="12">
+        <v>6</v>
+      </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
+      <c r="P45" s="12">
+        <v>40</v>
+      </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
@@ -4047,7 +4123,7 @@
       </c>
       <c r="B46" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>13级副本</v>
+        <v>15级副本1号</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="3"/>
@@ -4064,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="12">
         <v>200</v>
@@ -4072,12 +4148,18 @@
       <c r="J46" s="12">
         <v>5</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="K46" s="12">
+        <v>3</v>
+      </c>
+      <c r="L46" s="12">
+        <v>1</v>
+      </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
+      <c r="P46" s="12">
+        <v>424</v>
+      </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
@@ -4091,7 +4173,7 @@
       </c>
       <c r="B47" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>14级副本</v>
+        <v>15级副本2号</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="3"/>
@@ -4108,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" s="12">
         <v>200</v>
@@ -4116,18 +4198,9249 @@
       <c r="J47" s="12">
         <v>5</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="K47" s="12">
+        <v>3</v>
+      </c>
+      <c r="L47" s="12">
+        <v>2</v>
+      </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
+      <c r="P47" s="12">
+        <v>424</v>
+      </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
+        <v>10015</v>
+      </c>
+      <c r="B48" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>15级副本3号</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" ref="C48:C111" si="4">A47</f>
+        <v>10014</v>
+      </c>
+      <c r="D48" s="12">
+        <v>99</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>15</v>
+      </c>
+      <c r="I48" s="12">
+        <v>200</v>
+      </c>
+      <c r="J48" s="12">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="12">
+        <v>10016</v>
+      </c>
+      <c r="B49" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>15级副本4号</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="4"/>
+        <v>10015</v>
+      </c>
+      <c r="D49" s="12">
+        <v>99</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12">
+        <v>15</v>
+      </c>
+      <c r="I49" s="12">
+        <v>200</v>
+      </c>
+      <c r="J49" s="12">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="12">
+        <v>10017</v>
+      </c>
+      <c r="B50" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>15级副本5号</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="4"/>
+        <v>10016</v>
+      </c>
+      <c r="D50" s="12">
+        <v>99</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>15</v>
+      </c>
+      <c r="I50" s="12">
+        <v>200</v>
+      </c>
+      <c r="J50" s="12">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="12">
+        <v>10018</v>
+      </c>
+      <c r="B51" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>15级副本6号</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="4"/>
+        <v>10017</v>
+      </c>
+      <c r="D51" s="12">
+        <v>99</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>15</v>
+      </c>
+      <c r="I51" s="12">
+        <v>200</v>
+      </c>
+      <c r="J51" s="12">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="P51">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="12">
+        <v>10019</v>
+      </c>
+      <c r="B52" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20级副本1号</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+      <c r="D52" s="12">
+        <v>99</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>20</v>
+      </c>
+      <c r="I52" s="12">
+        <v>200</v>
+      </c>
+      <c r="J52" s="12">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53" s="12">
+        <v>10020</v>
+      </c>
+      <c r="B53" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20级副本2号</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="4"/>
+        <v>10019</v>
+      </c>
+      <c r="D53" s="12">
+        <v>99</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>20</v>
+      </c>
+      <c r="I53" s="12">
+        <v>200</v>
+      </c>
+      <c r="J53" s="12">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
+        <v>10021</v>
+      </c>
+      <c r="B54" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20级副本3号</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="4"/>
+        <v>10020</v>
+      </c>
+      <c r="D54" s="12">
+        <v>99</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>20</v>
+      </c>
+      <c r="I54" s="12">
+        <v>200</v>
+      </c>
+      <c r="J54" s="12">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55" s="12">
+        <v>10022</v>
+      </c>
+      <c r="B55" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20级副本4号</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="4"/>
+        <v>10021</v>
+      </c>
+      <c r="D55" s="12">
+        <v>99</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>20</v>
+      </c>
+      <c r="I55" s="12">
+        <v>200</v>
+      </c>
+      <c r="J55" s="12">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" s="12">
+        <v>10023</v>
+      </c>
+      <c r="B56" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20级副本5号</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="4"/>
+        <v>10022</v>
+      </c>
+      <c r="D56" s="12">
+        <v>99</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <v>20</v>
+      </c>
+      <c r="I56" s="12">
+        <v>200</v>
+      </c>
+      <c r="J56" s="12">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A57" s="12">
+        <v>10024</v>
+      </c>
+      <c r="B57" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20级副本6号</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="4"/>
+        <v>10023</v>
+      </c>
+      <c r="D57" s="12">
+        <v>99</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
+        <v>20</v>
+      </c>
+      <c r="I57" s="12">
+        <v>200</v>
+      </c>
+      <c r="J57" s="12">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="P57">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A58" s="12">
+        <v>10025</v>
+      </c>
+      <c r="B58" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>25级副本1号</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="4"/>
+        <v>10024</v>
+      </c>
+      <c r="D58" s="12">
+        <v>99</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>25</v>
+      </c>
+      <c r="I58" s="12">
+        <v>200</v>
+      </c>
+      <c r="J58" s="12">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A59" s="12">
+        <v>10026</v>
+      </c>
+      <c r="B59" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>25级副本2号</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="4"/>
+        <v>10025</v>
+      </c>
+      <c r="D59" s="12">
+        <v>99</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12">
+        <v>25</v>
+      </c>
+      <c r="I59" s="12">
+        <v>200</v>
+      </c>
+      <c r="J59" s="12">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A60" s="12">
+        <v>10027</v>
+      </c>
+      <c r="B60" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>25级副本3号</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" si="4"/>
+        <v>10026</v>
+      </c>
+      <c r="D60" s="12">
+        <v>99</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12">
+        <v>25</v>
+      </c>
+      <c r="I60" s="12">
+        <v>200</v>
+      </c>
+      <c r="J60" s="12">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61" s="12">
+        <v>10028</v>
+      </c>
+      <c r="B61" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>25级副本4号</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="4"/>
+        <v>10027</v>
+      </c>
+      <c r="D61" s="12">
+        <v>99</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12">
+        <v>25</v>
+      </c>
+      <c r="I61" s="12">
+        <v>200</v>
+      </c>
+      <c r="J61" s="12">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62" s="12">
+        <v>10029</v>
+      </c>
+      <c r="B62" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>25级副本5号</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="4"/>
+        <v>10028</v>
+      </c>
+      <c r="D62" s="12">
+        <v>99</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12">
+        <v>25</v>
+      </c>
+      <c r="I62" s="12">
+        <v>200</v>
+      </c>
+      <c r="J62" s="12">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A63" s="12">
+        <v>10030</v>
+      </c>
+      <c r="B63" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>25级副本6号</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="4"/>
+        <v>10029</v>
+      </c>
+      <c r="D63" s="12">
+        <v>99</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>25</v>
+      </c>
+      <c r="I63" s="12">
+        <v>200</v>
+      </c>
+      <c r="J63" s="12">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A64" s="12">
+        <v>10031</v>
+      </c>
+      <c r="B64" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>30级副本1号</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="4"/>
+        <v>10030</v>
+      </c>
+      <c r="D64" s="12">
+        <v>99</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12">
+        <v>30</v>
+      </c>
+      <c r="I64" s="12">
+        <v>200</v>
+      </c>
+      <c r="J64" s="12">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65" s="12">
+        <v>10032</v>
+      </c>
+      <c r="B65" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>30级副本2号</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="4"/>
+        <v>10031</v>
+      </c>
+      <c r="D65" s="12">
+        <v>99</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12">
+        <v>30</v>
+      </c>
+      <c r="I65" s="12">
+        <v>200</v>
+      </c>
+      <c r="J65" s="12">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="12">
+        <v>10033</v>
+      </c>
+      <c r="B66" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>30级副本3号</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="4"/>
+        <v>10032</v>
+      </c>
+      <c r="D66" s="12">
+        <v>99</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12">
+        <v>30</v>
+      </c>
+      <c r="I66" s="12">
+        <v>200</v>
+      </c>
+      <c r="J66" s="12">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="12">
+        <v>10034</v>
+      </c>
+      <c r="B67" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>30级副本4号</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="4"/>
+        <v>10033</v>
+      </c>
+      <c r="D67" s="12">
+        <v>99</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12">
+        <v>30</v>
+      </c>
+      <c r="I67" s="12">
+        <v>200</v>
+      </c>
+      <c r="J67" s="12">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="12">
+        <v>10035</v>
+      </c>
+      <c r="B68" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>30级副本5号</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="4"/>
+        <v>10034</v>
+      </c>
+      <c r="D68" s="12">
+        <v>99</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0</v>
+      </c>
+      <c r="H68" s="12">
+        <v>30</v>
+      </c>
+      <c r="I68" s="12">
+        <v>200</v>
+      </c>
+      <c r="J68" s="12">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="12">
+        <v>10036</v>
+      </c>
+      <c r="B69" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>30级副本6号</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="4"/>
+        <v>10035</v>
+      </c>
+      <c r="D69" s="12">
+        <v>99</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12">
+        <v>30</v>
+      </c>
+      <c r="I69" s="12">
+        <v>200</v>
+      </c>
+      <c r="J69" s="12">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="P69">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="12">
+        <v>10037</v>
+      </c>
+      <c r="B70" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>35级副本1号</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="4"/>
+        <v>10036</v>
+      </c>
+      <c r="D70" s="12">
+        <v>99</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12">
+        <v>35</v>
+      </c>
+      <c r="I70" s="12">
+        <v>200</v>
+      </c>
+      <c r="J70" s="12">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="12">
+        <v>10038</v>
+      </c>
+      <c r="B71" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>35级副本2号</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="4"/>
+        <v>10037</v>
+      </c>
+      <c r="D71" s="12">
+        <v>99</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
+      <c r="H71" s="12">
+        <v>35</v>
+      </c>
+      <c r="I71" s="12">
+        <v>200</v>
+      </c>
+      <c r="J71" s="12">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="P71">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="12">
+        <v>10039</v>
+      </c>
+      <c r="B72" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>35级副本3号</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="4"/>
+        <v>10038</v>
+      </c>
+      <c r="D72" s="12">
+        <v>99</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12">
+        <v>35</v>
+      </c>
+      <c r="I72" s="12">
+        <v>200</v>
+      </c>
+      <c r="J72" s="12">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>7</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A73" s="12">
+        <v>10040</v>
+      </c>
+      <c r="B73" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>35级副本4号</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="4"/>
+        <v>10039</v>
+      </c>
+      <c r="D73" s="12">
+        <v>99</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12">
+        <v>35</v>
+      </c>
+      <c r="I73" s="12">
+        <v>200</v>
+      </c>
+      <c r="J73" s="12">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>7</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A74" s="12">
+        <v>10041</v>
+      </c>
+      <c r="B74" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>35级副本5号</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="4"/>
+        <v>10040</v>
+      </c>
+      <c r="D74" s="12">
+        <v>99</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>35</v>
+      </c>
+      <c r="I74" s="12">
+        <v>200</v>
+      </c>
+      <c r="J74" s="12">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>7</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A75" s="12">
+        <v>10042</v>
+      </c>
+      <c r="B75" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>35级副本6号</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="4"/>
+        <v>10041</v>
+      </c>
+      <c r="D75" s="12">
+        <v>99</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12">
+        <v>35</v>
+      </c>
+      <c r="I75" s="12">
+        <v>200</v>
+      </c>
+      <c r="J75" s="12">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="P75">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A76" s="12">
+        <v>10043</v>
+      </c>
+      <c r="B76" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>40级副本1号</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="4"/>
+        <v>10042</v>
+      </c>
+      <c r="D76" s="12">
+        <v>99</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+      <c r="H76" s="12">
+        <v>40</v>
+      </c>
+      <c r="I76" s="12">
+        <v>200</v>
+      </c>
+      <c r="J76" s="12">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>8</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A77" s="12">
+        <v>10044</v>
+      </c>
+      <c r="B77" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>40级副本2号</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="4"/>
+        <v>10043</v>
+      </c>
+      <c r="D77" s="12">
+        <v>99</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="12">
+        <v>40</v>
+      </c>
+      <c r="I77" s="12">
+        <v>200</v>
+      </c>
+      <c r="J77" s="12">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>8</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A78" s="12">
+        <v>10045</v>
+      </c>
+      <c r="B78" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>40级副本3号</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="4"/>
+        <v>10044</v>
+      </c>
+      <c r="D78" s="12">
+        <v>99</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0</v>
+      </c>
+      <c r="H78" s="12">
+        <v>40</v>
+      </c>
+      <c r="I78" s="12">
+        <v>200</v>
+      </c>
+      <c r="J78" s="12">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>8</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A79" s="12">
+        <v>10046</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>40级副本4号</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="4"/>
+        <v>10045</v>
+      </c>
+      <c r="D79" s="12">
+        <v>99</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+      <c r="H79" s="12">
+        <v>40</v>
+      </c>
+      <c r="I79" s="12">
+        <v>200</v>
+      </c>
+      <c r="J79" s="12">
+        <v>5</v>
+      </c>
+      <c r="K79">
+        <v>8</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="P79">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A80" s="12">
+        <v>10047</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>40级副本5号</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="4"/>
+        <v>10046</v>
+      </c>
+      <c r="D80" s="12">
+        <v>99</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0</v>
+      </c>
+      <c r="H80" s="12">
+        <v>40</v>
+      </c>
+      <c r="I80" s="12">
+        <v>200</v>
+      </c>
+      <c r="J80" s="12">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>8</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A81" s="12">
+        <v>10048</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>40级副本6号</v>
+      </c>
+      <c r="C81" s="12">
+        <f t="shared" si="4"/>
+        <v>10047</v>
+      </c>
+      <c r="D81" s="12">
+        <v>99</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12">
+        <v>40</v>
+      </c>
+      <c r="I81" s="12">
+        <v>200</v>
+      </c>
+      <c r="J81" s="12">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81">
+        <v>6</v>
+      </c>
+      <c r="P81">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A82" s="12">
+        <v>10049</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>45级副本1号</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="4"/>
+        <v>10048</v>
+      </c>
+      <c r="D82" s="12">
+        <v>99</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12">
+        <v>45</v>
+      </c>
+      <c r="I82" s="12">
+        <v>200</v>
+      </c>
+      <c r="J82" s="12">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>8038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A83" s="12">
+        <v>10050</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>45级副本2号</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" si="4"/>
+        <v>10049</v>
+      </c>
+      <c r="D83" s="12">
+        <v>99</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12">
+        <v>45</v>
+      </c>
+      <c r="I83" s="12">
+        <v>200</v>
+      </c>
+      <c r="J83" s="12">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>9</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="P83">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A84" s="12">
+        <v>10051</v>
+      </c>
+      <c r="B84" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>45级副本3号</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="4"/>
+        <v>10050</v>
+      </c>
+      <c r="D84" s="12">
+        <v>99</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12">
+        <v>45</v>
+      </c>
+      <c r="I84" s="12">
+        <v>200</v>
+      </c>
+      <c r="J84" s="12">
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A85" s="12">
+        <v>10052</v>
+      </c>
+      <c r="B85" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>45级副本4号</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" si="4"/>
+        <v>10051</v>
+      </c>
+      <c r="D85" s="12">
+        <v>99</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>0</v>
+      </c>
+      <c r="H85" s="12">
+        <v>45</v>
+      </c>
+      <c r="I85" s="12">
+        <v>200</v>
+      </c>
+      <c r="J85" s="12">
+        <v>5</v>
+      </c>
+      <c r="K85">
+        <v>9</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A86" s="12">
+        <v>10053</v>
+      </c>
+      <c r="B86" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>45级副本5号</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" si="4"/>
+        <v>10052</v>
+      </c>
+      <c r="D86" s="12">
+        <v>99</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <v>0</v>
+      </c>
+      <c r="H86" s="12">
+        <v>45</v>
+      </c>
+      <c r="I86" s="12">
+        <v>200</v>
+      </c>
+      <c r="J86" s="12">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>9</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="P86">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A87" s="12">
+        <v>10054</v>
+      </c>
+      <c r="B87" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>45级副本6号</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" si="4"/>
+        <v>10053</v>
+      </c>
+      <c r="D87" s="12">
+        <v>99</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
+        <v>0</v>
+      </c>
+      <c r="H87" s="12">
+        <v>45</v>
+      </c>
+      <c r="I87" s="12">
+        <v>200</v>
+      </c>
+      <c r="J87" s="12">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>9</v>
+      </c>
+      <c r="L87">
+        <v>6</v>
+      </c>
+      <c r="P87">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A88" s="12">
+        <v>10055</v>
+      </c>
+      <c r="B88" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>50级副本1号</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" si="4"/>
+        <v>10054</v>
+      </c>
+      <c r="D88" s="12">
+        <v>99</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12">
+        <v>50</v>
+      </c>
+      <c r="I88" s="12">
+        <v>200</v>
+      </c>
+      <c r="J88" s="12">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>10</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>12741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A89" s="12">
+        <v>10056</v>
+      </c>
+      <c r="B89" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>50级副本2号</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="4"/>
+        <v>10055</v>
+      </c>
+      <c r="D89" s="12">
+        <v>99</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12">
+        <v>50</v>
+      </c>
+      <c r="I89" s="12">
+        <v>200</v>
+      </c>
+      <c r="J89" s="12">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>10</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="P89">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A90" s="12">
+        <v>10057</v>
+      </c>
+      <c r="B90" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>50级副本3号</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="4"/>
+        <v>10056</v>
+      </c>
+      <c r="D90" s="12">
+        <v>99</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
+      <c r="H90" s="12">
+        <v>50</v>
+      </c>
+      <c r="I90" s="12">
+        <v>200</v>
+      </c>
+      <c r="J90" s="12">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>10</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A91" s="12">
+        <v>10058</v>
+      </c>
+      <c r="B91" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>50级副本4号</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" si="4"/>
+        <v>10057</v>
+      </c>
+      <c r="D91" s="12">
+        <v>99</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
+        <v>0</v>
+      </c>
+      <c r="H91" s="12">
+        <v>50</v>
+      </c>
+      <c r="I91" s="12">
+        <v>200</v>
+      </c>
+      <c r="J91" s="12">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>10</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="P91">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A92" s="12">
+        <v>10059</v>
+      </c>
+      <c r="B92" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>50级副本5号</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" si="4"/>
+        <v>10058</v>
+      </c>
+      <c r="D92" s="12">
+        <v>99</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12">
+        <v>0</v>
+      </c>
+      <c r="H92" s="12">
+        <v>50</v>
+      </c>
+      <c r="I92" s="12">
+        <v>200</v>
+      </c>
+      <c r="J92" s="12">
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="P92">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A93" s="12">
+        <v>10060</v>
+      </c>
+      <c r="B93" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>50级副本6号</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="4"/>
+        <v>10059</v>
+      </c>
+      <c r="D93" s="12">
+        <v>99</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
+        <v>0</v>
+      </c>
+      <c r="H93" s="12">
+        <v>50</v>
+      </c>
+      <c r="I93" s="12">
+        <v>200</v>
+      </c>
+      <c r="J93" s="12">
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>10</v>
+      </c>
+      <c r="L93">
+        <v>6</v>
+      </c>
+      <c r="P93">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A94" s="12">
+        <v>10061</v>
+      </c>
+      <c r="B94" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>55级副本1号</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" si="4"/>
+        <v>10060</v>
+      </c>
+      <c r="D94" s="12">
+        <v>99</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0</v>
+      </c>
+      <c r="H94" s="12">
+        <v>55</v>
+      </c>
+      <c r="I94" s="12">
+        <v>200</v>
+      </c>
+      <c r="J94" s="12">
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>19520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A95" s="12">
+        <v>10062</v>
+      </c>
+      <c r="B95" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>55级副本2号</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" si="4"/>
+        <v>10061</v>
+      </c>
+      <c r="D95" s="12">
+        <v>99</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0</v>
+      </c>
+      <c r="H95" s="12">
+        <v>55</v>
+      </c>
+      <c r="I95" s="12">
+        <v>200</v>
+      </c>
+      <c r="J95" s="12">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>13013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A96" s="12">
+        <v>10063</v>
+      </c>
+      <c r="B96" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>55级副本3号</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" si="4"/>
+        <v>10062</v>
+      </c>
+      <c r="D96" s="12">
+        <v>99</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0</v>
+      </c>
+      <c r="H96" s="12">
+        <v>55</v>
+      </c>
+      <c r="I96" s="12">
+        <v>200</v>
+      </c>
+      <c r="J96" s="12">
+        <v>5</v>
+      </c>
+      <c r="K96">
+        <v>11</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>13013</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A97" s="12">
+        <v>10064</v>
+      </c>
+      <c r="B97" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>55级副本4号</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="4"/>
+        <v>10063</v>
+      </c>
+      <c r="D97" s="12">
+        <v>99</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="12">
+        <v>55</v>
+      </c>
+      <c r="I97" s="12">
+        <v>200</v>
+      </c>
+      <c r="J97" s="12">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>11</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>13013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A98" s="12">
+        <v>10065</v>
+      </c>
+      <c r="B98" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>55级副本5号</v>
+      </c>
+      <c r="C98" s="12">
+        <f t="shared" si="4"/>
+        <v>10064</v>
+      </c>
+      <c r="D98" s="12">
+        <v>99</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0</v>
+      </c>
+      <c r="H98" s="12">
+        <v>55</v>
+      </c>
+      <c r="I98" s="12">
+        <v>200</v>
+      </c>
+      <c r="J98" s="12">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <v>11</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <v>13013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A99" s="12">
+        <v>10066</v>
+      </c>
+      <c r="B99" s="12" t="str">
+        <f t="shared" ref="B99:B162" si="5">H99&amp;"级副本"&amp;L99&amp;"号"</f>
+        <v>55级副本6号</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" si="4"/>
+        <v>10065</v>
+      </c>
+      <c r="D99" s="12">
+        <v>99</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+      <c r="H99" s="12">
+        <v>55</v>
+      </c>
+      <c r="I99" s="12">
+        <v>200</v>
+      </c>
+      <c r="J99" s="12">
+        <v>5</v>
+      </c>
+      <c r="K99">
+        <v>11</v>
+      </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
+      <c r="P99">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A100" s="12">
+        <v>10067</v>
+      </c>
+      <c r="B100" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>60级副本1号</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" si="4"/>
+        <v>10066</v>
+      </c>
+      <c r="D100" s="12">
+        <v>99</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+      <c r="H100" s="12">
+        <v>60</v>
+      </c>
+      <c r="I100" s="12">
+        <v>200</v>
+      </c>
+      <c r="J100" s="12">
+        <v>5</v>
+      </c>
+      <c r="K100">
+        <v>12</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>28973</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A101" s="12">
+        <v>10068</v>
+      </c>
+      <c r="B101" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>60级副本2号</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" si="4"/>
+        <v>10067</v>
+      </c>
+      <c r="D101" s="12">
+        <v>99</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0</v>
+      </c>
+      <c r="H101" s="12">
+        <v>60</v>
+      </c>
+      <c r="I101" s="12">
+        <v>200</v>
+      </c>
+      <c r="J101" s="12">
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <v>12</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>19315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A102" s="12">
+        <v>10069</v>
+      </c>
+      <c r="B102" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>60级副本3号</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="4"/>
+        <v>10068</v>
+      </c>
+      <c r="D102" s="12">
+        <v>99</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0</v>
+      </c>
+      <c r="H102" s="12">
+        <v>60</v>
+      </c>
+      <c r="I102" s="12">
+        <v>200</v>
+      </c>
+      <c r="J102" s="12">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>12</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>19315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A103" s="12">
+        <v>10070</v>
+      </c>
+      <c r="B103" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>60级副本4号</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" si="4"/>
+        <v>10069</v>
+      </c>
+      <c r="D103" s="12">
+        <v>99</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0</v>
+      </c>
+      <c r="H103" s="12">
+        <v>60</v>
+      </c>
+      <c r="I103" s="12">
+        <v>200</v>
+      </c>
+      <c r="J103" s="12">
+        <v>5</v>
+      </c>
+      <c r="K103">
+        <v>12</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>19315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A104" s="12">
+        <v>10071</v>
+      </c>
+      <c r="B104" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>60级副本5号</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" si="4"/>
+        <v>10070</v>
+      </c>
+      <c r="D104" s="12">
+        <v>99</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12">
+        <v>0</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0</v>
+      </c>
+      <c r="H104" s="12">
+        <v>60</v>
+      </c>
+      <c r="I104" s="12">
+        <v>200</v>
+      </c>
+      <c r="J104" s="12">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>12</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="P104">
+        <v>19315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A105" s="12">
+        <v>10072</v>
+      </c>
+      <c r="B105" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>60级副本6号</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" si="4"/>
+        <v>10071</v>
+      </c>
+      <c r="D105" s="12">
+        <v>99</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0</v>
+      </c>
+      <c r="H105" s="12">
+        <v>60</v>
+      </c>
+      <c r="I105" s="12">
+        <v>200</v>
+      </c>
+      <c r="J105" s="12">
+        <v>5</v>
+      </c>
+      <c r="K105">
+        <v>12</v>
+      </c>
+      <c r="L105">
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>11589</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A106" s="12">
+        <v>10073</v>
+      </c>
+      <c r="B106" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>65级副本1号</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" si="4"/>
+        <v>10072</v>
+      </c>
+      <c r="D106" s="12">
+        <v>99</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0</v>
+      </c>
+      <c r="H106" s="12">
+        <v>65</v>
+      </c>
+      <c r="I106" s="12">
+        <v>200</v>
+      </c>
+      <c r="J106" s="12">
+        <v>5</v>
+      </c>
+      <c r="K106">
+        <v>13</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>41757</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A107" s="12">
+        <v>10074</v>
+      </c>
+      <c r="B107" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>65级副本2号</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" si="4"/>
+        <v>10073</v>
+      </c>
+      <c r="D107" s="12">
+        <v>99</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0</v>
+      </c>
+      <c r="H107" s="12">
+        <v>65</v>
+      </c>
+      <c r="I107" s="12">
+        <v>200</v>
+      </c>
+      <c r="J107" s="12">
+        <v>5</v>
+      </c>
+      <c r="K107">
+        <v>13</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>27838</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A108" s="12">
+        <v>10075</v>
+      </c>
+      <c r="B108" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>65级副本3号</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" si="4"/>
+        <v>10074</v>
+      </c>
+      <c r="D108" s="12">
+        <v>99</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12">
+        <v>0</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0</v>
+      </c>
+      <c r="H108" s="12">
+        <v>65</v>
+      </c>
+      <c r="I108" s="12">
+        <v>200</v>
+      </c>
+      <c r="J108" s="12">
+        <v>5</v>
+      </c>
+      <c r="K108">
+        <v>13</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>27838</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A109" s="12">
+        <v>10076</v>
+      </c>
+      <c r="B109" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>65级副本4号</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" si="4"/>
+        <v>10075</v>
+      </c>
+      <c r="D109" s="12">
+        <v>99</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12">
+        <v>0</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0</v>
+      </c>
+      <c r="H109" s="12">
+        <v>65</v>
+      </c>
+      <c r="I109" s="12">
+        <v>200</v>
+      </c>
+      <c r="J109" s="12">
+        <v>5</v>
+      </c>
+      <c r="K109">
+        <v>13</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>27838</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A110" s="12">
+        <v>10077</v>
+      </c>
+      <c r="B110" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>65级副本5号</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" si="4"/>
+        <v>10076</v>
+      </c>
+      <c r="D110" s="12">
+        <v>99</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+      <c r="H110" s="12">
+        <v>65</v>
+      </c>
+      <c r="I110" s="12">
+        <v>200</v>
+      </c>
+      <c r="J110" s="12">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>13</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="P110">
+        <v>27838</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A111" s="12">
+        <v>10078</v>
+      </c>
+      <c r="B111" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>65级副本6号</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" si="4"/>
+        <v>10077</v>
+      </c>
+      <c r="D111" s="12">
+        <v>99</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12">
+        <v>0</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0</v>
+      </c>
+      <c r="H111" s="12">
+        <v>65</v>
+      </c>
+      <c r="I111" s="12">
+        <v>200</v>
+      </c>
+      <c r="J111" s="12">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>13</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="P111">
+        <v>16703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A112" s="12">
+        <v>10079</v>
+      </c>
+      <c r="B112" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>70级副本1号</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" ref="C112:C175" si="6">A111</f>
+        <v>10078</v>
+      </c>
+      <c r="D112" s="12">
+        <v>99</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12">
+        <v>0</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0</v>
+      </c>
+      <c r="H112" s="12">
+        <v>70</v>
+      </c>
+      <c r="I112" s="12">
+        <v>200</v>
+      </c>
+      <c r="J112" s="12">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>14</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>58562</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A113" s="12">
+        <v>10080</v>
+      </c>
+      <c r="B113" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>70级副本2号</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" si="6"/>
+        <v>10079</v>
+      </c>
+      <c r="D113" s="12">
+        <v>99</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12">
+        <v>0</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0</v>
+      </c>
+      <c r="H113" s="12">
+        <v>70</v>
+      </c>
+      <c r="I113" s="12">
+        <v>200</v>
+      </c>
+      <c r="J113" s="12">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>14</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="P113">
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A114" s="12">
+        <v>10081</v>
+      </c>
+      <c r="B114" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>70级副本3号</v>
+      </c>
+      <c r="C114" s="12">
+        <f t="shared" si="6"/>
+        <v>10080</v>
+      </c>
+      <c r="D114" s="12">
+        <v>99</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12">
+        <v>0</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
+      <c r="H114" s="12">
+        <v>70</v>
+      </c>
+      <c r="I114" s="12">
+        <v>200</v>
+      </c>
+      <c r="J114" s="12">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>14</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A115" s="12">
+        <v>10082</v>
+      </c>
+      <c r="B115" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>70级副本4号</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" si="6"/>
+        <v>10081</v>
+      </c>
+      <c r="D115" s="12">
+        <v>99</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12">
+        <v>0</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0</v>
+      </c>
+      <c r="H115" s="12">
+        <v>70</v>
+      </c>
+      <c r="I115" s="12">
+        <v>200</v>
+      </c>
+      <c r="J115" s="12">
+        <v>5</v>
+      </c>
+      <c r="K115">
+        <v>14</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="P115">
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A116" s="12">
+        <v>10083</v>
+      </c>
+      <c r="B116" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>70级副本5号</v>
+      </c>
+      <c r="C116" s="12">
+        <f t="shared" si="6"/>
+        <v>10082</v>
+      </c>
+      <c r="D116" s="12">
+        <v>99</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+      <c r="H116" s="12">
+        <v>70</v>
+      </c>
+      <c r="I116" s="12">
+        <v>200</v>
+      </c>
+      <c r="J116" s="12">
+        <v>5</v>
+      </c>
+      <c r="K116">
+        <v>14</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+      <c r="P116">
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A117" s="12">
+        <v>10084</v>
+      </c>
+      <c r="B117" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>70级副本6号</v>
+      </c>
+      <c r="C117" s="12">
+        <f t="shared" si="6"/>
+        <v>10083</v>
+      </c>
+      <c r="D117" s="12">
+        <v>99</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12">
+        <v>0</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0</v>
+      </c>
+      <c r="H117" s="12">
+        <v>70</v>
+      </c>
+      <c r="I117" s="12">
+        <v>200</v>
+      </c>
+      <c r="J117" s="12">
+        <v>5</v>
+      </c>
+      <c r="K117">
+        <v>14</v>
+      </c>
+      <c r="L117">
+        <v>6</v>
+      </c>
+      <c r="P117">
+        <v>23425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A118" s="12">
+        <v>10085</v>
+      </c>
+      <c r="B118" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>75级副本1号</v>
+      </c>
+      <c r="C118" s="12">
+        <f t="shared" si="6"/>
+        <v>10084</v>
+      </c>
+      <c r="D118" s="12">
+        <v>99</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0</v>
+      </c>
+      <c r="H118" s="12">
+        <v>75</v>
+      </c>
+      <c r="I118" s="12">
+        <v>200</v>
+      </c>
+      <c r="J118" s="12">
+        <v>5</v>
+      </c>
+      <c r="K118">
+        <v>15</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>80076</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A119" s="12">
+        <v>10086</v>
+      </c>
+      <c r="B119" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>75级副本2号</v>
+      </c>
+      <c r="C119" s="12">
+        <f t="shared" si="6"/>
+        <v>10085</v>
+      </c>
+      <c r="D119" s="12">
+        <v>99</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0</v>
+      </c>
+      <c r="H119" s="12">
+        <v>75</v>
+      </c>
+      <c r="I119" s="12">
+        <v>200</v>
+      </c>
+      <c r="J119" s="12">
+        <v>5</v>
+      </c>
+      <c r="K119">
+        <v>15</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="P119">
+        <v>53384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A120" s="12">
+        <v>10087</v>
+      </c>
+      <c r="B120" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>75级副本3号</v>
+      </c>
+      <c r="C120" s="12">
+        <f t="shared" si="6"/>
+        <v>10086</v>
+      </c>
+      <c r="D120" s="12">
+        <v>99</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12">
+        <v>75</v>
+      </c>
+      <c r="I120" s="12">
+        <v>200</v>
+      </c>
+      <c r="J120" s="12">
+        <v>5</v>
+      </c>
+      <c r="K120">
+        <v>15</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>53384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A121" s="12">
+        <v>10088</v>
+      </c>
+      <c r="B121" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>75级副本4号</v>
+      </c>
+      <c r="C121" s="12">
+        <f t="shared" si="6"/>
+        <v>10087</v>
+      </c>
+      <c r="D121" s="12">
+        <v>99</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12">
+        <v>0</v>
+      </c>
+      <c r="G121" s="12">
+        <v>0</v>
+      </c>
+      <c r="H121" s="12">
+        <v>75</v>
+      </c>
+      <c r="I121" s="12">
+        <v>200</v>
+      </c>
+      <c r="J121" s="12">
+        <v>5</v>
+      </c>
+      <c r="K121">
+        <v>15</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="P121">
+        <v>53384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A122" s="12">
+        <v>10089</v>
+      </c>
+      <c r="B122" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>75级副本5号</v>
+      </c>
+      <c r="C122" s="12">
+        <f t="shared" si="6"/>
+        <v>10088</v>
+      </c>
+      <c r="D122" s="12">
+        <v>99</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12">
+        <v>0</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+      <c r="H122" s="12">
+        <v>75</v>
+      </c>
+      <c r="I122" s="12">
+        <v>200</v>
+      </c>
+      <c r="J122" s="12">
+        <v>5</v>
+      </c>
+      <c r="K122">
+        <v>15</v>
+      </c>
+      <c r="L122">
+        <v>5</v>
+      </c>
+      <c r="P122">
+        <v>53384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A123" s="12">
+        <v>10090</v>
+      </c>
+      <c r="B123" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>75级副本6号</v>
+      </c>
+      <c r="C123" s="12">
+        <f t="shared" si="6"/>
+        <v>10089</v>
+      </c>
+      <c r="D123" s="12">
+        <v>99</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
+      <c r="H123" s="12">
+        <v>75</v>
+      </c>
+      <c r="I123" s="12">
+        <v>200</v>
+      </c>
+      <c r="J123" s="12">
+        <v>5</v>
+      </c>
+      <c r="K123">
+        <v>15</v>
+      </c>
+      <c r="L123">
+        <v>6</v>
+      </c>
+      <c r="P123">
+        <v>32031</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A124" s="12">
+        <v>10091</v>
+      </c>
+      <c r="B124" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>80级副本1号</v>
+      </c>
+      <c r="C124" s="12">
+        <f t="shared" si="6"/>
+        <v>10090</v>
+      </c>
+      <c r="D124" s="12">
+        <v>99</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12">
+        <v>0</v>
+      </c>
+      <c r="G124" s="12">
+        <v>0</v>
+      </c>
+      <c r="H124" s="12">
+        <v>80</v>
+      </c>
+      <c r="I124" s="12">
+        <v>200</v>
+      </c>
+      <c r="J124" s="12">
+        <v>5</v>
+      </c>
+      <c r="K124">
+        <v>16</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>106952</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A125" s="12">
+        <v>10092</v>
+      </c>
+      <c r="B125" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>80级副本2号</v>
+      </c>
+      <c r="C125" s="12">
+        <f t="shared" si="6"/>
+        <v>10091</v>
+      </c>
+      <c r="D125" s="12">
+        <v>99</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0</v>
+      </c>
+      <c r="H125" s="12">
+        <v>80</v>
+      </c>
+      <c r="I125" s="12">
+        <v>200</v>
+      </c>
+      <c r="J125" s="12">
+        <v>5</v>
+      </c>
+      <c r="K125">
+        <v>16</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="P125">
+        <v>71302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A126" s="12">
+        <v>10093</v>
+      </c>
+      <c r="B126" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>80级副本3号</v>
+      </c>
+      <c r="C126" s="12">
+        <f t="shared" si="6"/>
+        <v>10092</v>
+      </c>
+      <c r="D126" s="12">
+        <v>99</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12">
+        <v>0</v>
+      </c>
+      <c r="G126" s="12">
+        <v>0</v>
+      </c>
+      <c r="H126" s="12">
+        <v>80</v>
+      </c>
+      <c r="I126" s="12">
+        <v>200</v>
+      </c>
+      <c r="J126" s="12">
+        <v>5</v>
+      </c>
+      <c r="K126">
+        <v>16</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="P126">
+        <v>71302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A127" s="12">
+        <v>10094</v>
+      </c>
+      <c r="B127" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>80级副本4号</v>
+      </c>
+      <c r="C127" s="12">
+        <f t="shared" si="6"/>
+        <v>10093</v>
+      </c>
+      <c r="D127" s="12">
+        <v>99</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0</v>
+      </c>
+      <c r="H127" s="12">
+        <v>80</v>
+      </c>
+      <c r="I127" s="12">
+        <v>200</v>
+      </c>
+      <c r="J127" s="12">
+        <v>5</v>
+      </c>
+      <c r="K127">
+        <v>16</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>71302</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A128" s="12">
+        <v>10095</v>
+      </c>
+      <c r="B128" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>80级副本5号</v>
+      </c>
+      <c r="C128" s="12">
+        <f t="shared" si="6"/>
+        <v>10094</v>
+      </c>
+      <c r="D128" s="12">
+        <v>99</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12">
+        <v>0</v>
+      </c>
+      <c r="G128" s="12">
+        <v>0</v>
+      </c>
+      <c r="H128" s="12">
+        <v>80</v>
+      </c>
+      <c r="I128" s="12">
+        <v>200</v>
+      </c>
+      <c r="J128" s="12">
+        <v>5</v>
+      </c>
+      <c r="K128">
+        <v>16</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>71302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A129" s="12">
+        <v>10096</v>
+      </c>
+      <c r="B129" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>80级副本6号</v>
+      </c>
+      <c r="C129" s="12">
+        <f t="shared" si="6"/>
+        <v>10095</v>
+      </c>
+      <c r="D129" s="12">
+        <v>99</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12">
+        <v>0</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0</v>
+      </c>
+      <c r="H129" s="12">
+        <v>80</v>
+      </c>
+      <c r="I129" s="12">
+        <v>200</v>
+      </c>
+      <c r="J129" s="12">
+        <v>5</v>
+      </c>
+      <c r="K129">
+        <v>16</v>
+      </c>
+      <c r="L129">
+        <v>6</v>
+      </c>
+      <c r="P129">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A130" s="12">
+        <v>10097</v>
+      </c>
+      <c r="B130" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>85级副本1号</v>
+      </c>
+      <c r="C130" s="12">
+        <f t="shared" si="6"/>
+        <v>10096</v>
+      </c>
+      <c r="D130" s="12">
+        <v>99</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0</v>
+      </c>
+      <c r="H130" s="12">
+        <v>85</v>
+      </c>
+      <c r="I130" s="12">
+        <v>200</v>
+      </c>
+      <c r="J130" s="12">
+        <v>5</v>
+      </c>
+      <c r="K130">
+        <v>17</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>139773</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A131" s="12">
+        <v>10098</v>
+      </c>
+      <c r="B131" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>85级副本2号</v>
+      </c>
+      <c r="C131" s="12">
+        <f t="shared" si="6"/>
+        <v>10097</v>
+      </c>
+      <c r="D131" s="12">
+        <v>99</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12">
+        <v>0</v>
+      </c>
+      <c r="G131" s="12">
+        <v>0</v>
+      </c>
+      <c r="H131" s="12">
+        <v>85</v>
+      </c>
+      <c r="I131" s="12">
+        <v>200</v>
+      </c>
+      <c r="J131" s="12">
+        <v>5</v>
+      </c>
+      <c r="K131">
+        <v>17</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="P131">
+        <v>93182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A132" s="12">
+        <v>10099</v>
+      </c>
+      <c r="B132" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>85级副本3号</v>
+      </c>
+      <c r="C132" s="12">
+        <f t="shared" si="6"/>
+        <v>10098</v>
+      </c>
+      <c r="D132" s="12">
+        <v>99</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12">
+        <v>0</v>
+      </c>
+      <c r="G132" s="12">
+        <v>0</v>
+      </c>
+      <c r="H132" s="12">
+        <v>85</v>
+      </c>
+      <c r="I132" s="12">
+        <v>200</v>
+      </c>
+      <c r="J132" s="12">
+        <v>5</v>
+      </c>
+      <c r="K132">
+        <v>17</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="P132">
+        <v>93182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A133" s="12">
+        <v>10100</v>
+      </c>
+      <c r="B133" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>85级副本4号</v>
+      </c>
+      <c r="C133" s="12">
+        <f t="shared" si="6"/>
+        <v>10099</v>
+      </c>
+      <c r="D133" s="12">
+        <v>99</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12">
+        <v>0</v>
+      </c>
+      <c r="G133" s="12">
+        <v>0</v>
+      </c>
+      <c r="H133" s="12">
+        <v>85</v>
+      </c>
+      <c r="I133" s="12">
+        <v>200</v>
+      </c>
+      <c r="J133" s="12">
+        <v>5</v>
+      </c>
+      <c r="K133">
+        <v>17</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="P133">
+        <v>93182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A134" s="12">
+        <v>10101</v>
+      </c>
+      <c r="B134" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>85级副本5号</v>
+      </c>
+      <c r="C134" s="12">
+        <f t="shared" si="6"/>
+        <v>10100</v>
+      </c>
+      <c r="D134" s="12">
+        <v>99</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12">
+        <v>0</v>
+      </c>
+      <c r="G134" s="12">
+        <v>0</v>
+      </c>
+      <c r="H134" s="12">
+        <v>85</v>
+      </c>
+      <c r="I134" s="12">
+        <v>200</v>
+      </c>
+      <c r="J134" s="12">
+        <v>5</v>
+      </c>
+      <c r="K134">
+        <v>17</v>
+      </c>
+      <c r="L134">
+        <v>5</v>
+      </c>
+      <c r="P134">
+        <v>93182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A135" s="12">
+        <v>10102</v>
+      </c>
+      <c r="B135" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>85级副本6号</v>
+      </c>
+      <c r="C135" s="12">
+        <f t="shared" si="6"/>
+        <v>10101</v>
+      </c>
+      <c r="D135" s="12">
+        <v>99</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12">
+        <v>0</v>
+      </c>
+      <c r="G135" s="12">
+        <v>0</v>
+      </c>
+      <c r="H135" s="12">
+        <v>85</v>
+      </c>
+      <c r="I135" s="12">
+        <v>200</v>
+      </c>
+      <c r="J135" s="12">
+        <v>5</v>
+      </c>
+      <c r="K135">
+        <v>17</v>
+      </c>
+      <c r="L135">
+        <v>6</v>
+      </c>
+      <c r="P135">
+        <v>55910</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A136" s="12">
+        <v>10103</v>
+      </c>
+      <c r="B136" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>90级副本1号</v>
+      </c>
+      <c r="C136" s="12">
+        <f t="shared" si="6"/>
+        <v>10102</v>
+      </c>
+      <c r="D136" s="12">
+        <v>99</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12">
+        <v>0</v>
+      </c>
+      <c r="G136" s="12">
+        <v>0</v>
+      </c>
+      <c r="H136" s="12">
+        <v>90</v>
+      </c>
+      <c r="I136" s="12">
+        <v>200</v>
+      </c>
+      <c r="J136" s="12">
+        <v>5</v>
+      </c>
+      <c r="K136">
+        <v>18</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>119346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A137" s="12">
+        <v>10104</v>
+      </c>
+      <c r="B137" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>90级副本2号</v>
+      </c>
+      <c r="C137" s="12">
+        <f t="shared" si="6"/>
+        <v>10103</v>
+      </c>
+      <c r="D137" s="12">
+        <v>99</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12">
+        <v>0</v>
+      </c>
+      <c r="G137" s="12">
+        <v>0</v>
+      </c>
+      <c r="H137" s="12">
+        <v>90</v>
+      </c>
+      <c r="I137" s="12">
+        <v>200</v>
+      </c>
+      <c r="J137" s="12">
+        <v>5</v>
+      </c>
+      <c r="K137">
+        <v>18</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="P137">
+        <v>119346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A138" s="12">
+        <v>10105</v>
+      </c>
+      <c r="B138" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>90级副本3号</v>
+      </c>
+      <c r="C138" s="12">
+        <f t="shared" si="6"/>
+        <v>10104</v>
+      </c>
+      <c r="D138" s="12">
+        <v>99</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12">
+        <v>0</v>
+      </c>
+      <c r="G138" s="12">
+        <v>0</v>
+      </c>
+      <c r="H138" s="12">
+        <v>90</v>
+      </c>
+      <c r="I138" s="12">
+        <v>200</v>
+      </c>
+      <c r="J138" s="12">
+        <v>5</v>
+      </c>
+      <c r="K138">
+        <v>18</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="P138">
+        <v>119346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A139" s="12">
+        <v>10106</v>
+      </c>
+      <c r="B139" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>90级副本4号</v>
+      </c>
+      <c r="C139" s="12">
+        <f t="shared" si="6"/>
+        <v>10105</v>
+      </c>
+      <c r="D139" s="12">
+        <v>99</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
+      <c r="G139" s="12">
+        <v>0</v>
+      </c>
+      <c r="H139" s="12">
+        <v>90</v>
+      </c>
+      <c r="I139" s="12">
+        <v>200</v>
+      </c>
+      <c r="J139" s="12">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <v>18</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="P139">
+        <v>119346</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A140" s="12">
+        <v>10107</v>
+      </c>
+      <c r="B140" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>90级副本5号</v>
+      </c>
+      <c r="C140" s="12">
+        <f t="shared" si="6"/>
+        <v>10106</v>
+      </c>
+      <c r="D140" s="12">
+        <v>99</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12">
+        <v>0</v>
+      </c>
+      <c r="G140" s="12">
+        <v>0</v>
+      </c>
+      <c r="H140" s="12">
+        <v>90</v>
+      </c>
+      <c r="I140" s="12">
+        <v>200</v>
+      </c>
+      <c r="J140" s="12">
+        <v>5</v>
+      </c>
+      <c r="K140">
+        <v>18</v>
+      </c>
+      <c r="L140">
+        <v>5</v>
+      </c>
+      <c r="P140">
+        <v>119346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A141" s="12">
+        <v>10108</v>
+      </c>
+      <c r="B141" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>90级副本6号</v>
+      </c>
+      <c r="C141" s="12">
+        <f t="shared" si="6"/>
+        <v>10107</v>
+      </c>
+      <c r="D141" s="12">
+        <v>99</v>
+      </c>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12">
+        <v>0</v>
+      </c>
+      <c r="G141" s="12">
+        <v>0</v>
+      </c>
+      <c r="H141" s="12">
+        <v>90</v>
+      </c>
+      <c r="I141" s="12">
+        <v>200</v>
+      </c>
+      <c r="J141" s="12">
+        <v>5</v>
+      </c>
+      <c r="K141">
+        <v>18</v>
+      </c>
+      <c r="L141">
+        <v>6</v>
+      </c>
+      <c r="P141">
+        <v>71608</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A142" s="12">
+        <v>10109</v>
+      </c>
+      <c r="B142" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>95级副本1号</v>
+      </c>
+      <c r="C142" s="12">
+        <f t="shared" si="6"/>
+        <v>10108</v>
+      </c>
+      <c r="D142" s="12">
+        <v>99</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12">
+        <v>0</v>
+      </c>
+      <c r="G142" s="12">
+        <v>0</v>
+      </c>
+      <c r="H142" s="12">
+        <v>95</v>
+      </c>
+      <c r="I142" s="12">
+        <v>200</v>
+      </c>
+      <c r="J142" s="12">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <v>19</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>150025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A143" s="12">
+        <v>10110</v>
+      </c>
+      <c r="B143" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>95级副本2号</v>
+      </c>
+      <c r="C143" s="12">
+        <f t="shared" si="6"/>
+        <v>10109</v>
+      </c>
+      <c r="D143" s="12">
+        <v>99</v>
+      </c>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12">
+        <v>0</v>
+      </c>
+      <c r="G143" s="12">
+        <v>0</v>
+      </c>
+      <c r="H143" s="12">
+        <v>95</v>
+      </c>
+      <c r="I143" s="12">
+        <v>200</v>
+      </c>
+      <c r="J143" s="12">
+        <v>5</v>
+      </c>
+      <c r="K143">
+        <v>19</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="P143">
+        <v>150025</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A144" s="12">
+        <v>10111</v>
+      </c>
+      <c r="B144" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>95级副本3号</v>
+      </c>
+      <c r="C144" s="12">
+        <f t="shared" si="6"/>
+        <v>10110</v>
+      </c>
+      <c r="D144" s="12">
+        <v>99</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12">
+        <v>0</v>
+      </c>
+      <c r="G144" s="12">
+        <v>0</v>
+      </c>
+      <c r="H144" s="12">
+        <v>95</v>
+      </c>
+      <c r="I144" s="12">
+        <v>200</v>
+      </c>
+      <c r="J144" s="12">
+        <v>5</v>
+      </c>
+      <c r="K144">
+        <v>19</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="P144">
+        <v>150025</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A145" s="12">
+        <v>10112</v>
+      </c>
+      <c r="B145" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>95级副本4号</v>
+      </c>
+      <c r="C145" s="12">
+        <f t="shared" si="6"/>
+        <v>10111</v>
+      </c>
+      <c r="D145" s="12">
+        <v>99</v>
+      </c>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12">
+        <v>0</v>
+      </c>
+      <c r="H145" s="12">
+        <v>95</v>
+      </c>
+      <c r="I145" s="12">
+        <v>200</v>
+      </c>
+      <c r="J145" s="12">
+        <v>5</v>
+      </c>
+      <c r="K145">
+        <v>19</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>150025</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A146" s="12">
+        <v>10113</v>
+      </c>
+      <c r="B146" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>95级副本5号</v>
+      </c>
+      <c r="C146" s="12">
+        <f t="shared" si="6"/>
+        <v>10112</v>
+      </c>
+      <c r="D146" s="12">
+        <v>99</v>
+      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12">
+        <v>0</v>
+      </c>
+      <c r="G146" s="12">
+        <v>0</v>
+      </c>
+      <c r="H146" s="12">
+        <v>95</v>
+      </c>
+      <c r="I146" s="12">
+        <v>200</v>
+      </c>
+      <c r="J146" s="12">
+        <v>5</v>
+      </c>
+      <c r="K146">
+        <v>19</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
+      </c>
+      <c r="P146">
+        <v>150025</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A147" s="12">
+        <v>10114</v>
+      </c>
+      <c r="B147" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>95级副本6号</v>
+      </c>
+      <c r="C147" s="12">
+        <f t="shared" si="6"/>
+        <v>10113</v>
+      </c>
+      <c r="D147" s="12">
+        <v>99</v>
+      </c>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12">
+        <v>0</v>
+      </c>
+      <c r="G147" s="12">
+        <v>0</v>
+      </c>
+      <c r="H147" s="12">
+        <v>95</v>
+      </c>
+      <c r="I147" s="12">
+        <v>200</v>
+      </c>
+      <c r="J147" s="12">
+        <v>5</v>
+      </c>
+      <c r="K147">
+        <v>19</v>
+      </c>
+      <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>90015</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A148" s="12">
+        <v>10115</v>
+      </c>
+      <c r="B148" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>100级副本1号</v>
+      </c>
+      <c r="C148" s="12">
+        <f t="shared" si="6"/>
+        <v>10114</v>
+      </c>
+      <c r="D148" s="12">
+        <v>99</v>
+      </c>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12">
+        <v>0</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0</v>
+      </c>
+      <c r="H148" s="12">
+        <v>100</v>
+      </c>
+      <c r="I148" s="12">
+        <v>200</v>
+      </c>
+      <c r="J148" s="12">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <v>20</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <v>185356</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A149" s="12">
+        <v>10116</v>
+      </c>
+      <c r="B149" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>100级副本2号</v>
+      </c>
+      <c r="C149" s="12">
+        <f t="shared" si="6"/>
+        <v>10115</v>
+      </c>
+      <c r="D149" s="12">
+        <v>99</v>
+      </c>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12">
+        <v>0</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0</v>
+      </c>
+      <c r="H149" s="12">
+        <v>100</v>
+      </c>
+      <c r="I149" s="12">
+        <v>200</v>
+      </c>
+      <c r="J149" s="12">
+        <v>5</v>
+      </c>
+      <c r="K149">
+        <v>20</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>185356</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A150" s="12">
+        <v>10117</v>
+      </c>
+      <c r="B150" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>100级副本3号</v>
+      </c>
+      <c r="C150" s="12">
+        <f t="shared" si="6"/>
+        <v>10116</v>
+      </c>
+      <c r="D150" s="12">
+        <v>99</v>
+      </c>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
+      <c r="G150" s="12">
+        <v>0</v>
+      </c>
+      <c r="H150" s="12">
+        <v>100</v>
+      </c>
+      <c r="I150" s="12">
+        <v>200</v>
+      </c>
+      <c r="J150" s="12">
+        <v>5</v>
+      </c>
+      <c r="K150">
+        <v>20</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="P150">
+        <v>185356</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A151" s="12">
+        <v>10118</v>
+      </c>
+      <c r="B151" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>100级副本4号</v>
+      </c>
+      <c r="C151" s="12">
+        <f t="shared" si="6"/>
+        <v>10117</v>
+      </c>
+      <c r="D151" s="12">
+        <v>99</v>
+      </c>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12">
+        <v>0</v>
+      </c>
+      <c r="H151" s="12">
+        <v>100</v>
+      </c>
+      <c r="I151" s="12">
+        <v>200</v>
+      </c>
+      <c r="J151" s="12">
+        <v>5</v>
+      </c>
+      <c r="K151">
+        <v>20</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="P151">
+        <v>185356</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A152" s="12">
+        <v>10119</v>
+      </c>
+      <c r="B152" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>100级副本5号</v>
+      </c>
+      <c r="C152" s="12">
+        <f t="shared" si="6"/>
+        <v>10118</v>
+      </c>
+      <c r="D152" s="12">
+        <v>99</v>
+      </c>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12">
+        <v>0</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0</v>
+      </c>
+      <c r="H152" s="12">
+        <v>100</v>
+      </c>
+      <c r="I152" s="12">
+        <v>200</v>
+      </c>
+      <c r="J152" s="12">
+        <v>5</v>
+      </c>
+      <c r="K152">
+        <v>20</v>
+      </c>
+      <c r="L152">
+        <v>5</v>
+      </c>
+      <c r="P152">
+        <v>185356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A153" s="12">
+        <v>10120</v>
+      </c>
+      <c r="B153" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>100级副本6号</v>
+      </c>
+      <c r="C153" s="12">
+        <f t="shared" si="6"/>
+        <v>10119</v>
+      </c>
+      <c r="D153" s="12">
+        <v>99</v>
+      </c>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12">
+        <v>0</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0</v>
+      </c>
+      <c r="H153" s="12">
+        <v>100</v>
+      </c>
+      <c r="I153" s="12">
+        <v>200</v>
+      </c>
+      <c r="J153" s="12">
+        <v>5</v>
+      </c>
+      <c r="K153">
+        <v>20</v>
+      </c>
+      <c r="L153">
+        <v>6</v>
+      </c>
+      <c r="P153">
+        <v>111214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A154" s="12">
+        <v>10121</v>
+      </c>
+      <c r="B154" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>105级副本1号</v>
+      </c>
+      <c r="C154" s="12">
+        <f t="shared" si="6"/>
+        <v>10120</v>
+      </c>
+      <c r="D154" s="12">
+        <v>99</v>
+      </c>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12">
+        <v>0</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0</v>
+      </c>
+      <c r="H154" s="12">
+        <v>105</v>
+      </c>
+      <c r="I154" s="12">
+        <v>200</v>
+      </c>
+      <c r="J154" s="12">
+        <v>5</v>
+      </c>
+      <c r="K154">
+        <v>21</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <v>225367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A155" s="12">
+        <v>10122</v>
+      </c>
+      <c r="B155" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>105级副本2号</v>
+      </c>
+      <c r="C155" s="12">
+        <f t="shared" si="6"/>
+        <v>10121</v>
+      </c>
+      <c r="D155" s="12">
+        <v>99</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0</v>
+      </c>
+      <c r="H155" s="12">
+        <v>105</v>
+      </c>
+      <c r="I155" s="12">
+        <v>200</v>
+      </c>
+      <c r="J155" s="12">
+        <v>5</v>
+      </c>
+      <c r="K155">
+        <v>21</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="P155">
+        <v>225367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A156" s="12">
+        <v>10123</v>
+      </c>
+      <c r="B156" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>105级副本3号</v>
+      </c>
+      <c r="C156" s="12">
+        <f t="shared" si="6"/>
+        <v>10122</v>
+      </c>
+      <c r="D156" s="12">
+        <v>99</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12">
+        <v>0</v>
+      </c>
+      <c r="G156" s="12">
+        <v>0</v>
+      </c>
+      <c r="H156" s="12">
+        <v>105</v>
+      </c>
+      <c r="I156" s="12">
+        <v>200</v>
+      </c>
+      <c r="J156" s="12">
+        <v>5</v>
+      </c>
+      <c r="K156">
+        <v>21</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="P156">
+        <v>225367</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A157" s="12">
+        <v>10124</v>
+      </c>
+      <c r="B157" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>105级副本4号</v>
+      </c>
+      <c r="C157" s="12">
+        <f t="shared" si="6"/>
+        <v>10123</v>
+      </c>
+      <c r="D157" s="12">
+        <v>99</v>
+      </c>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12">
+        <v>0</v>
+      </c>
+      <c r="G157" s="12">
+        <v>0</v>
+      </c>
+      <c r="H157" s="12">
+        <v>105</v>
+      </c>
+      <c r="I157" s="12">
+        <v>200</v>
+      </c>
+      <c r="J157" s="12">
+        <v>5</v>
+      </c>
+      <c r="K157">
+        <v>21</v>
+      </c>
+      <c r="L157">
+        <v>4</v>
+      </c>
+      <c r="P157">
+        <v>225367</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A158" s="12">
+        <v>10125</v>
+      </c>
+      <c r="B158" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>105级副本5号</v>
+      </c>
+      <c r="C158" s="12">
+        <f t="shared" si="6"/>
+        <v>10124</v>
+      </c>
+      <c r="D158" s="12">
+        <v>99</v>
+      </c>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12">
+        <v>0</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0</v>
+      </c>
+      <c r="H158" s="12">
+        <v>105</v>
+      </c>
+      <c r="I158" s="12">
+        <v>200</v>
+      </c>
+      <c r="J158" s="12">
+        <v>5</v>
+      </c>
+      <c r="K158">
+        <v>21</v>
+      </c>
+      <c r="L158">
+        <v>5</v>
+      </c>
+      <c r="P158">
+        <v>225367</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A159" s="12">
+        <v>10126</v>
+      </c>
+      <c r="B159" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>105级副本6号</v>
+      </c>
+      <c r="C159" s="12">
+        <f t="shared" si="6"/>
+        <v>10125</v>
+      </c>
+      <c r="D159" s="12">
+        <v>99</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12">
+        <v>0</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+      <c r="H159" s="12">
+        <v>105</v>
+      </c>
+      <c r="I159" s="12">
+        <v>200</v>
+      </c>
+      <c r="J159" s="12">
+        <v>5</v>
+      </c>
+      <c r="K159">
+        <v>21</v>
+      </c>
+      <c r="L159">
+        <v>6</v>
+      </c>
+      <c r="P159">
+        <v>135220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A160" s="12">
+        <v>10127</v>
+      </c>
+      <c r="B160" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>110级副本1号</v>
+      </c>
+      <c r="C160" s="12">
+        <f t="shared" si="6"/>
+        <v>10126</v>
+      </c>
+      <c r="D160" s="12">
+        <v>99</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12">
+        <v>0</v>
+      </c>
+      <c r="G160" s="12">
+        <v>0</v>
+      </c>
+      <c r="H160" s="12">
+        <v>110</v>
+      </c>
+      <c r="I160" s="12">
+        <v>200</v>
+      </c>
+      <c r="J160" s="12">
+        <v>5</v>
+      </c>
+      <c r="K160">
+        <v>22</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="P160">
+        <v>269981</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A161" s="12">
+        <v>10128</v>
+      </c>
+      <c r="B161" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>110级副本2号</v>
+      </c>
+      <c r="C161" s="12">
+        <f t="shared" si="6"/>
+        <v>10127</v>
+      </c>
+      <c r="D161" s="12">
+        <v>99</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12">
+        <v>0</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+      <c r="H161" s="12">
+        <v>110</v>
+      </c>
+      <c r="I161" s="12">
+        <v>200</v>
+      </c>
+      <c r="J161" s="12">
+        <v>5</v>
+      </c>
+      <c r="K161">
+        <v>22</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="P161">
+        <v>269981</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A162" s="12">
+        <v>10129</v>
+      </c>
+      <c r="B162" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>110级副本3号</v>
+      </c>
+      <c r="C162" s="12">
+        <f t="shared" si="6"/>
+        <v>10128</v>
+      </c>
+      <c r="D162" s="12">
+        <v>99</v>
+      </c>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12">
+        <v>0</v>
+      </c>
+      <c r="G162" s="12">
+        <v>0</v>
+      </c>
+      <c r="H162" s="12">
+        <v>110</v>
+      </c>
+      <c r="I162" s="12">
+        <v>200</v>
+      </c>
+      <c r="J162" s="12">
+        <v>5</v>
+      </c>
+      <c r="K162">
+        <v>22</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="P162">
+        <v>269981</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A163" s="12">
+        <v>10130</v>
+      </c>
+      <c r="B163" s="12" t="str">
+        <f t="shared" ref="B163:B226" si="7">H163&amp;"级副本"&amp;L163&amp;"号"</f>
+        <v>110级副本4号</v>
+      </c>
+      <c r="C163" s="12">
+        <f t="shared" si="6"/>
+        <v>10129</v>
+      </c>
+      <c r="D163" s="12">
+        <v>99</v>
+      </c>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12">
+        <v>0</v>
+      </c>
+      <c r="H163" s="12">
+        <v>110</v>
+      </c>
+      <c r="I163" s="12">
+        <v>200</v>
+      </c>
+      <c r="J163" s="12">
+        <v>5</v>
+      </c>
+      <c r="K163">
+        <v>22</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="P163">
+        <v>269981</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A164" s="12">
+        <v>10131</v>
+      </c>
+      <c r="B164" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>110级副本5号</v>
+      </c>
+      <c r="C164" s="12">
+        <f t="shared" si="6"/>
+        <v>10130</v>
+      </c>
+      <c r="D164" s="12">
+        <v>99</v>
+      </c>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12">
+        <v>0</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0</v>
+      </c>
+      <c r="H164" s="12">
+        <v>110</v>
+      </c>
+      <c r="I164" s="12">
+        <v>200</v>
+      </c>
+      <c r="J164" s="12">
+        <v>5</v>
+      </c>
+      <c r="K164">
+        <v>22</v>
+      </c>
+      <c r="L164">
+        <v>5</v>
+      </c>
+      <c r="P164">
+        <v>269981</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A165" s="12">
+        <v>10132</v>
+      </c>
+      <c r="B165" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>110级副本6号</v>
+      </c>
+      <c r="C165" s="12">
+        <f t="shared" si="6"/>
+        <v>10131</v>
+      </c>
+      <c r="D165" s="12">
+        <v>99</v>
+      </c>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12">
+        <v>0</v>
+      </c>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+      <c r="H165" s="12">
+        <v>110</v>
+      </c>
+      <c r="I165" s="12">
+        <v>200</v>
+      </c>
+      <c r="J165" s="12">
+        <v>5</v>
+      </c>
+      <c r="K165">
+        <v>22</v>
+      </c>
+      <c r="L165">
+        <v>6</v>
+      </c>
+      <c r="P165">
+        <v>161989</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A166" s="12">
+        <v>10133</v>
+      </c>
+      <c r="B166" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>115级副本1号</v>
+      </c>
+      <c r="C166" s="12">
+        <f t="shared" si="6"/>
+        <v>10132</v>
+      </c>
+      <c r="D166" s="12">
+        <v>99</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12">
+        <v>0</v>
+      </c>
+      <c r="G166" s="12">
+        <v>0</v>
+      </c>
+      <c r="H166" s="12">
+        <v>115</v>
+      </c>
+      <c r="I166" s="12">
+        <v>200</v>
+      </c>
+      <c r="J166" s="12">
+        <v>5</v>
+      </c>
+      <c r="K166">
+        <v>23</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>319019</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A167" s="12">
+        <v>10134</v>
+      </c>
+      <c r="B167" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>115级副本2号</v>
+      </c>
+      <c r="C167" s="12">
+        <f t="shared" si="6"/>
+        <v>10133</v>
+      </c>
+      <c r="D167" s="12">
+        <v>99</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+      <c r="H167" s="12">
+        <v>115</v>
+      </c>
+      <c r="I167" s="12">
+        <v>200</v>
+      </c>
+      <c r="J167" s="12">
+        <v>5</v>
+      </c>
+      <c r="K167">
+        <v>23</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="P167">
+        <v>319019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A168" s="12">
+        <v>10135</v>
+      </c>
+      <c r="B168" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>115级副本3号</v>
+      </c>
+      <c r="C168" s="12">
+        <f t="shared" si="6"/>
+        <v>10134</v>
+      </c>
+      <c r="D168" s="12">
+        <v>99</v>
+      </c>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12">
+        <v>0</v>
+      </c>
+      <c r="G168" s="12">
+        <v>0</v>
+      </c>
+      <c r="H168" s="12">
+        <v>115</v>
+      </c>
+      <c r="I168" s="12">
+        <v>200</v>
+      </c>
+      <c r="J168" s="12">
+        <v>5</v>
+      </c>
+      <c r="K168">
+        <v>23</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="P168">
+        <v>319019</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A169" s="12">
+        <v>10136</v>
+      </c>
+      <c r="B169" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>115级副本4号</v>
+      </c>
+      <c r="C169" s="12">
+        <f t="shared" si="6"/>
+        <v>10135</v>
+      </c>
+      <c r="D169" s="12">
+        <v>99</v>
+      </c>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12">
+        <v>0</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0</v>
+      </c>
+      <c r="H169" s="12">
+        <v>115</v>
+      </c>
+      <c r="I169" s="12">
+        <v>200</v>
+      </c>
+      <c r="J169" s="12">
+        <v>5</v>
+      </c>
+      <c r="K169">
+        <v>23</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>319019</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A170" s="12">
+        <v>10137</v>
+      </c>
+      <c r="B170" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>115级副本5号</v>
+      </c>
+      <c r="C170" s="12">
+        <f t="shared" si="6"/>
+        <v>10136</v>
+      </c>
+      <c r="D170" s="12">
+        <v>99</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12">
+        <v>0</v>
+      </c>
+      <c r="G170" s="12">
+        <v>0</v>
+      </c>
+      <c r="H170" s="12">
+        <v>115</v>
+      </c>
+      <c r="I170" s="12">
+        <v>200</v>
+      </c>
+      <c r="J170" s="12">
+        <v>5</v>
+      </c>
+      <c r="K170">
+        <v>23</v>
+      </c>
+      <c r="L170">
+        <v>5</v>
+      </c>
+      <c r="P170">
+        <v>319019</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A171" s="12">
+        <v>10138</v>
+      </c>
+      <c r="B171" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>115级副本6号</v>
+      </c>
+      <c r="C171" s="12">
+        <f t="shared" si="6"/>
+        <v>10137</v>
+      </c>
+      <c r="D171" s="12">
+        <v>99</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12">
+        <v>0</v>
+      </c>
+      <c r="G171" s="12">
+        <v>0</v>
+      </c>
+      <c r="H171" s="12">
+        <v>115</v>
+      </c>
+      <c r="I171" s="12">
+        <v>200</v>
+      </c>
+      <c r="J171" s="12">
+        <v>5</v>
+      </c>
+      <c r="K171">
+        <v>23</v>
+      </c>
+      <c r="L171">
+        <v>6</v>
+      </c>
+      <c r="P171">
+        <v>191412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A172" s="12">
+        <v>10139</v>
+      </c>
+      <c r="B172" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>120级副本1号</v>
+      </c>
+      <c r="C172" s="12">
+        <f t="shared" si="6"/>
+        <v>10138</v>
+      </c>
+      <c r="D172" s="12">
+        <v>99</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12">
+        <v>0</v>
+      </c>
+      <c r="G172" s="12">
+        <v>0</v>
+      </c>
+      <c r="H172" s="12">
+        <v>120</v>
+      </c>
+      <c r="I172" s="12">
+        <v>200</v>
+      </c>
+      <c r="J172" s="12">
+        <v>5</v>
+      </c>
+      <c r="K172">
+        <v>24</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>372208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A173" s="12">
+        <v>10140</v>
+      </c>
+      <c r="B173" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>120级副本2号</v>
+      </c>
+      <c r="C173" s="12">
+        <f t="shared" si="6"/>
+        <v>10139</v>
+      </c>
+      <c r="D173" s="12">
+        <v>99</v>
+      </c>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12">
+        <v>0</v>
+      </c>
+      <c r="G173" s="12">
+        <v>0</v>
+      </c>
+      <c r="H173" s="12">
+        <v>120</v>
+      </c>
+      <c r="I173" s="12">
+        <v>200</v>
+      </c>
+      <c r="J173" s="12">
+        <v>5</v>
+      </c>
+      <c r="K173">
+        <v>24</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="P173">
+        <v>372208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A174" s="12">
+        <v>10141</v>
+      </c>
+      <c r="B174" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>120级副本3号</v>
+      </c>
+      <c r="C174" s="12">
+        <f t="shared" si="6"/>
+        <v>10140</v>
+      </c>
+      <c r="D174" s="12">
+        <v>99</v>
+      </c>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12">
+        <v>0</v>
+      </c>
+      <c r="G174" s="12">
+        <v>0</v>
+      </c>
+      <c r="H174" s="12">
+        <v>120</v>
+      </c>
+      <c r="I174" s="12">
+        <v>200</v>
+      </c>
+      <c r="J174" s="12">
+        <v>5</v>
+      </c>
+      <c r="K174">
+        <v>24</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="P174">
+        <v>372208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A175" s="12">
+        <v>10142</v>
+      </c>
+      <c r="B175" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>120级副本4号</v>
+      </c>
+      <c r="C175" s="12">
+        <f t="shared" si="6"/>
+        <v>10141</v>
+      </c>
+      <c r="D175" s="12">
+        <v>99</v>
+      </c>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12">
+        <v>0</v>
+      </c>
+      <c r="G175" s="12">
+        <v>0</v>
+      </c>
+      <c r="H175" s="12">
+        <v>120</v>
+      </c>
+      <c r="I175" s="12">
+        <v>200</v>
+      </c>
+      <c r="J175" s="12">
+        <v>5</v>
+      </c>
+      <c r="K175">
+        <v>24</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="P175">
+        <v>372208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A176" s="12">
+        <v>10143</v>
+      </c>
+      <c r="B176" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>120级副本5号</v>
+      </c>
+      <c r="C176" s="12">
+        <f t="shared" ref="C176:C232" si="8">A175</f>
+        <v>10142</v>
+      </c>
+      <c r="D176" s="12">
+        <v>99</v>
+      </c>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12">
+        <v>0</v>
+      </c>
+      <c r="G176" s="12">
+        <v>0</v>
+      </c>
+      <c r="H176" s="12">
+        <v>120</v>
+      </c>
+      <c r="I176" s="12">
+        <v>200</v>
+      </c>
+      <c r="J176" s="12">
+        <v>5</v>
+      </c>
+      <c r="K176">
+        <v>24</v>
+      </c>
+      <c r="L176">
+        <v>5</v>
+      </c>
+      <c r="P176">
+        <v>372208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A177" s="12">
+        <v>10144</v>
+      </c>
+      <c r="B177" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>120级副本6号</v>
+      </c>
+      <c r="C177" s="12">
+        <f t="shared" si="8"/>
+        <v>10143</v>
+      </c>
+      <c r="D177" s="12">
+        <v>99</v>
+      </c>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12">
+        <v>0</v>
+      </c>
+      <c r="G177" s="12">
+        <v>0</v>
+      </c>
+      <c r="H177" s="12">
+        <v>120</v>
+      </c>
+      <c r="I177" s="12">
+        <v>200</v>
+      </c>
+      <c r="J177" s="12">
+        <v>5</v>
+      </c>
+      <c r="K177">
+        <v>24</v>
+      </c>
+      <c r="L177">
+        <v>6</v>
+      </c>
+      <c r="P177">
+        <v>223325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A178" s="12">
+        <v>10145</v>
+      </c>
+      <c r="B178" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>125级副本1号</v>
+      </c>
+      <c r="C178" s="12">
+        <f t="shared" si="8"/>
+        <v>10144</v>
+      </c>
+      <c r="D178" s="12">
+        <v>99</v>
+      </c>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12">
+        <v>0</v>
+      </c>
+      <c r="G178" s="12">
+        <v>0</v>
+      </c>
+      <c r="H178" s="12">
+        <v>125</v>
+      </c>
+      <c r="I178" s="12">
+        <v>200</v>
+      </c>
+      <c r="J178" s="12">
+        <v>5</v>
+      </c>
+      <c r="K178">
+        <v>25</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>429195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A179" s="12">
+        <v>10146</v>
+      </c>
+      <c r="B179" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>125级副本2号</v>
+      </c>
+      <c r="C179" s="12">
+        <f t="shared" si="8"/>
+        <v>10145</v>
+      </c>
+      <c r="D179" s="12">
+        <v>99</v>
+      </c>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12">
+        <v>0</v>
+      </c>
+      <c r="G179" s="12">
+        <v>0</v>
+      </c>
+      <c r="H179" s="12">
+        <v>125</v>
+      </c>
+      <c r="I179" s="12">
+        <v>200</v>
+      </c>
+      <c r="J179" s="12">
+        <v>5</v>
+      </c>
+      <c r="K179">
+        <v>25</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="P179">
+        <v>429195</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A180" s="12">
+        <v>10147</v>
+      </c>
+      <c r="B180" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>125级副本3号</v>
+      </c>
+      <c r="C180" s="12">
+        <f t="shared" si="8"/>
+        <v>10146</v>
+      </c>
+      <c r="D180" s="12">
+        <v>99</v>
+      </c>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12">
+        <v>0</v>
+      </c>
+      <c r="G180" s="12">
+        <v>0</v>
+      </c>
+      <c r="H180" s="12">
+        <v>125</v>
+      </c>
+      <c r="I180" s="12">
+        <v>200</v>
+      </c>
+      <c r="J180" s="12">
+        <v>5</v>
+      </c>
+      <c r="K180">
+        <v>25</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="P180">
+        <v>429195</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A181" s="12">
+        <v>10148</v>
+      </c>
+      <c r="B181" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>125级副本4号</v>
+      </c>
+      <c r="C181" s="12">
+        <f t="shared" si="8"/>
+        <v>10147</v>
+      </c>
+      <c r="D181" s="12">
+        <v>99</v>
+      </c>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12">
+        <v>0</v>
+      </c>
+      <c r="G181" s="12">
+        <v>0</v>
+      </c>
+      <c r="H181" s="12">
+        <v>125</v>
+      </c>
+      <c r="I181" s="12">
+        <v>200</v>
+      </c>
+      <c r="J181" s="12">
+        <v>5</v>
+      </c>
+      <c r="K181">
+        <v>25</v>
+      </c>
+      <c r="L181">
+        <v>4</v>
+      </c>
+      <c r="P181">
+        <v>429195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A182" s="12">
+        <v>10149</v>
+      </c>
+      <c r="B182" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>125级副本5号</v>
+      </c>
+      <c r="C182" s="12">
+        <f t="shared" si="8"/>
+        <v>10148</v>
+      </c>
+      <c r="D182" s="12">
+        <v>99</v>
+      </c>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12">
+        <v>0</v>
+      </c>
+      <c r="G182" s="12">
+        <v>0</v>
+      </c>
+      <c r="H182" s="12">
+        <v>125</v>
+      </c>
+      <c r="I182" s="12">
+        <v>200</v>
+      </c>
+      <c r="J182" s="12">
+        <v>5</v>
+      </c>
+      <c r="K182">
+        <v>25</v>
+      </c>
+      <c r="L182">
+        <v>5</v>
+      </c>
+      <c r="P182">
+        <v>429195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A183" s="12">
+        <v>10150</v>
+      </c>
+      <c r="B183" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>125级副本6号</v>
+      </c>
+      <c r="C183" s="12">
+        <f t="shared" si="8"/>
+        <v>10149</v>
+      </c>
+      <c r="D183" s="12">
+        <v>99</v>
+      </c>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12">
+        <v>0</v>
+      </c>
+      <c r="G183" s="12">
+        <v>0</v>
+      </c>
+      <c r="H183" s="12">
+        <v>125</v>
+      </c>
+      <c r="I183" s="12">
+        <v>200</v>
+      </c>
+      <c r="J183" s="12">
+        <v>5</v>
+      </c>
+      <c r="K183">
+        <v>25</v>
+      </c>
+      <c r="L183">
+        <v>6</v>
+      </c>
+      <c r="P183">
+        <v>257517</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A184" s="12">
+        <v>10151</v>
+      </c>
+      <c r="B184" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>130级副本1号</v>
+      </c>
+      <c r="C184" s="12">
+        <f t="shared" si="8"/>
+        <v>10150</v>
+      </c>
+      <c r="D184" s="12">
+        <v>99</v>
+      </c>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12">
+        <v>0</v>
+      </c>
+      <c r="G184" s="12">
+        <v>0</v>
+      </c>
+      <c r="H184" s="12">
+        <v>130</v>
+      </c>
+      <c r="I184" s="12">
+        <v>200</v>
+      </c>
+      <c r="J184" s="12">
+        <v>5</v>
+      </c>
+      <c r="K184">
+        <v>26</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>489559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A185" s="12">
+        <v>10152</v>
+      </c>
+      <c r="B185" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>130级副本2号</v>
+      </c>
+      <c r="C185" s="12">
+        <f t="shared" si="8"/>
+        <v>10151</v>
+      </c>
+      <c r="D185" s="12">
+        <v>99</v>
+      </c>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12">
+        <v>0</v>
+      </c>
+      <c r="G185" s="12">
+        <v>0</v>
+      </c>
+      <c r="H185" s="12">
+        <v>130</v>
+      </c>
+      <c r="I185" s="12">
+        <v>200</v>
+      </c>
+      <c r="J185" s="12">
+        <v>5</v>
+      </c>
+      <c r="K185">
+        <v>26</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="P185">
+        <v>489559</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A186" s="12">
+        <v>10153</v>
+      </c>
+      <c r="B186" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>130级副本3号</v>
+      </c>
+      <c r="C186" s="12">
+        <f t="shared" si="8"/>
+        <v>10152</v>
+      </c>
+      <c r="D186" s="12">
+        <v>99</v>
+      </c>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12">
+        <v>0</v>
+      </c>
+      <c r="G186" s="12">
+        <v>0</v>
+      </c>
+      <c r="H186" s="12">
+        <v>130</v>
+      </c>
+      <c r="I186" s="12">
+        <v>200</v>
+      </c>
+      <c r="J186" s="12">
+        <v>5</v>
+      </c>
+      <c r="K186">
+        <v>26</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="P186">
+        <v>489559</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A187" s="12">
+        <v>10154</v>
+      </c>
+      <c r="B187" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>130级副本4号</v>
+      </c>
+      <c r="C187" s="12">
+        <f t="shared" si="8"/>
+        <v>10153</v>
+      </c>
+      <c r="D187" s="12">
+        <v>99</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12">
+        <v>0</v>
+      </c>
+      <c r="G187" s="12">
+        <v>0</v>
+      </c>
+      <c r="H187" s="12">
+        <v>130</v>
+      </c>
+      <c r="I187" s="12">
+        <v>200</v>
+      </c>
+      <c r="J187" s="12">
+        <v>5</v>
+      </c>
+      <c r="K187">
+        <v>26</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="P187">
+        <v>489559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A188" s="12">
+        <v>10155</v>
+      </c>
+      <c r="B188" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>130级副本5号</v>
+      </c>
+      <c r="C188" s="12">
+        <f t="shared" si="8"/>
+        <v>10154</v>
+      </c>
+      <c r="D188" s="12">
+        <v>99</v>
+      </c>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12">
+        <v>0</v>
+      </c>
+      <c r="G188" s="12">
+        <v>0</v>
+      </c>
+      <c r="H188" s="12">
+        <v>130</v>
+      </c>
+      <c r="I188" s="12">
+        <v>200</v>
+      </c>
+      <c r="J188" s="12">
+        <v>5</v>
+      </c>
+      <c r="K188">
+        <v>26</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="P188">
+        <v>489559</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A189" s="12">
+        <v>10156</v>
+      </c>
+      <c r="B189" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>130级副本6号</v>
+      </c>
+      <c r="C189" s="12">
+        <f t="shared" si="8"/>
+        <v>10155</v>
+      </c>
+      <c r="D189" s="12">
+        <v>99</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12">
+        <v>0</v>
+      </c>
+      <c r="G189" s="12">
+        <v>0</v>
+      </c>
+      <c r="H189" s="12">
+        <v>130</v>
+      </c>
+      <c r="I189" s="12">
+        <v>200</v>
+      </c>
+      <c r="J189" s="12">
+        <v>5</v>
+      </c>
+      <c r="K189">
+        <v>26</v>
+      </c>
+      <c r="L189">
+        <v>6</v>
+      </c>
+      <c r="P189">
+        <v>293736</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A190" s="12">
+        <v>10157</v>
+      </c>
+      <c r="B190" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>135级副本1号</v>
+      </c>
+      <c r="C190" s="12">
+        <f t="shared" si="8"/>
+        <v>10156</v>
+      </c>
+      <c r="D190" s="12">
+        <v>99</v>
+      </c>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12">
+        <v>0</v>
+      </c>
+      <c r="G190" s="12">
+        <v>0</v>
+      </c>
+      <c r="H190" s="12">
+        <v>135</v>
+      </c>
+      <c r="I190" s="12">
+        <v>200</v>
+      </c>
+      <c r="J190" s="12">
+        <v>5</v>
+      </c>
+      <c r="K190">
+        <v>27</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="P190">
+        <v>552833</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A191" s="12">
+        <v>10158</v>
+      </c>
+      <c r="B191" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>135级副本2号</v>
+      </c>
+      <c r="C191" s="12">
+        <f t="shared" si="8"/>
+        <v>10157</v>
+      </c>
+      <c r="D191" s="12">
+        <v>99</v>
+      </c>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12">
+        <v>0</v>
+      </c>
+      <c r="G191" s="12">
+        <v>0</v>
+      </c>
+      <c r="H191" s="12">
+        <v>135</v>
+      </c>
+      <c r="I191" s="12">
+        <v>200</v>
+      </c>
+      <c r="J191" s="12">
+        <v>5</v>
+      </c>
+      <c r="K191">
+        <v>27</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="P191">
+        <v>552833</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A192" s="12">
+        <v>10159</v>
+      </c>
+      <c r="B192" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>135级副本3号</v>
+      </c>
+      <c r="C192" s="12">
+        <f t="shared" si="8"/>
+        <v>10158</v>
+      </c>
+      <c r="D192" s="12">
+        <v>99</v>
+      </c>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12">
+        <v>0</v>
+      </c>
+      <c r="G192" s="12">
+        <v>0</v>
+      </c>
+      <c r="H192" s="12">
+        <v>135</v>
+      </c>
+      <c r="I192" s="12">
+        <v>200</v>
+      </c>
+      <c r="J192" s="12">
+        <v>5</v>
+      </c>
+      <c r="K192">
+        <v>27</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="P192">
+        <v>552833</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A193" s="12">
+        <v>10160</v>
+      </c>
+      <c r="B193" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>135级副本4号</v>
+      </c>
+      <c r="C193" s="12">
+        <f t="shared" si="8"/>
+        <v>10159</v>
+      </c>
+      <c r="D193" s="12">
+        <v>99</v>
+      </c>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12">
+        <v>0</v>
+      </c>
+      <c r="G193" s="12">
+        <v>0</v>
+      </c>
+      <c r="H193" s="12">
+        <v>135</v>
+      </c>
+      <c r="I193" s="12">
+        <v>200</v>
+      </c>
+      <c r="J193" s="12">
+        <v>5</v>
+      </c>
+      <c r="K193">
+        <v>27</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="P193">
+        <v>552833</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A194" s="12">
+        <v>10161</v>
+      </c>
+      <c r="B194" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>135级副本5号</v>
+      </c>
+      <c r="C194" s="12">
+        <f t="shared" si="8"/>
+        <v>10160</v>
+      </c>
+      <c r="D194" s="12">
+        <v>99</v>
+      </c>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12">
+        <v>0</v>
+      </c>
+      <c r="G194" s="12">
+        <v>0</v>
+      </c>
+      <c r="H194" s="12">
+        <v>135</v>
+      </c>
+      <c r="I194" s="12">
+        <v>200</v>
+      </c>
+      <c r="J194" s="12">
+        <v>5</v>
+      </c>
+      <c r="K194">
+        <v>27</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="P194">
+        <v>552833</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A195" s="12">
+        <v>10162</v>
+      </c>
+      <c r="B195" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>135级副本6号</v>
+      </c>
+      <c r="C195" s="12">
+        <f t="shared" si="8"/>
+        <v>10161</v>
+      </c>
+      <c r="D195" s="12">
+        <v>99</v>
+      </c>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12">
+        <v>0</v>
+      </c>
+      <c r="G195" s="12">
+        <v>0</v>
+      </c>
+      <c r="H195" s="12">
+        <v>135</v>
+      </c>
+      <c r="I195" s="12">
+        <v>200</v>
+      </c>
+      <c r="J195" s="12">
+        <v>5</v>
+      </c>
+      <c r="K195">
+        <v>27</v>
+      </c>
+      <c r="L195">
+        <v>6</v>
+      </c>
+      <c r="P195">
+        <v>331700</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A196" s="12">
+        <v>10163</v>
+      </c>
+      <c r="B196" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>140级副本1号</v>
+      </c>
+      <c r="C196" s="12">
+        <f t="shared" si="8"/>
+        <v>10162</v>
+      </c>
+      <c r="D196" s="12">
+        <v>99</v>
+      </c>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12">
+        <v>0</v>
+      </c>
+      <c r="G196" s="12">
+        <v>0</v>
+      </c>
+      <c r="H196" s="12">
+        <v>140</v>
+      </c>
+      <c r="I196" s="12">
+        <v>200</v>
+      </c>
+      <c r="J196" s="12">
+        <v>5</v>
+      </c>
+      <c r="K196">
+        <v>28</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="P196">
+        <v>618516</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A197" s="12">
+        <v>10164</v>
+      </c>
+      <c r="B197" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>140级副本2号</v>
+      </c>
+      <c r="C197" s="12">
+        <f t="shared" si="8"/>
+        <v>10163</v>
+      </c>
+      <c r="D197" s="12">
+        <v>99</v>
+      </c>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12">
+        <v>0</v>
+      </c>
+      <c r="G197" s="12">
+        <v>0</v>
+      </c>
+      <c r="H197" s="12">
+        <v>140</v>
+      </c>
+      <c r="I197" s="12">
+        <v>200</v>
+      </c>
+      <c r="J197" s="12">
+        <v>5</v>
+      </c>
+      <c r="K197">
+        <v>28</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="P197">
+        <v>618516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A198" s="12">
+        <v>10165</v>
+      </c>
+      <c r="B198" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>140级副本3号</v>
+      </c>
+      <c r="C198" s="12">
+        <f t="shared" si="8"/>
+        <v>10164</v>
+      </c>
+      <c r="D198" s="12">
+        <v>99</v>
+      </c>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12">
+        <v>0</v>
+      </c>
+      <c r="G198" s="12">
+        <v>0</v>
+      </c>
+      <c r="H198" s="12">
+        <v>140</v>
+      </c>
+      <c r="I198" s="12">
+        <v>200</v>
+      </c>
+      <c r="J198" s="12">
+        <v>5</v>
+      </c>
+      <c r="K198">
+        <v>28</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="P198">
+        <v>618516</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A199" s="12">
+        <v>10166</v>
+      </c>
+      <c r="B199" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>140级副本4号</v>
+      </c>
+      <c r="C199" s="12">
+        <f t="shared" si="8"/>
+        <v>10165</v>
+      </c>
+      <c r="D199" s="12">
+        <v>99</v>
+      </c>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12">
+        <v>0</v>
+      </c>
+      <c r="G199" s="12">
+        <v>0</v>
+      </c>
+      <c r="H199" s="12">
+        <v>140</v>
+      </c>
+      <c r="I199" s="12">
+        <v>200</v>
+      </c>
+      <c r="J199" s="12">
+        <v>5</v>
+      </c>
+      <c r="K199">
+        <v>28</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="P199">
+        <v>618516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A200" s="12">
+        <v>10167</v>
+      </c>
+      <c r="B200" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>140级副本5号</v>
+      </c>
+      <c r="C200" s="12">
+        <f t="shared" si="8"/>
+        <v>10166</v>
+      </c>
+      <c r="D200" s="12">
+        <v>99</v>
+      </c>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12">
+        <v>0</v>
+      </c>
+      <c r="G200" s="12">
+        <v>0</v>
+      </c>
+      <c r="H200" s="12">
+        <v>140</v>
+      </c>
+      <c r="I200" s="12">
+        <v>200</v>
+      </c>
+      <c r="J200" s="12">
+        <v>5</v>
+      </c>
+      <c r="K200">
+        <v>28</v>
+      </c>
+      <c r="L200">
+        <v>5</v>
+      </c>
+      <c r="P200">
+        <v>618516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A201" s="12">
+        <v>10168</v>
+      </c>
+      <c r="B201" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>140级副本6号</v>
+      </c>
+      <c r="C201" s="12">
+        <f t="shared" si="8"/>
+        <v>10167</v>
+      </c>
+      <c r="D201" s="12">
+        <v>99</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12">
+        <v>0</v>
+      </c>
+      <c r="G201" s="12">
+        <v>0</v>
+      </c>
+      <c r="H201" s="12">
+        <v>140</v>
+      </c>
+      <c r="I201" s="12">
+        <v>200</v>
+      </c>
+      <c r="J201" s="12">
+        <v>5</v>
+      </c>
+      <c r="K201">
+        <v>28</v>
+      </c>
+      <c r="L201">
+        <v>6</v>
+      </c>
+      <c r="P201">
+        <v>371110</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A202" s="12">
+        <v>10169</v>
+      </c>
+      <c r="B202" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>145级副本1号</v>
+      </c>
+      <c r="C202" s="12">
+        <f t="shared" si="8"/>
+        <v>10168</v>
+      </c>
+      <c r="D202" s="12">
+        <v>99</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12">
+        <v>0</v>
+      </c>
+      <c r="G202" s="12">
+        <v>0</v>
+      </c>
+      <c r="H202" s="12">
+        <v>145</v>
+      </c>
+      <c r="I202" s="12">
+        <v>200</v>
+      </c>
+      <c r="J202" s="12">
+        <v>5</v>
+      </c>
+      <c r="K202">
+        <v>29</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="P202">
+        <v>686087</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A203" s="12">
+        <v>10170</v>
+      </c>
+      <c r="B203" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>145级副本2号</v>
+      </c>
+      <c r="C203" s="12">
+        <f t="shared" si="8"/>
+        <v>10169</v>
+      </c>
+      <c r="D203" s="12">
+        <v>99</v>
+      </c>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12">
+        <v>0</v>
+      </c>
+      <c r="G203" s="12">
+        <v>0</v>
+      </c>
+      <c r="H203" s="12">
+        <v>145</v>
+      </c>
+      <c r="I203" s="12">
+        <v>200</v>
+      </c>
+      <c r="J203" s="12">
+        <v>5</v>
+      </c>
+      <c r="K203">
+        <v>29</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="P203">
+        <v>686087</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A204" s="12">
+        <v>10171</v>
+      </c>
+      <c r="B204" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>145级副本3号</v>
+      </c>
+      <c r="C204" s="12">
+        <f t="shared" si="8"/>
+        <v>10170</v>
+      </c>
+      <c r="D204" s="12">
+        <v>99</v>
+      </c>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12">
+        <v>0</v>
+      </c>
+      <c r="G204" s="12">
+        <v>0</v>
+      </c>
+      <c r="H204" s="12">
+        <v>145</v>
+      </c>
+      <c r="I204" s="12">
+        <v>200</v>
+      </c>
+      <c r="J204" s="12">
+        <v>5</v>
+      </c>
+      <c r="K204">
+        <v>29</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="P204">
+        <v>686087</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A205" s="12">
+        <v>10172</v>
+      </c>
+      <c r="B205" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>145级副本4号</v>
+      </c>
+      <c r="C205" s="12">
+        <f t="shared" si="8"/>
+        <v>10171</v>
+      </c>
+      <c r="D205" s="12">
+        <v>99</v>
+      </c>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12">
+        <v>0</v>
+      </c>
+      <c r="G205" s="12">
+        <v>0</v>
+      </c>
+      <c r="H205" s="12">
+        <v>145</v>
+      </c>
+      <c r="I205" s="12">
+        <v>200</v>
+      </c>
+      <c r="J205" s="12">
+        <v>5</v>
+      </c>
+      <c r="K205">
+        <v>29</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="P205">
+        <v>686087</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A206" s="12">
+        <v>10173</v>
+      </c>
+      <c r="B206" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>145级副本5号</v>
+      </c>
+      <c r="C206" s="12">
+        <f t="shared" si="8"/>
+        <v>10172</v>
+      </c>
+      <c r="D206" s="12">
+        <v>99</v>
+      </c>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12">
+        <v>0</v>
+      </c>
+      <c r="G206" s="12">
+        <v>0</v>
+      </c>
+      <c r="H206" s="12">
+        <v>145</v>
+      </c>
+      <c r="I206" s="12">
+        <v>200</v>
+      </c>
+      <c r="J206" s="12">
+        <v>5</v>
+      </c>
+      <c r="K206">
+        <v>29</v>
+      </c>
+      <c r="L206">
+        <v>5</v>
+      </c>
+      <c r="P206">
+        <v>686087</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A207" s="12">
+        <v>10174</v>
+      </c>
+      <c r="B207" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>145级副本6号</v>
+      </c>
+      <c r="C207" s="12">
+        <f t="shared" si="8"/>
+        <v>10173</v>
+      </c>
+      <c r="D207" s="12">
+        <v>99</v>
+      </c>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12">
+        <v>0</v>
+      </c>
+      <c r="G207" s="12">
+        <v>0</v>
+      </c>
+      <c r="H207" s="12">
+        <v>145</v>
+      </c>
+      <c r="I207" s="12">
+        <v>200</v>
+      </c>
+      <c r="J207" s="12">
+        <v>5</v>
+      </c>
+      <c r="K207">
+        <v>29</v>
+      </c>
+      <c r="L207">
+        <v>6</v>
+      </c>
+      <c r="P207">
+        <v>411653</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A208" s="12">
+        <v>10175</v>
+      </c>
+      <c r="B208" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>150级副本1号</v>
+      </c>
+      <c r="C208" s="12">
+        <f t="shared" si="8"/>
+        <v>10174</v>
+      </c>
+      <c r="D208" s="12">
+        <v>99</v>
+      </c>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12">
+        <v>0</v>
+      </c>
+      <c r="G208" s="12">
+        <v>0</v>
+      </c>
+      <c r="H208" s="12">
+        <v>150</v>
+      </c>
+      <c r="I208" s="12">
+        <v>200</v>
+      </c>
+      <c r="J208" s="12">
+        <v>5</v>
+      </c>
+      <c r="K208">
+        <v>30</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="P208">
+        <v>757495</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A209" s="12">
+        <v>10176</v>
+      </c>
+      <c r="B209" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>150级副本2号</v>
+      </c>
+      <c r="C209" s="12">
+        <f t="shared" si="8"/>
+        <v>10175</v>
+      </c>
+      <c r="D209" s="12">
+        <v>99</v>
+      </c>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12">
+        <v>0</v>
+      </c>
+      <c r="G209" s="12">
+        <v>0</v>
+      </c>
+      <c r="H209" s="12">
+        <v>150</v>
+      </c>
+      <c r="I209" s="12">
+        <v>200</v>
+      </c>
+      <c r="J209" s="12">
+        <v>5</v>
+      </c>
+      <c r="K209">
+        <v>30</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="P209">
+        <v>757495</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A210" s="12">
+        <v>10177</v>
+      </c>
+      <c r="B210" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>150级副本3号</v>
+      </c>
+      <c r="C210" s="12">
+        <f t="shared" si="8"/>
+        <v>10176</v>
+      </c>
+      <c r="D210" s="12">
+        <v>99</v>
+      </c>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12">
+        <v>0</v>
+      </c>
+      <c r="G210" s="12">
+        <v>0</v>
+      </c>
+      <c r="H210" s="12">
+        <v>150</v>
+      </c>
+      <c r="I210" s="12">
+        <v>200</v>
+      </c>
+      <c r="J210" s="12">
+        <v>5</v>
+      </c>
+      <c r="K210">
+        <v>30</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="P210">
+        <v>757495</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A211" s="12">
+        <v>10178</v>
+      </c>
+      <c r="B211" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>150级副本4号</v>
+      </c>
+      <c r="C211" s="12">
+        <f t="shared" si="8"/>
+        <v>10177</v>
+      </c>
+      <c r="D211" s="12">
+        <v>99</v>
+      </c>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12">
+        <v>0</v>
+      </c>
+      <c r="G211" s="12">
+        <v>0</v>
+      </c>
+      <c r="H211" s="12">
+        <v>150</v>
+      </c>
+      <c r="I211" s="12">
+        <v>200</v>
+      </c>
+      <c r="J211" s="12">
+        <v>5</v>
+      </c>
+      <c r="K211">
+        <v>30</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="P211">
+        <v>757495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A212" s="12">
+        <v>10179</v>
+      </c>
+      <c r="B212" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>150级副本5号</v>
+      </c>
+      <c r="C212" s="12">
+        <f t="shared" si="8"/>
+        <v>10178</v>
+      </c>
+      <c r="D212" s="12">
+        <v>99</v>
+      </c>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12">
+        <v>0</v>
+      </c>
+      <c r="G212" s="12">
+        <v>0</v>
+      </c>
+      <c r="H212" s="12">
+        <v>150</v>
+      </c>
+      <c r="I212" s="12">
+        <v>200</v>
+      </c>
+      <c r="J212" s="12">
+        <v>5</v>
+      </c>
+      <c r="K212">
+        <v>30</v>
+      </c>
+      <c r="L212">
+        <v>5</v>
+      </c>
+      <c r="P212">
+        <v>757495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A213" s="12">
+        <v>10180</v>
+      </c>
+      <c r="B213" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>150级副本6号</v>
+      </c>
+      <c r="C213" s="12">
+        <f t="shared" si="8"/>
+        <v>10179</v>
+      </c>
+      <c r="D213" s="12">
+        <v>99</v>
+      </c>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12">
+        <v>0</v>
+      </c>
+      <c r="G213" s="12">
+        <v>0</v>
+      </c>
+      <c r="H213" s="12">
+        <v>150</v>
+      </c>
+      <c r="I213" s="12">
+        <v>200</v>
+      </c>
+      <c r="J213" s="12">
+        <v>5</v>
+      </c>
+      <c r="K213">
+        <v>30</v>
+      </c>
+      <c r="L213">
+        <v>6</v>
+      </c>
+      <c r="P213">
+        <v>454497</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A214" s="12">
+        <v>10181</v>
+      </c>
+      <c r="B214" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>155级副本1号</v>
+      </c>
+      <c r="C214" s="12">
+        <f t="shared" si="8"/>
+        <v>10180</v>
+      </c>
+      <c r="D214" s="12">
+        <v>99</v>
+      </c>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12">
+        <v>0</v>
+      </c>
+      <c r="G214" s="12">
+        <v>0</v>
+      </c>
+      <c r="H214" s="12">
+        <v>155</v>
+      </c>
+      <c r="I214" s="12">
+        <v>200</v>
+      </c>
+      <c r="J214" s="12">
+        <v>5</v>
+      </c>
+      <c r="K214">
+        <v>31</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="P214">
+        <v>836336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A215" s="12">
+        <v>10182</v>
+      </c>
+      <c r="B215" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>155级副本2号</v>
+      </c>
+      <c r="C215" s="12">
+        <f t="shared" si="8"/>
+        <v>10181</v>
+      </c>
+      <c r="D215" s="12">
+        <v>99</v>
+      </c>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12">
+        <v>0</v>
+      </c>
+      <c r="G215" s="12">
+        <v>0</v>
+      </c>
+      <c r="H215" s="12">
+        <v>155</v>
+      </c>
+      <c r="I215" s="12">
+        <v>200</v>
+      </c>
+      <c r="J215" s="12">
+        <v>5</v>
+      </c>
+      <c r="K215">
+        <v>31</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="P215">
+        <v>836336</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A216" s="12">
+        <v>10183</v>
+      </c>
+      <c r="B216" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>155级副本3号</v>
+      </c>
+      <c r="C216" s="12">
+        <f t="shared" si="8"/>
+        <v>10182</v>
+      </c>
+      <c r="D216" s="12">
+        <v>99</v>
+      </c>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12">
+        <v>0</v>
+      </c>
+      <c r="G216" s="12">
+        <v>0</v>
+      </c>
+      <c r="H216" s="12">
+        <v>155</v>
+      </c>
+      <c r="I216" s="12">
+        <v>200</v>
+      </c>
+      <c r="J216" s="12">
+        <v>5</v>
+      </c>
+      <c r="K216">
+        <v>31</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="P216">
+        <v>836336</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A217" s="12">
+        <v>10184</v>
+      </c>
+      <c r="B217" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>155级副本4号</v>
+      </c>
+      <c r="C217" s="12">
+        <f t="shared" si="8"/>
+        <v>10183</v>
+      </c>
+      <c r="D217" s="12">
+        <v>99</v>
+      </c>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12">
+        <v>0</v>
+      </c>
+      <c r="G217" s="12">
+        <v>0</v>
+      </c>
+      <c r="H217" s="12">
+        <v>155</v>
+      </c>
+      <c r="I217" s="12">
+        <v>200</v>
+      </c>
+      <c r="J217" s="12">
+        <v>5</v>
+      </c>
+      <c r="K217">
+        <v>31</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="P217">
+        <v>836336</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A218" s="12">
+        <v>10185</v>
+      </c>
+      <c r="B218" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>155级副本5号</v>
+      </c>
+      <c r="C218" s="12">
+        <f t="shared" si="8"/>
+        <v>10184</v>
+      </c>
+      <c r="D218" s="12">
+        <v>99</v>
+      </c>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12">
+        <v>0</v>
+      </c>
+      <c r="G218" s="12">
+        <v>0</v>
+      </c>
+      <c r="H218" s="12">
+        <v>155</v>
+      </c>
+      <c r="I218" s="12">
+        <v>200</v>
+      </c>
+      <c r="J218" s="12">
+        <v>5</v>
+      </c>
+      <c r="K218">
+        <v>31</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="P218">
+        <v>836336</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A219" s="12">
+        <v>10186</v>
+      </c>
+      <c r="B219" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>155级副本6号</v>
+      </c>
+      <c r="C219" s="12">
+        <f t="shared" si="8"/>
+        <v>10185</v>
+      </c>
+      <c r="D219" s="12">
+        <v>99</v>
+      </c>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12">
+        <v>0</v>
+      </c>
+      <c r="G219" s="12">
+        <v>0</v>
+      </c>
+      <c r="H219" s="12">
+        <v>155</v>
+      </c>
+      <c r="I219" s="12">
+        <v>200</v>
+      </c>
+      <c r="J219" s="12">
+        <v>5</v>
+      </c>
+      <c r="K219">
+        <v>31</v>
+      </c>
+      <c r="L219">
+        <v>6</v>
+      </c>
+      <c r="P219">
+        <v>501802</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A220" s="12">
+        <v>10187</v>
+      </c>
+      <c r="B220" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>160级副本1号</v>
+      </c>
+      <c r="C220" s="12">
+        <f t="shared" si="8"/>
+        <v>10186</v>
+      </c>
+      <c r="D220" s="12">
+        <v>99</v>
+      </c>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12">
+        <v>0</v>
+      </c>
+      <c r="G220" s="12">
+        <v>0</v>
+      </c>
+      <c r="H220" s="12">
+        <v>160</v>
+      </c>
+      <c r="I220" s="12">
+        <v>200</v>
+      </c>
+      <c r="J220" s="12">
+        <v>5</v>
+      </c>
+      <c r="K220">
+        <v>32</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="P220">
+        <v>923382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A221" s="12">
+        <v>10188</v>
+      </c>
+      <c r="B221" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>160级副本2号</v>
+      </c>
+      <c r="C221" s="12">
+        <f t="shared" si="8"/>
+        <v>10187</v>
+      </c>
+      <c r="D221" s="12">
+        <v>99</v>
+      </c>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12">
+        <v>0</v>
+      </c>
+      <c r="G221" s="12">
+        <v>0</v>
+      </c>
+      <c r="H221" s="12">
+        <v>160</v>
+      </c>
+      <c r="I221" s="12">
+        <v>200</v>
+      </c>
+      <c r="J221" s="12">
+        <v>5</v>
+      </c>
+      <c r="K221">
+        <v>32</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="P221">
+        <v>923382</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A222" s="12">
+        <v>10189</v>
+      </c>
+      <c r="B222" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>160级副本3号</v>
+      </c>
+      <c r="C222" s="12">
+        <f t="shared" si="8"/>
+        <v>10188</v>
+      </c>
+      <c r="D222" s="12">
+        <v>99</v>
+      </c>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12">
+        <v>0</v>
+      </c>
+      <c r="G222" s="12">
+        <v>0</v>
+      </c>
+      <c r="H222" s="12">
+        <v>160</v>
+      </c>
+      <c r="I222" s="12">
+        <v>200</v>
+      </c>
+      <c r="J222" s="12">
+        <v>5</v>
+      </c>
+      <c r="K222">
+        <v>32</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="P222">
+        <v>923382</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A223" s="12">
+        <v>10190</v>
+      </c>
+      <c r="B223" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>160级副本4号</v>
+      </c>
+      <c r="C223" s="12">
+        <f t="shared" si="8"/>
+        <v>10189</v>
+      </c>
+      <c r="D223" s="12">
+        <v>99</v>
+      </c>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12">
+        <v>0</v>
+      </c>
+      <c r="G223" s="12">
+        <v>0</v>
+      </c>
+      <c r="H223" s="12">
+        <v>160</v>
+      </c>
+      <c r="I223" s="12">
+        <v>200</v>
+      </c>
+      <c r="J223" s="12">
+        <v>5</v>
+      </c>
+      <c r="K223">
+        <v>32</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>923382</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A224" s="12">
+        <v>10191</v>
+      </c>
+      <c r="B224" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>160级副本5号</v>
+      </c>
+      <c r="C224" s="12">
+        <f t="shared" si="8"/>
+        <v>10190</v>
+      </c>
+      <c r="D224" s="12">
+        <v>99</v>
+      </c>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12">
+        <v>0</v>
+      </c>
+      <c r="G224" s="12">
+        <v>0</v>
+      </c>
+      <c r="H224" s="12">
+        <v>160</v>
+      </c>
+      <c r="I224" s="12">
+        <v>200</v>
+      </c>
+      <c r="J224" s="12">
+        <v>5</v>
+      </c>
+      <c r="K224">
+        <v>32</v>
+      </c>
+      <c r="L224">
+        <v>5</v>
+      </c>
+      <c r="P224">
+        <v>923382</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A225" s="12">
+        <v>10192</v>
+      </c>
+      <c r="B225" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>160级副本6号</v>
+      </c>
+      <c r="C225" s="12">
+        <f t="shared" si="8"/>
+        <v>10191</v>
+      </c>
+      <c r="D225" s="12">
+        <v>99</v>
+      </c>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12">
+        <v>0</v>
+      </c>
+      <c r="G225" s="12">
+        <v>0</v>
+      </c>
+      <c r="H225" s="12">
+        <v>160</v>
+      </c>
+      <c r="I225" s="12">
+        <v>200</v>
+      </c>
+      <c r="J225" s="12">
+        <v>5</v>
+      </c>
+      <c r="K225">
+        <v>32</v>
+      </c>
+      <c r="L225">
+        <v>6</v>
+      </c>
+      <c r="P225">
+        <v>554029</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A226" s="12">
+        <v>10193</v>
+      </c>
+      <c r="B226" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>165级副本1号</v>
+      </c>
+      <c r="C226" s="12">
+        <f t="shared" si="8"/>
+        <v>10192</v>
+      </c>
+      <c r="D226" s="12">
+        <v>99</v>
+      </c>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12">
+        <v>0</v>
+      </c>
+      <c r="G226" s="12">
+        <v>0</v>
+      </c>
+      <c r="H226" s="12">
+        <v>165</v>
+      </c>
+      <c r="I226" s="12">
+        <v>200</v>
+      </c>
+      <c r="J226" s="12">
+        <v>5</v>
+      </c>
+      <c r="K226">
+        <v>33</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="P226">
+        <v>1019488</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A227" s="12">
+        <v>10194</v>
+      </c>
+      <c r="B227" s="12" t="str">
+        <f t="shared" ref="B227:B232" si="9">H227&amp;"级副本"&amp;L227&amp;"号"</f>
+        <v>165级副本2号</v>
+      </c>
+      <c r="C227" s="12">
+        <f t="shared" si="8"/>
+        <v>10193</v>
+      </c>
+      <c r="D227" s="12">
+        <v>99</v>
+      </c>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12">
+        <v>0</v>
+      </c>
+      <c r="G227" s="12">
+        <v>0</v>
+      </c>
+      <c r="H227" s="12">
+        <v>165</v>
+      </c>
+      <c r="I227" s="12">
+        <v>200</v>
+      </c>
+      <c r="J227" s="12">
+        <v>5</v>
+      </c>
+      <c r="K227">
+        <v>33</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="P227">
+        <v>1019488</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A228" s="12">
+        <v>10195</v>
+      </c>
+      <c r="B228" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>165级副本3号</v>
+      </c>
+      <c r="C228" s="12">
+        <f t="shared" si="8"/>
+        <v>10194</v>
+      </c>
+      <c r="D228" s="12">
+        <v>99</v>
+      </c>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12">
+        <v>0</v>
+      </c>
+      <c r="G228" s="12">
+        <v>0</v>
+      </c>
+      <c r="H228" s="12">
+        <v>165</v>
+      </c>
+      <c r="I228" s="12">
+        <v>200</v>
+      </c>
+      <c r="J228" s="12">
+        <v>5</v>
+      </c>
+      <c r="K228">
+        <v>33</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>1019488</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A229" s="12">
+        <v>10196</v>
+      </c>
+      <c r="B229" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>165级副本4号</v>
+      </c>
+      <c r="C229" s="12">
+        <f t="shared" si="8"/>
+        <v>10195</v>
+      </c>
+      <c r="D229" s="12">
+        <v>99</v>
+      </c>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12">
+        <v>0</v>
+      </c>
+      <c r="G229" s="12">
+        <v>0</v>
+      </c>
+      <c r="H229" s="12">
+        <v>165</v>
+      </c>
+      <c r="I229" s="12">
+        <v>200</v>
+      </c>
+      <c r="J229" s="12">
+        <v>5</v>
+      </c>
+      <c r="K229">
+        <v>33</v>
+      </c>
+      <c r="L229">
+        <v>4</v>
+      </c>
+      <c r="P229">
+        <v>1019488</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A230" s="12">
+        <v>10197</v>
+      </c>
+      <c r="B230" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>165级副本5号</v>
+      </c>
+      <c r="C230" s="12">
+        <f t="shared" si="8"/>
+        <v>10196</v>
+      </c>
+      <c r="D230" s="12">
+        <v>99</v>
+      </c>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12">
+        <v>0</v>
+      </c>
+      <c r="G230" s="12">
+        <v>0</v>
+      </c>
+      <c r="H230" s="12">
+        <v>165</v>
+      </c>
+      <c r="I230" s="12">
+        <v>200</v>
+      </c>
+      <c r="J230" s="12">
+        <v>5</v>
+      </c>
+      <c r="K230">
+        <v>33</v>
+      </c>
+      <c r="L230">
+        <v>5</v>
+      </c>
+      <c r="P230">
+        <v>1019488</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A231" s="12">
+        <v>10198</v>
+      </c>
+      <c r="B231" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>165级副本6号</v>
+      </c>
+      <c r="C231" s="12">
+        <f t="shared" si="8"/>
+        <v>10197</v>
+      </c>
+      <c r="D231" s="12">
+        <v>99</v>
+      </c>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12">
+        <v>0</v>
+      </c>
+      <c r="G231" s="12">
+        <v>0</v>
+      </c>
+      <c r="H231" s="12">
+        <v>165</v>
+      </c>
+      <c r="I231" s="12">
+        <v>200</v>
+      </c>
+      <c r="J231" s="12">
+        <v>5</v>
+      </c>
+      <c r="K231">
+        <v>33</v>
+      </c>
+      <c r="L231">
+        <v>6</v>
+      </c>
+      <c r="P231">
+        <v>611693</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A232" s="12">
+        <v>10199</v>
+      </c>
+      <c r="B232" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>170级副本1号</v>
+      </c>
+      <c r="C232" s="12">
+        <f t="shared" si="8"/>
+        <v>10198</v>
+      </c>
+      <c r="D232" s="12">
+        <v>99</v>
+      </c>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12">
+        <v>0</v>
+      </c>
+      <c r="G232" s="12">
+        <v>0</v>
+      </c>
+      <c r="H232" s="12">
+        <v>170</v>
+      </c>
+      <c r="I232" s="12">
+        <v>200</v>
+      </c>
+      <c r="J232" s="12">
+        <v>5</v>
+      </c>
+      <c r="K232">
+        <v>34</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="P232">
+        <v>1125596</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A233" s="12">
+        <v>10200</v>
+      </c>
+      <c r="B233" s="12" t="str">
+        <f t="shared" ref="B233:B272" si="10">H233&amp;"级副本"&amp;L233&amp;"号"</f>
+        <v>175级副本2号</v>
+      </c>
+      <c r="C233" s="12">
+        <f t="shared" ref="C233:C272" si="11">A232</f>
+        <v>10199</v>
+      </c>
+      <c r="D233" s="12">
+        <v>99</v>
+      </c>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12">
+        <v>0</v>
+      </c>
+      <c r="G233" s="12">
+        <v>0</v>
+      </c>
+      <c r="H233" s="12">
+        <v>175</v>
+      </c>
+      <c r="I233" s="12">
+        <v>200</v>
+      </c>
+      <c r="J233" s="12">
+        <v>5</v>
+      </c>
+      <c r="K233">
+        <v>34</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="P233">
+        <v>1125596</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A234" s="12">
+        <v>10201</v>
+      </c>
+      <c r="B234" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>180级副本3号</v>
+      </c>
+      <c r="C234" s="12">
+        <f t="shared" si="11"/>
+        <v>10200</v>
+      </c>
+      <c r="D234" s="12">
+        <v>99</v>
+      </c>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12">
+        <v>0</v>
+      </c>
+      <c r="G234" s="12">
+        <v>0</v>
+      </c>
+      <c r="H234" s="12">
+        <v>180</v>
+      </c>
+      <c r="I234" s="12">
+        <v>200</v>
+      </c>
+      <c r="J234" s="12">
+        <v>5</v>
+      </c>
+      <c r="K234">
+        <v>34</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="P234">
+        <v>1125596</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A235" s="12">
+        <v>10202</v>
+      </c>
+      <c r="B235" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>185级副本4号</v>
+      </c>
+      <c r="C235" s="12">
+        <f t="shared" si="11"/>
+        <v>10201</v>
+      </c>
+      <c r="D235" s="12">
+        <v>99</v>
+      </c>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12">
+        <v>0</v>
+      </c>
+      <c r="G235" s="12">
+        <v>0</v>
+      </c>
+      <c r="H235" s="12">
+        <v>185</v>
+      </c>
+      <c r="I235" s="12">
+        <v>200</v>
+      </c>
+      <c r="J235" s="12">
+        <v>5</v>
+      </c>
+      <c r="K235">
+        <v>34</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="P235">
+        <v>1125596</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A236" s="12">
+        <v>10203</v>
+      </c>
+      <c r="B236" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>190级副本5号</v>
+      </c>
+      <c r="C236" s="12">
+        <f t="shared" si="11"/>
+        <v>10202</v>
+      </c>
+      <c r="D236" s="12">
+        <v>99</v>
+      </c>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12">
+        <v>0</v>
+      </c>
+      <c r="G236" s="12">
+        <v>0</v>
+      </c>
+      <c r="H236" s="12">
+        <v>190</v>
+      </c>
+      <c r="I236" s="12">
+        <v>200</v>
+      </c>
+      <c r="J236" s="12">
+        <v>5</v>
+      </c>
+      <c r="K236">
+        <v>34</v>
+      </c>
+      <c r="L236">
+        <v>5</v>
+      </c>
+      <c r="P236">
+        <v>1125596</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A237" s="12">
+        <v>10204</v>
+      </c>
+      <c r="B237" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>195级副本6号</v>
+      </c>
+      <c r="C237" s="12">
+        <f t="shared" si="11"/>
+        <v>10203</v>
+      </c>
+      <c r="D237" s="12">
+        <v>99</v>
+      </c>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12">
+        <v>0</v>
+      </c>
+      <c r="G237" s="12">
+        <v>0</v>
+      </c>
+      <c r="H237" s="12">
+        <v>195</v>
+      </c>
+      <c r="I237" s="12">
+        <v>200</v>
+      </c>
+      <c r="J237" s="12">
+        <v>5</v>
+      </c>
+      <c r="K237">
+        <v>34</v>
+      </c>
+      <c r="L237">
+        <v>6</v>
+      </c>
+      <c r="P237">
+        <v>675358</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A238" s="12">
+        <v>10205</v>
+      </c>
+      <c r="B238" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>200级副本1号</v>
+      </c>
+      <c r="C238" s="12">
+        <f t="shared" si="11"/>
+        <v>10204</v>
+      </c>
+      <c r="D238" s="12">
+        <v>99</v>
+      </c>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12">
+        <v>0</v>
+      </c>
+      <c r="G238" s="12">
+        <v>0</v>
+      </c>
+      <c r="H238" s="12">
+        <v>200</v>
+      </c>
+      <c r="I238" s="12">
+        <v>200</v>
+      </c>
+      <c r="J238" s="12">
+        <v>5</v>
+      </c>
+      <c r="K238">
+        <v>35</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="P238">
+        <v>1242749</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A239" s="12">
+        <v>10206</v>
+      </c>
+      <c r="B239" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>205级副本2号</v>
+      </c>
+      <c r="C239" s="12">
+        <f t="shared" si="11"/>
+        <v>10205</v>
+      </c>
+      <c r="D239" s="12">
+        <v>99</v>
+      </c>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12">
+        <v>0</v>
+      </c>
+      <c r="G239" s="12">
+        <v>0</v>
+      </c>
+      <c r="H239" s="12">
+        <v>205</v>
+      </c>
+      <c r="I239" s="12">
+        <v>200</v>
+      </c>
+      <c r="J239" s="12">
+        <v>5</v>
+      </c>
+      <c r="K239">
+        <v>35</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="P239">
+        <v>1242749</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A240" s="12">
+        <v>10207</v>
+      </c>
+      <c r="B240" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>210级副本3号</v>
+      </c>
+      <c r="C240" s="12">
+        <f t="shared" si="11"/>
+        <v>10206</v>
+      </c>
+      <c r="D240" s="12">
+        <v>99</v>
+      </c>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12">
+        <v>0</v>
+      </c>
+      <c r="G240" s="12">
+        <v>0</v>
+      </c>
+      <c r="H240" s="12">
+        <v>210</v>
+      </c>
+      <c r="I240" s="12">
+        <v>200</v>
+      </c>
+      <c r="J240" s="12">
+        <v>5</v>
+      </c>
+      <c r="K240">
+        <v>35</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="P240">
+        <v>1242749</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A241" s="12">
+        <v>10208</v>
+      </c>
+      <c r="B241" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>215级副本4号</v>
+      </c>
+      <c r="C241" s="12">
+        <f t="shared" si="11"/>
+        <v>10207</v>
+      </c>
+      <c r="D241" s="12">
+        <v>99</v>
+      </c>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12">
+        <v>0</v>
+      </c>
+      <c r="G241" s="12">
+        <v>0</v>
+      </c>
+      <c r="H241" s="12">
+        <v>215</v>
+      </c>
+      <c r="I241" s="12">
+        <v>200</v>
+      </c>
+      <c r="J241" s="12">
+        <v>5</v>
+      </c>
+      <c r="K241">
+        <v>35</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>1242749</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A242" s="12">
+        <v>10209</v>
+      </c>
+      <c r="B242" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>220级副本5号</v>
+      </c>
+      <c r="C242" s="12">
+        <f t="shared" si="11"/>
+        <v>10208</v>
+      </c>
+      <c r="D242" s="12">
+        <v>99</v>
+      </c>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12">
+        <v>0</v>
+      </c>
+      <c r="G242" s="12">
+        <v>0</v>
+      </c>
+      <c r="H242" s="12">
+        <v>220</v>
+      </c>
+      <c r="I242" s="12">
+        <v>200</v>
+      </c>
+      <c r="J242" s="12">
+        <v>5</v>
+      </c>
+      <c r="K242">
+        <v>35</v>
+      </c>
+      <c r="L242">
+        <v>5</v>
+      </c>
+      <c r="P242">
+        <v>1242749</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A243" s="12">
+        <v>10210</v>
+      </c>
+      <c r="B243" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>225级副本6号</v>
+      </c>
+      <c r="C243" s="12">
+        <f t="shared" si="11"/>
+        <v>10209</v>
+      </c>
+      <c r="D243" s="12">
+        <v>99</v>
+      </c>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12">
+        <v>0</v>
+      </c>
+      <c r="G243" s="12">
+        <v>0</v>
+      </c>
+      <c r="H243" s="12">
+        <v>225</v>
+      </c>
+      <c r="I243" s="12">
+        <v>200</v>
+      </c>
+      <c r="J243" s="12">
+        <v>5</v>
+      </c>
+      <c r="K243">
+        <v>35</v>
+      </c>
+      <c r="L243">
+        <v>6</v>
+      </c>
+      <c r="P243">
+        <v>745649</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A244" s="12">
+        <v>10211</v>
+      </c>
+      <c r="B244" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>230级副本1号</v>
+      </c>
+      <c r="C244" s="12">
+        <f t="shared" si="11"/>
+        <v>10210</v>
+      </c>
+      <c r="D244" s="12">
+        <v>99</v>
+      </c>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12">
+        <v>0</v>
+      </c>
+      <c r="G244" s="12">
+        <v>0</v>
+      </c>
+      <c r="H244" s="12">
+        <v>230</v>
+      </c>
+      <c r="I244" s="12">
+        <v>200</v>
+      </c>
+      <c r="J244" s="12">
+        <v>5</v>
+      </c>
+      <c r="K244">
+        <v>36</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="P244">
+        <v>1372094</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A245" s="12">
+        <v>10212</v>
+      </c>
+      <c r="B245" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>235级副本2号</v>
+      </c>
+      <c r="C245" s="12">
+        <f t="shared" si="11"/>
+        <v>10211</v>
+      </c>
+      <c r="D245" s="12">
+        <v>99</v>
+      </c>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12">
+        <v>0</v>
+      </c>
+      <c r="G245" s="12">
+        <v>0</v>
+      </c>
+      <c r="H245" s="12">
+        <v>235</v>
+      </c>
+      <c r="I245" s="12">
+        <v>200</v>
+      </c>
+      <c r="J245" s="12">
+        <v>5</v>
+      </c>
+      <c r="K245">
+        <v>36</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="P245">
+        <v>1372094</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A246" s="12">
+        <v>10213</v>
+      </c>
+      <c r="B246" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>240级副本3号</v>
+      </c>
+      <c r="C246" s="12">
+        <f t="shared" si="11"/>
+        <v>10212</v>
+      </c>
+      <c r="D246" s="12">
+        <v>99</v>
+      </c>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12">
+        <v>0</v>
+      </c>
+      <c r="G246" s="12">
+        <v>0</v>
+      </c>
+      <c r="H246" s="12">
+        <v>240</v>
+      </c>
+      <c r="I246" s="12">
+        <v>200</v>
+      </c>
+      <c r="J246" s="12">
+        <v>5</v>
+      </c>
+      <c r="K246">
+        <v>36</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="P246">
+        <v>1372094</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A247" s="12">
+        <v>10214</v>
+      </c>
+      <c r="B247" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>245级副本4号</v>
+      </c>
+      <c r="C247" s="12">
+        <f t="shared" si="11"/>
+        <v>10213</v>
+      </c>
+      <c r="D247" s="12">
+        <v>99</v>
+      </c>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12">
+        <v>0</v>
+      </c>
+      <c r="G247" s="12">
+        <v>0</v>
+      </c>
+      <c r="H247" s="12">
+        <v>245</v>
+      </c>
+      <c r="I247" s="12">
+        <v>200</v>
+      </c>
+      <c r="J247" s="12">
+        <v>5</v>
+      </c>
+      <c r="K247">
+        <v>36</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
+      <c r="P247">
+        <v>1372094</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A248" s="12">
+        <v>10215</v>
+      </c>
+      <c r="B248" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>250级副本5号</v>
+      </c>
+      <c r="C248" s="12">
+        <f t="shared" si="11"/>
+        <v>10214</v>
+      </c>
+      <c r="D248" s="12">
+        <v>99</v>
+      </c>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12">
+        <v>0</v>
+      </c>
+      <c r="G248" s="12">
+        <v>0</v>
+      </c>
+      <c r="H248" s="12">
+        <v>250</v>
+      </c>
+      <c r="I248" s="12">
+        <v>200</v>
+      </c>
+      <c r="J248" s="12">
+        <v>5</v>
+      </c>
+      <c r="K248">
+        <v>36</v>
+      </c>
+      <c r="L248">
+        <v>5</v>
+      </c>
+      <c r="P248">
+        <v>1372094</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A249" s="12">
+        <v>10216</v>
+      </c>
+      <c r="B249" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>255级副本6号</v>
+      </c>
+      <c r="C249" s="12">
+        <f t="shared" si="11"/>
+        <v>10215</v>
+      </c>
+      <c r="D249" s="12">
+        <v>99</v>
+      </c>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12">
+        <v>0</v>
+      </c>
+      <c r="G249" s="12">
+        <v>0</v>
+      </c>
+      <c r="H249" s="12">
+        <v>255</v>
+      </c>
+      <c r="I249" s="12">
+        <v>200</v>
+      </c>
+      <c r="J249" s="12">
+        <v>5</v>
+      </c>
+      <c r="K249">
+        <v>36</v>
+      </c>
+      <c r="L249">
+        <v>6</v>
+      </c>
+      <c r="P249">
+        <v>823257</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A250" s="12">
+        <v>10217</v>
+      </c>
+      <c r="B250" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>260级副本1号</v>
+      </c>
+      <c r="C250" s="12">
+        <f t="shared" si="11"/>
+        <v>10216</v>
+      </c>
+      <c r="D250" s="12">
+        <v>99</v>
+      </c>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12">
+        <v>0</v>
+      </c>
+      <c r="G250" s="12">
+        <v>0</v>
+      </c>
+      <c r="H250" s="12">
+        <v>260</v>
+      </c>
+      <c r="I250" s="12">
+        <v>200</v>
+      </c>
+      <c r="J250" s="12">
+        <v>5</v>
+      </c>
+      <c r="K250">
+        <v>37</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="P250">
+        <v>1514903</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A251" s="12">
+        <v>10218</v>
+      </c>
+      <c r="B251" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>265级副本2号</v>
+      </c>
+      <c r="C251" s="12">
+        <f t="shared" si="11"/>
+        <v>10217</v>
+      </c>
+      <c r="D251" s="12">
+        <v>99</v>
+      </c>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12">
+        <v>0</v>
+      </c>
+      <c r="G251" s="12">
+        <v>0</v>
+      </c>
+      <c r="H251" s="12">
+        <v>265</v>
+      </c>
+      <c r="I251" s="12">
+        <v>200</v>
+      </c>
+      <c r="J251" s="12">
+        <v>5</v>
+      </c>
+      <c r="K251">
+        <v>37</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="P251">
+        <v>1514903</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A252" s="12">
+        <v>10219</v>
+      </c>
+      <c r="B252" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>270级副本3号</v>
+      </c>
+      <c r="C252" s="12">
+        <f t="shared" si="11"/>
+        <v>10218</v>
+      </c>
+      <c r="D252" s="12">
+        <v>99</v>
+      </c>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12">
+        <v>0</v>
+      </c>
+      <c r="G252" s="12">
+        <v>0</v>
+      </c>
+      <c r="H252" s="12">
+        <v>270</v>
+      </c>
+      <c r="I252" s="12">
+        <v>200</v>
+      </c>
+      <c r="J252" s="12">
+        <v>5</v>
+      </c>
+      <c r="K252">
+        <v>37</v>
+      </c>
+      <c r="L252">
+        <v>3</v>
+      </c>
+      <c r="P252">
+        <v>1514903</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A253" s="12">
+        <v>10220</v>
+      </c>
+      <c r="B253" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>275级副本4号</v>
+      </c>
+      <c r="C253" s="12">
+        <f t="shared" si="11"/>
+        <v>10219</v>
+      </c>
+      <c r="D253" s="12">
+        <v>99</v>
+      </c>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12">
+        <v>0</v>
+      </c>
+      <c r="G253" s="12">
+        <v>0</v>
+      </c>
+      <c r="H253" s="12">
+        <v>275</v>
+      </c>
+      <c r="I253" s="12">
+        <v>200</v>
+      </c>
+      <c r="J253" s="12">
+        <v>5</v>
+      </c>
+      <c r="K253">
+        <v>37</v>
+      </c>
+      <c r="L253">
+        <v>4</v>
+      </c>
+      <c r="P253">
+        <v>1514903</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A254" s="12">
+        <v>10221</v>
+      </c>
+      <c r="B254" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>280级副本5号</v>
+      </c>
+      <c r="C254" s="12">
+        <f t="shared" si="11"/>
+        <v>10220</v>
+      </c>
+      <c r="D254" s="12">
+        <v>99</v>
+      </c>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12">
+        <v>0</v>
+      </c>
+      <c r="G254" s="12">
+        <v>0</v>
+      </c>
+      <c r="H254" s="12">
+        <v>280</v>
+      </c>
+      <c r="I254" s="12">
+        <v>200</v>
+      </c>
+      <c r="J254" s="12">
+        <v>5</v>
+      </c>
+      <c r="K254">
+        <v>37</v>
+      </c>
+      <c r="L254">
+        <v>5</v>
+      </c>
+      <c r="P254">
+        <v>1514903</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A255" s="12">
+        <v>10222</v>
+      </c>
+      <c r="B255" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>285级副本6号</v>
+      </c>
+      <c r="C255" s="12">
+        <f t="shared" si="11"/>
+        <v>10221</v>
+      </c>
+      <c r="D255" s="12">
+        <v>99</v>
+      </c>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12">
+        <v>0</v>
+      </c>
+      <c r="G255" s="12">
+        <v>0</v>
+      </c>
+      <c r="H255" s="12">
+        <v>285</v>
+      </c>
+      <c r="I255" s="12">
+        <v>200</v>
+      </c>
+      <c r="J255" s="12">
+        <v>5</v>
+      </c>
+      <c r="K255">
+        <v>37</v>
+      </c>
+      <c r="L255">
+        <v>6</v>
+      </c>
+      <c r="P255">
+        <v>908942</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A256" s="12">
+        <v>10223</v>
+      </c>
+      <c r="B256" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>290级副本1号</v>
+      </c>
+      <c r="C256" s="12">
+        <f t="shared" si="11"/>
+        <v>10222</v>
+      </c>
+      <c r="D256" s="12">
+        <v>99</v>
+      </c>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12">
+        <v>0</v>
+      </c>
+      <c r="G256" s="12">
+        <v>0</v>
+      </c>
+      <c r="H256" s="12">
+        <v>290</v>
+      </c>
+      <c r="I256" s="12">
+        <v>200</v>
+      </c>
+      <c r="J256" s="12">
+        <v>5</v>
+      </c>
+      <c r="K256">
+        <v>38</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="P256">
+        <v>1672575</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A257" s="12">
+        <v>10224</v>
+      </c>
+      <c r="B257" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>295级副本2号</v>
+      </c>
+      <c r="C257" s="12">
+        <f t="shared" si="11"/>
+        <v>10223</v>
+      </c>
+      <c r="D257" s="12">
+        <v>99</v>
+      </c>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12">
+        <v>0</v>
+      </c>
+      <c r="G257" s="12">
+        <v>0</v>
+      </c>
+      <c r="H257" s="12">
+        <v>295</v>
+      </c>
+      <c r="I257" s="12">
+        <v>200</v>
+      </c>
+      <c r="J257" s="12">
+        <v>5</v>
+      </c>
+      <c r="K257">
+        <v>38</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="P257">
+        <v>1672575</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A258" s="12">
+        <v>10225</v>
+      </c>
+      <c r="B258" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>300级副本3号</v>
+      </c>
+      <c r="C258" s="12">
+        <f t="shared" si="11"/>
+        <v>10224</v>
+      </c>
+      <c r="D258" s="12">
+        <v>99</v>
+      </c>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12">
+        <v>0</v>
+      </c>
+      <c r="G258" s="12">
+        <v>0</v>
+      </c>
+      <c r="H258" s="12">
+        <v>300</v>
+      </c>
+      <c r="I258" s="12">
+        <v>200</v>
+      </c>
+      <c r="J258" s="12">
+        <v>5</v>
+      </c>
+      <c r="K258">
+        <v>38</v>
+      </c>
+      <c r="L258">
+        <v>3</v>
+      </c>
+      <c r="P258">
+        <v>1672575</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A259" s="12">
+        <v>10226</v>
+      </c>
+      <c r="B259" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>305级副本4号</v>
+      </c>
+      <c r="C259" s="12">
+        <f t="shared" si="11"/>
+        <v>10225</v>
+      </c>
+      <c r="D259" s="12">
+        <v>99</v>
+      </c>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12">
+        <v>0</v>
+      </c>
+      <c r="G259" s="12">
+        <v>0</v>
+      </c>
+      <c r="H259" s="12">
+        <v>305</v>
+      </c>
+      <c r="I259" s="12">
+        <v>200</v>
+      </c>
+      <c r="J259" s="12">
+        <v>5</v>
+      </c>
+      <c r="K259">
+        <v>38</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+      <c r="P259">
+        <v>1672575</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A260" s="12">
+        <v>10227</v>
+      </c>
+      <c r="B260" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>310级副本5号</v>
+      </c>
+      <c r="C260" s="12">
+        <f t="shared" si="11"/>
+        <v>10226</v>
+      </c>
+      <c r="D260" s="12">
+        <v>99</v>
+      </c>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12">
+        <v>0</v>
+      </c>
+      <c r="G260" s="12">
+        <v>0</v>
+      </c>
+      <c r="H260" s="12">
+        <v>310</v>
+      </c>
+      <c r="I260" s="12">
+        <v>200</v>
+      </c>
+      <c r="J260" s="12">
+        <v>5</v>
+      </c>
+      <c r="K260">
+        <v>38</v>
+      </c>
+      <c r="L260">
+        <v>5</v>
+      </c>
+      <c r="P260">
+        <v>1672575</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A261" s="12">
+        <v>10228</v>
+      </c>
+      <c r="B261" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>315级副本6号</v>
+      </c>
+      <c r="C261" s="12">
+        <f t="shared" si="11"/>
+        <v>10227</v>
+      </c>
+      <c r="D261" s="12">
+        <v>99</v>
+      </c>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12">
+        <v>0</v>
+      </c>
+      <c r="G261" s="12">
+        <v>0</v>
+      </c>
+      <c r="H261" s="12">
+        <v>315</v>
+      </c>
+      <c r="I261" s="12">
+        <v>200</v>
+      </c>
+      <c r="J261" s="12">
+        <v>5</v>
+      </c>
+      <c r="K261">
+        <v>38</v>
+      </c>
+      <c r="L261">
+        <v>6</v>
+      </c>
+      <c r="P261">
+        <v>1003545</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A262" s="12">
+        <v>10229</v>
+      </c>
+      <c r="B262" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>320级副本1号</v>
+      </c>
+      <c r="C262" s="12">
+        <f t="shared" si="11"/>
+        <v>10228</v>
+      </c>
+      <c r="D262" s="12">
+        <v>99</v>
+      </c>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12">
+        <v>0</v>
+      </c>
+      <c r="G262" s="12">
+        <v>0</v>
+      </c>
+      <c r="H262" s="12">
+        <v>320</v>
+      </c>
+      <c r="I262" s="12">
+        <v>200</v>
+      </c>
+      <c r="J262" s="12">
+        <v>5</v>
+      </c>
+      <c r="K262">
+        <v>39</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="P262">
+        <v>1846657</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A263" s="12">
+        <v>10230</v>
+      </c>
+      <c r="B263" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>325级副本2号</v>
+      </c>
+      <c r="C263" s="12">
+        <f t="shared" si="11"/>
+        <v>10229</v>
+      </c>
+      <c r="D263" s="12">
+        <v>99</v>
+      </c>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12">
+        <v>0</v>
+      </c>
+      <c r="G263" s="12">
+        <v>0</v>
+      </c>
+      <c r="H263" s="12">
+        <v>325</v>
+      </c>
+      <c r="I263" s="12">
+        <v>200</v>
+      </c>
+      <c r="J263" s="12">
+        <v>5</v>
+      </c>
+      <c r="K263">
+        <v>39</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="P263">
+        <v>1846657</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A264" s="12">
+        <v>10231</v>
+      </c>
+      <c r="B264" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>330级副本3号</v>
+      </c>
+      <c r="C264" s="12">
+        <f t="shared" si="11"/>
+        <v>10230</v>
+      </c>
+      <c r="D264" s="12">
+        <v>99</v>
+      </c>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12">
+        <v>0</v>
+      </c>
+      <c r="G264" s="12">
+        <v>0</v>
+      </c>
+      <c r="H264" s="12">
+        <v>330</v>
+      </c>
+      <c r="I264" s="12">
+        <v>200</v>
+      </c>
+      <c r="J264" s="12">
+        <v>5</v>
+      </c>
+      <c r="K264">
+        <v>39</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="P264">
+        <v>1846657</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A265" s="12">
+        <v>10232</v>
+      </c>
+      <c r="B265" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>335级副本4号</v>
+      </c>
+      <c r="C265" s="12">
+        <f t="shared" si="11"/>
+        <v>10231</v>
+      </c>
+      <c r="D265" s="12">
+        <v>99</v>
+      </c>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12">
+        <v>0</v>
+      </c>
+      <c r="G265" s="12">
+        <v>0</v>
+      </c>
+      <c r="H265" s="12">
+        <v>335</v>
+      </c>
+      <c r="I265" s="12">
+        <v>200</v>
+      </c>
+      <c r="J265" s="12">
+        <v>5</v>
+      </c>
+      <c r="K265">
+        <v>39</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="P265">
+        <v>1846657</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A266" s="12">
+        <v>10233</v>
+      </c>
+      <c r="B266" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>340级副本5号</v>
+      </c>
+      <c r="C266" s="12">
+        <f t="shared" si="11"/>
+        <v>10232</v>
+      </c>
+      <c r="D266" s="12">
+        <v>99</v>
+      </c>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12">
+        <v>0</v>
+      </c>
+      <c r="G266" s="12">
+        <v>0</v>
+      </c>
+      <c r="H266" s="12">
+        <v>340</v>
+      </c>
+      <c r="I266" s="12">
+        <v>200</v>
+      </c>
+      <c r="J266" s="12">
+        <v>5</v>
+      </c>
+      <c r="K266">
+        <v>39</v>
+      </c>
+      <c r="L266">
+        <v>5</v>
+      </c>
+      <c r="P266">
+        <v>1846657</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A267" s="12">
+        <v>10234</v>
+      </c>
+      <c r="B267" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>345级副本6号</v>
+      </c>
+      <c r="C267" s="12">
+        <f t="shared" si="11"/>
+        <v>10233</v>
+      </c>
+      <c r="D267" s="12">
+        <v>99</v>
+      </c>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12">
+        <v>0</v>
+      </c>
+      <c r="G267" s="12">
+        <v>0</v>
+      </c>
+      <c r="H267" s="12">
+        <v>345</v>
+      </c>
+      <c r="I267" s="12">
+        <v>200</v>
+      </c>
+      <c r="J267" s="12">
+        <v>5</v>
+      </c>
+      <c r="K267">
+        <v>39</v>
+      </c>
+      <c r="L267">
+        <v>6</v>
+      </c>
+      <c r="P267">
+        <v>1107994</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A268" s="12">
+        <v>10235</v>
+      </c>
+      <c r="B268" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>350级副本1号</v>
+      </c>
+      <c r="C268" s="12">
+        <f t="shared" si="11"/>
+        <v>10234</v>
+      </c>
+      <c r="D268" s="12">
+        <v>99</v>
+      </c>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12">
+        <v>0</v>
+      </c>
+      <c r="G268" s="12">
+        <v>0</v>
+      </c>
+      <c r="H268" s="12">
+        <v>350</v>
+      </c>
+      <c r="I268" s="12">
+        <v>200</v>
+      </c>
+      <c r="J268" s="12">
+        <v>5</v>
+      </c>
+      <c r="K268">
+        <v>40</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="P268">
+        <v>1998880</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A269" s="12">
+        <v>10236</v>
+      </c>
+      <c r="B269" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>355级副本2号</v>
+      </c>
+      <c r="C269" s="12">
+        <f t="shared" si="11"/>
+        <v>10235</v>
+      </c>
+      <c r="D269" s="12">
+        <v>99</v>
+      </c>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12">
+        <v>0</v>
+      </c>
+      <c r="G269" s="12">
+        <v>0</v>
+      </c>
+      <c r="H269" s="12">
+        <v>355</v>
+      </c>
+      <c r="I269" s="12">
+        <v>200</v>
+      </c>
+      <c r="J269" s="12">
+        <v>5</v>
+      </c>
+      <c r="K269">
+        <v>40</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="P269">
+        <v>1998880</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A270" s="12">
+        <v>10237</v>
+      </c>
+      <c r="B270" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>360级副本3号</v>
+      </c>
+      <c r="C270" s="12">
+        <f t="shared" si="11"/>
+        <v>10236</v>
+      </c>
+      <c r="D270" s="12">
+        <v>99</v>
+      </c>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12">
+        <v>0</v>
+      </c>
+      <c r="G270" s="12">
+        <v>0</v>
+      </c>
+      <c r="H270" s="12">
+        <v>360</v>
+      </c>
+      <c r="I270" s="12">
+        <v>200</v>
+      </c>
+      <c r="J270" s="12">
+        <v>5</v>
+      </c>
+      <c r="K270">
+        <v>40</v>
+      </c>
+      <c r="L270">
+        <v>3</v>
+      </c>
+      <c r="P270">
+        <v>1998880</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A271" s="12">
+        <v>10238</v>
+      </c>
+      <c r="B271" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>365级副本4号</v>
+      </c>
+      <c r="C271" s="12">
+        <f t="shared" si="11"/>
+        <v>10237</v>
+      </c>
+      <c r="D271" s="12">
+        <v>99</v>
+      </c>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12">
+        <v>0</v>
+      </c>
+      <c r="G271" s="12">
+        <v>0</v>
+      </c>
+      <c r="H271" s="12">
+        <v>365</v>
+      </c>
+      <c r="I271" s="12">
+        <v>200</v>
+      </c>
+      <c r="J271" s="12">
+        <v>5</v>
+      </c>
+      <c r="K271">
+        <v>40</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="P271">
+        <v>1998880</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A272" s="12">
+        <v>10239</v>
+      </c>
+      <c r="B272" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>370级副本5号</v>
+      </c>
+      <c r="C272" s="12">
+        <f t="shared" si="11"/>
+        <v>10238</v>
+      </c>
+      <c r="D272" s="12">
+        <v>99</v>
+      </c>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12">
+        <v>0</v>
+      </c>
+      <c r="G272" s="12">
+        <v>0</v>
+      </c>
+      <c r="H272" s="12">
+        <v>370</v>
+      </c>
+      <c r="I272" s="12">
+        <v>200</v>
+      </c>
+      <c r="J272" s="12">
+        <v>5</v>
+      </c>
+      <c r="K272">
+        <v>40</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="P272">
+        <v>1998880</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/table/任务表.xlsx
+++ b/doc/table/任务表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,8 +212,415 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+    <t>20000:1:1-1,20000:20:1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司命神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;青青&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]回复&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]对话&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=剧情
+2=日常
+3=家族
+99=副本内容
+0=其他功能，用任务id实现需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
+&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;小妹妹，你知道孙策将军在何处吗！&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;孙策将军，我乃吕布义子，有何方法能搭救我义父。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;大人不必自责，耽误之急我们要将义父救出来。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;此招甚是威猛，多谢将军。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;大乔姐姐，孙策将军让我来接你了。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;自从习得了孙策大人传授的招数，斩妖除魔什么的变轻松了!&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;为何带上此项链后，感到力大无穷。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;大人，我已将白玉瓶带回来，此瓶与救我义父有何关联!&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;当真？看来我的小马驹还是一位可靠的朋友呢。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;小白，你是否空虚寂寞冷，我来陪伴你了。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;为何使用一次，白玉瓶就坏了呢。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;大人，果真找到了衣冠冢吗？那我们立刻启程吧。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;巫山上妖兽丛生，甚是险恶啊。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;专业采药，保质保量。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;统领，你也是来助我解救义父的吗？&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;追兵太多了，敌众我寡，这么硬拼不是办法啊&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;崭新的装备，真是酷炫无极限啊。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;水镜先生，我总是感觉到体内有股神力似快似慢的游走。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
+ user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
+elseif user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;为……为什么义父要这样，义父啊！！！&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1008) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+end</t>
   </si>
   <si>
     <t>if user.CheckNearNpc(1000) == false then
@@ -224,724 +631,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000:1:1-1,20000:20:1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大乔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水镜先生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
+&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我是侍剑，司命大人还在抵挡追兵。你虽勇猛，但拼杀时不顾自身，大人命我赠你&lt;/color&gt;&lt;color value="green"&gt;裤子&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1002) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1003) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1001) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;或许……无论如何，先与大乔一起去寻找孙策将军吧，我要先去别处。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1005) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我是青青，孙策将军就在城中，可最近附近出现许多凶残的妖兽，挡住了入城的道路。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我等你多时了，听闻吕布的事情我就马不停蹄赶到这里，可终究还是晚了一步。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;少侠十分勇猛，你去对付前方的妖兽先耍几招，我再教你些招式可好!&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;大乔好像被妖兽困在了附近的夷山上，烧香能否去为我搭救一下!&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我的项链上有4颗琉璃宝石，可是却被妖兽夺走了，少侠助我夺回!&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;不愧为吕布之子，果然厉害，我已把宝石镶嵌到项链上，就将此项链赠与你把!&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1004) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我夫君是让我来追查白玉瓶的下落，应该就在那些妖兽处。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;少侠的坐骑乃当年蚩尤坐骑产子，通过磨练将拥有无穷的神力。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;白玉瓶拥有封印之力，小白知道如何使用，但它缺少玩伴，最近总是闷闷不乐，我何不将你变成小白陪她玩耍呢。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;你是否也曾有感觉到无助！好了，多谢你的陪伴，应龙的魔化校尉已经追杀来了，使用白玉瓶可封印其能力。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1006) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;你的强大超乎我想象，孙策大人似乎打探到了吕布衣冠冢的下落，快去找他吧。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我已经打探到衣冠冢所在，可被应龙伏兵所伤，可否为我去巫山采集写草药。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;我伤势太重，这些草药似乎不足以令我恢复，请再去收集一些吧。&lt;/color&gt;]]
+end</t>
+  </si>
+  <si>
+    <t>if user.CheckNearNpc(1007) == false then
+ user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
+else
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;水镜先生已经赶来了，快去与他会合吧。&lt;/color&gt;]]
+end</t>
   </si>
   <si>
     <t>if user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;应龙的大批追兵已经追赶过来，你快随我应战。&lt;/color&gt;]]
 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为什么要带我来这里，我要救义父出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我们应该暂时安全了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;就这点虾兵蟹将,看来我还是能应付的，可为什么他们这么快就追来了呢！&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不好,追兵已经来到村子。你们分头行动，一定要阻止他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;多谢侍剑姐姐，我一定多杀敌人，不辜负你与司命的恩情。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人已把追兵击退了，快去与司命汇合吧，会有更大的困难等着你。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司命神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;侍剑&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙已经派张角追杀过来，此人妖法强劲，实力深不可测。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;看来我果然还是弱爆了，要不是司命大人相救，我或许已经抵挡不住了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]迎战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;失散的踏歌也找寻过来了，我们快去与她会合。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;踏歌，找到你太好了！。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;司命神&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;有一小股追兵尾随在我身后进入了村子，快去阻挡他们。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过历练，我隐约感觉到体内逐渐强大的力魄。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]阻挡&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;踏歌&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人，找我何事。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1003) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1003,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;司命大人找你，可能已经找到义军下落了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你来啦，我将义军孙策的夫人带来了，但有股追兵来袭，快去阻击。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔果然名不虚传，真是美艳照人啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]阻击&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君乃义军孙策，他有解救义军头领吕布大人的办法。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;真的能救出义父那就太好了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;刚才发生了什么，为什么我会变成那个样子。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你太鲁莽了。这下可好，救人不成。你义父为了分心救你，却被应龙封印在衣冠冢内。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Atlases/SkillIcon" sprite="5000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;都怪我还不够强大，反而拖累了义父。&lt;/color&gt;
-&lt;br /&gt;任务奖励:&lt;br /&gt;&lt;img atlas="Assets/Textures/GuiTexture" sprite="2000" /&gt;&lt;color value="white"&gt;             500经验&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;但张角带着一只大猛兽又再次袭来，我们暂时出不了村子。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1001) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1001,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;或许……无论如何，先与大乔一起去寻找孙策将军吧，我要先去别处。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1005) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小妹妹，你知道孙策将军在何处吗！&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;青青&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1005) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1005,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是青青，孙策将军就在城中，可最近附近出现许多凶残的妖兽，挡住了入城的道路。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]清除&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孙策将军，我乃吕布义子，有何方法能搭救我义父。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我等你多时了，听闻吕布的事情我就马不停蹄赶到这里，可终究还是晚了一步。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人不必自责，耽误之急我们要将义父救出来。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠十分勇猛，你去对付前方的妖兽先耍几招，我再教你些招式可好!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]教训&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;此招甚是威猛，多谢将军。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔好像被妖兽困在了附近的夷山上，烧香能否去为我搭救一下!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大乔姐姐，孙策将军让我来接你了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我的项链上有4颗琉璃宝石，可是却被妖兽夺走了，少侠助我夺回!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;自从习得了孙策大人传授的招数，斩妖除魔什么的变轻松了!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何带上此项链后，感到力大无穷。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;不愧为吕布之子，果然厉害，我已把宝石镶嵌到项链上，就将此项链赠与你把!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1004) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1004,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我夫君是让我来追查白玉瓶的下落，应该就在那些妖兽处。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人，我已将白玉瓶带回来，此瓶与救我义父有何关联!&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;少侠的坐骑乃当年蚩尤坐骑产子，通过磨练将拥有无穷的神力。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;当真？看来我的小马驹还是一位可靠的朋友呢。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;白玉瓶拥有封印之力，小白知道如何使用，但它缺少玩伴，最近总是闷闷不乐，我何不将你变成小白陪她玩耍呢。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;小白，你是否空虚寂寞冷，我来陪伴你了。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为何使用一次，白玉瓶就坏了呢。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;小白&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你是否也曾有感觉到无助！好了，多谢你的陪伴，应龙的魔化校尉已经追杀来了，使用白玉瓶可封印其能力。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1006) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1006,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;你的强大超乎我想象，孙策大人似乎打探到了吕布衣冠冢的下落，快去找他吧。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;大人，果真找到了衣冠冢吗？那我们立刻启程吧。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我已经打探到衣冠冢所在，可被应龙伏兵所伤，可否为我去巫山采集写草药。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;巫山上妖兽丛生，甚是险恶啊。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我伤势太重，这些草药似乎不足以令我恢复，请再去收集一些吧。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;专业采药，保质保量。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;孙策&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;水镜先生已经赶来了，快去与他会合吧。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1007) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1007,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;统领，你也是来助我解救义父的吗？&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙的大批追兵已经追赶过来，你快随我应战。&lt;/color&gt;]]
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;通过一路过来的历练，你的战力提升很快，并且你获得的这些装备都是稀释神兵，我来教你如何强化它们。&lt;/color&gt;]]
 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;追兵太多了，敌众我寡，这么硬拼不是办法啊&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]回复&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;通过一路过来的历练，你的战力提升很快，并且你获得的这些装备都是稀释神兵，我来教你如何强化它们。&lt;/color&gt;]]
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;应龙的手下正无穷无尽的向我们这儿赶来，先去抵挡一下吧。&lt;/color&gt;]]
 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;崭新的装备，真是酷炫无极限啊。&lt;/color&gt;]]
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;孙策已敢去衣冠冢，你快随我一同前往。看来只有解封吕布才能彻底解决这些追兵。&lt;/color&gt;]]
 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]对话&lt;color value="green"&gt;水镜先生&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if user.CheckNearNpc(1008) == false then
  user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
 else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;应龙的手下正无穷无尽的向我们这儿赶来，先去抵挡一下吧。&lt;/color&gt;]]
+ return [[&lt;color value="#B9A078"&gt;任务描述:&lt;/color&gt;&lt;br /&gt;&lt;img atlas="Atlases/ShenZuoGui" sprite="line"/&gt;&lt;br /&gt;&lt;br /&gt;&lt;color value="white"&gt;孩纸~不要悲伤，要继承你义父的志愿，推翻残暴的朝庭，当今天下有三股已经成型的义军势力，&lt;/color&gt;&lt;color value="green"&gt;中山靖王之后刘备，江南孙策之弟孙权，北方雄狮曹操。&lt;/color&gt;&lt;color value="white"&gt;你要选择哪一方加入？&lt;/color&gt;]]
 end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;水镜先生，我总是感觉到体内有股神力似快似慢的游走。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孙策已敢去衣冠冢，你快随我一同前往。看来只有解封吕布才能彻底解决这些追兵。&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if quest.GetProcess() ~= Cmd.QuestProcess_QuestProcess_CanDone then
- user.ReturnClickQuestTraceAttckMonster(quest, 10000,false)
-elseif user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;为……为什么义父要这样，义父啊！！！&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]决战&lt;color value="green"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1002) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1002,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;我是侍剑，司命大人还在抵挡追兵。你虽勇猛，但拼杀时不顾自身，大人命我赠你&lt;/color&gt;&lt;color value="green"&gt;裤子&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if user.CheckNearNpc(1008) == false then
- user.ReturnClickQuestTraceGoToNpc(quest, 1008,true)
-else
- return [[任务描述:&lt;br /&gt;&lt;color value="white"&gt;孩纸~不要悲伤，要继承你义父的志愿，推翻残暴的朝庭，当今天下有三股已经成型的义军势力，&lt;/color&gt;&lt;color value="green"&gt;中山靖王之后刘备，江南孙策之弟孙权，北方雄狮曹操。&lt;/color&gt;&lt;color value="white"&gt;你要选择哪一方加入？&lt;/color&gt;]]
-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return [[[主]寻找&lt;color value="green"&gt;大乔&lt;/color&gt;]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=剧情
-2=日常
-3=家族
-99=副本内容
-0=其他功能，用任务id实现需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return [[[主]教训&lt;color value="white"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+  </si>
+  <si>
+    <t>return [[[主]迎战&lt;color value="white"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+  </si>
+  <si>
+    <t>return [[[主]阻挡&lt;color value="white"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+  </si>
+  <si>
+    <t>return [[[主]阻击&lt;color value="white"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+  </si>
+  <si>
+    <t>return [[[主]清除&lt;color value="white"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
+  </si>
+  <si>
+    <t>return [[[主]决战&lt;color value="white"&gt;小老虎({1}/{2})&lt;/color&gt;]]</t>
   </si>
 </sst>
 </file>
@@ -1372,9 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K226" sqref="K226:L272"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1413,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -1422,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>13</v>
@@ -1467,7 +1390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1506,7 +1429,7 @@
         <v>1001</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1515,17 +1438,17 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1565,13 +1488,13 @@
         <v>1001</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3">
         <v>1001</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1581,14 +1504,14 @@
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="9" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1628,13 +1551,13 @@
         <v>1001</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4">
         <v>1002</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1644,16 +1567,16 @@
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="9" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="V4" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O4&amp;");"</f>
@@ -1697,13 +1620,13 @@
         <v>1002</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>1002</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1712,17 +1635,17 @@
         <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1762,13 +1685,13 @@
         <v>1002</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>1001</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1778,14 +1701,14 @@
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="9" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1825,13 +1748,13 @@
         <v>1001</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M7">
         <v>1001</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1841,16 +1764,16 @@
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="9" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="V7" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O7&amp;");"</f>
@@ -1894,13 +1817,13 @@
         <v>1001</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M8">
         <v>1003</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1910,14 +1833,14 @@
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="9" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1957,13 +1880,13 @@
         <v>1003</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9">
         <v>1003</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -1973,16 +1896,16 @@
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="V9" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O9&amp;");"</f>
@@ -2026,13 +1949,13 @@
         <v>1003</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10">
         <v>1001</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2042,14 +1965,14 @@
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="9" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2089,13 +2012,13 @@
         <v>1001</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M11">
         <v>1004</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -2105,16 +2028,16 @@
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="9" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="V11" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O11&amp;");"</f>
@@ -2157,13 +2080,13 @@
         <v>1004</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>1004</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2173,14 +2096,14 @@
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="9" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2219,13 +2142,13 @@
         <v>1004</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M13">
         <v>1001</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -2235,16 +2158,16 @@
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="9" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V13" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O13&amp;");"</f>
@@ -2288,13 +2211,13 @@
         <v>1001</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M14" s="10">
         <v>1005</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O14" s="10">
         <v>0</v>
@@ -2304,14 +2227,14 @@
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>98</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2351,13 +2274,13 @@
         <v>1005</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15">
         <v>1007</v>
       </c>
       <c r="N15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -2367,16 +2290,16 @@
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="9" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="V15" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O15&amp;");"</f>
@@ -2420,13 +2343,13 @@
         <v>1007</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M16">
         <v>1007</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2436,14 +2359,14 @@
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="9" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2480,13 +2403,13 @@
         <v>1007</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M17">
         <v>1007</v>
       </c>
       <c r="N17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2496,16 +2419,16 @@
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="9" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="V17" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O17&amp;");"</f>
@@ -2546,13 +2469,13 @@
         <v>1007</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M18">
         <v>1004</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2562,14 +2485,14 @@
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="9" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2606,13 +2529,13 @@
         <v>1004</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M19">
         <v>1004</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -2622,16 +2545,16 @@
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="9" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="V19" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O19&amp;");"</f>
@@ -2672,13 +2595,13 @@
         <v>1004</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M20">
         <v>1004</v>
       </c>
       <c r="N20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2688,14 +2611,14 @@
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2732,13 +2655,13 @@
         <v>1004</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M21">
         <v>1007</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -2748,16 +2671,16 @@
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="9" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="V21" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O21&amp;");"</f>
@@ -2798,13 +2721,13 @@
         <v>1007</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M22">
         <v>1007</v>
       </c>
       <c r="N22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2814,14 +2737,14 @@
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,13 +2781,13 @@
         <v>1007</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M23">
         <v>1006</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2874,14 +2797,14 @@
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="9" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="10" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2918,13 +2841,13 @@
         <v>1006</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M24" s="10">
         <v>1006</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O24" s="10">
         <v>2</v>
@@ -2934,16 +2857,16 @@
       </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="11" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="V24" s="10" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O24&amp;");"</f>
@@ -2984,13 +2907,13 @@
         <v>1006</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M25">
         <v>1007</v>
       </c>
       <c r="N25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3000,14 +2923,14 @@
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3044,13 +2967,13 @@
         <v>1007</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M26">
         <v>1007</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -3060,16 +2983,16 @@
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="V26" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O26&amp;");"</f>
@@ -3110,13 +3033,13 @@
         <v>1007</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27">
         <v>1007</v>
       </c>
       <c r="N27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3126,16 +3049,16 @@
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="V27" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O27&amp;");"</f>
@@ -3176,13 +3099,13 @@
         <v>1007</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M28">
         <v>1008</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3192,14 +3115,14 @@
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3236,13 +3159,13 @@
         <v>1008</v>
       </c>
       <c r="L29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M29">
         <v>1008</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O29">
         <v>2</v>
@@ -3252,16 +3175,16 @@
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="V29" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O29&amp;");"</f>
@@ -3302,13 +3225,13 @@
         <v>1008</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M30">
         <v>1008</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3318,14 +3241,14 @@
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3362,13 +3285,13 @@
         <v>1008</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M31">
         <v>1008</v>
       </c>
       <c r="N31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -3381,13 +3304,13 @@
         <v>147</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="V31" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O31&amp;");"</f>
@@ -3428,13 +3351,13 @@
         <v>1008</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M32">
         <v>1008</v>
       </c>
       <c r="N32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O32">
         <v>2</v>
@@ -3444,16 +3367,16 @@
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="V32" t="str">
         <f>"AddEventKillNpc(base, 10000, "&amp;O32&amp;");"</f>
@@ -3494,13 +3417,13 @@
         <v>1008</v>
       </c>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M33">
         <v>1008</v>
       </c>
       <c r="N33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3510,14 +3433,14 @@
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -13493,7 +13416,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
